--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="203">
   <si>
     <t>Jfokus</t>
   </si>
@@ -310,9 +310,6 @@
     <t>https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen</t>
   </si>
   <si>
-    <t>2018-02-28</t>
-  </si>
-  <si>
     <t>New York City</t>
   </si>
   <si>
@@ -625,9 +622,6 @@
     <t>Break your event chains! Complex event flows in distributed systems.</t>
   </si>
   <si>
-    <t>https://conferences.oreilly.com/software-architecture/sa-ny/public/schedule/detail/63689</t>
-  </si>
-  <si>
     <t>https://voxxeddaysvienna2018.sched.com/event/Dl0C/patience-pays-off-how-long-running-services-reduce-complexity</t>
   </si>
   <si>
@@ -635,6 +629,12 @@
   </si>
   <si>
     <t>https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/</t>
+  </si>
+  <si>
+    <t>https://youtu.be/O2-NHptllKQ</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01586060-4301-42D6-A296-5BF85ED0BBE5}">
-  <dimension ref="A2:N50"/>
+  <dimension ref="A2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1061,57 +1061,57 @@
     </row>
     <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L4" s="4" t="str">
         <f>IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M4" s="3" t="str">
         <f>IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N4" t="str">
-        <f>IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="N4:N6" si="0">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>126</v>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="L5" s="4" t="str">
         <f>IF(E5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -1119,80 +1119,83 @@
       </c>
       <c r="M5" s="3" t="str">
         <f>IF((LEN(G5)&gt;0),"&lt;a href='"&amp;G5&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H5)&gt;0),"&lt;a href='"&amp;H5&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I5)&gt;0),"&lt;a href='"&amp;I5&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J5)&gt;0),"&lt;a href='"&amp;J5&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N5" t="str">
-        <f>IF(LEN(A5)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G5&amp;"'&gt;"&amp;F5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" "&amp;L5&amp;" "&amp;C5&amp;" ("&amp;D5&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M5&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>155</v>
+      <c r="B6" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f t="shared" ref="L6:L35" si="0">IF(E6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f>IF(E6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f t="shared" ref="M6:M35" si="1">IF((LEN(G6)&gt;0),"&lt;a href='"&amp;G6&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H6)&gt;0),"&lt;a href='"&amp;H6&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I6)&gt;0),"&lt;a href='"&amp;I6&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J6)&gt;0),"&lt;a href='"&amp;J6&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f>IF((LEN(G6)&gt;0),"&lt;a href='"&amp;G6&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H6)&gt;0),"&lt;a href='"&amp;H6&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I6)&gt;0),"&lt;a href='"&amp;I6&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J6)&gt;0),"&lt;a href='"&amp;J6&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" ref="N6:N50" si="2">IF(LEN(A6)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G6&amp;"'&gt;"&amp;F6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" "&amp;L6&amp;" "&amp;C6&amp;" ("&amp;D6&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M6&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" ref="L7:L36" si="1">IF(E7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" ref="M7:M36" si="2">IF((LEN(G7)&gt;0),"&lt;a href='"&amp;G7&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H7)&gt;0),"&lt;a href='"&amp;H7&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I7)&gt;0),"&lt;a href='"&amp;I7&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J7)&gt;0),"&lt;a href='"&amp;J7&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="N7:N51" si="3">IF(LEN(A7)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G7&amp;"'&gt;"&amp;F7&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B7&amp;" "&amp;L7&amp;" "&amp;C7&amp;" ("&amp;D7&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M7&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1204,322 +1207,319 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M16" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="L17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M17" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N16" t="str">
-        <f t="shared" si="2"/>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1527,13 +1527,13 @@
         <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -1542,19 +1542,19 @@
         <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1562,7 +1562,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -1574,92 +1574,92 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
         <v>67</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="L20" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M19" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="M20" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N19" t="str">
-        <f t="shared" si="2"/>
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1667,10 +1667,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>74</v>
@@ -1679,22 +1679,22 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1702,37 +1702,34 @@
         <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1740,34 +1737,37 @@
         <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
       </c>
       <c r="L24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1775,34 +1775,34 @@
         <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1810,34 +1810,34 @@
         <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1845,37 +1845,34 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1883,31 +1880,37 @@
         <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" t="s">
+        <v>103</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1915,7 +1918,7 @@
         <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -1927,19 +1930,19 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1947,34 +1950,31 @@
         <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" t="s">
         <v>107</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1982,34 +1982,34 @@
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="J31" t="s">
+        <v>106</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2017,10 +2017,10 @@
         <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -2029,22 +2029,22 @@
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="G32" t="s">
+        <v>109</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2052,34 +2052,34 @@
         <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="J33" t="s">
+        <v>113</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2087,31 +2087,34 @@
         <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="G34" t="s">
+        <v>114</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2119,261 +2122,294 @@
         <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
         <v>120</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
         <v>121</v>
       </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="I36" t="s">
         <v>122</v>
       </c>
-      <c r="I35" t="s">
-        <v>123</v>
-      </c>
-      <c r="L35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M35" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="L36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M36" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="2"/>
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L36" s="4" t="str">
-        <f t="shared" ref="L36:L50" si="3">IF(E36="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M36" s="3" t="str">
-        <f t="shared" ref="M36:M50" si="4">IF((LEN(G36)&gt;0),"&lt;a href='"&amp;G36&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H36)&gt;0),"&lt;a href='"&amp;H36&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I36)&gt;0),"&lt;a href='"&amp;I36&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J36)&gt;0),"&lt;a href='"&amp;J36&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v/>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L37:L51" si="4">IF(E37="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M37" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M37:M51" si="5">IF((LEN(G37)&gt;0),"&lt;a href='"&amp;G37&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H37)&gt;0),"&lt;a href='"&amp;H37&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I37)&gt;0),"&lt;a href='"&amp;I37&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J37)&gt;0),"&lt;a href='"&amp;J37&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
         <v/>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L38" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M38" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L39" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M39" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L40" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M40" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L41" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M41" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M42" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M43" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L44" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M44" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L45" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M45" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L46" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M46" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L47" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M47" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L48" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M48" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="49" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L49" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M49" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="50" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L50" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M50" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L51" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M51" s="3" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N50" t="str">
-        <f t="shared" si="2"/>
+      <c r="N51" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{FDDD29D1-9830-4C9D-8735-D25A5B6DE6C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DED00E-46E1-48BC-B1F1-251D95106922}">
-  <dimension ref="A2:I48"/>
+  <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2399,114 +2435,114 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>94</v>
+      <c r="A4" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f t="shared" ref="H4:H48" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="H4:H47" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I4" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://conferences.oreilly.com/software-architecture/sa-ny/public/schedule/detail/63689'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;O'Reilly Software Architecture &lt;br&gt; 2018-02-28 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; New York City&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="I4:I47" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://qconlondon.com/london2018/presentation/3-common-pitfalls-microservice-integration-and-how-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;Qcon &lt;br&gt; 2018-03-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="F5" t="s">
+        <v>198</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I48" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F5&amp;"'&gt;"&amp;E5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" &lt;br&gt; "&amp;A5&amp;" "&amp;H5&amp;" "&amp;C5&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://qconlondon.com/london2018/presentation/3-common-pitfalls-microservice-integration-and-how-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;Qcon &lt;br&gt; 2018-03-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://voxxeddaysvienna2018.sched.com/event/Dl0C/patience-pays-off-how-long-running-services-reduce-complexity'&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;Voxxed &lt;br&gt; 2018-03-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Vienna&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" t="s">
-        <v>200</v>
+        <v>168</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://voxxeddaysvienna2018.sched.com/event/Dl0C/patience-pays-off-how-long-running-services-reduce-complexity'&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;Voxxed &lt;br&gt; 2018-03-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Vienna&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Domain-Driven-Design-Koln-Bonn/events/247273344/'&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;DDD Meetup &lt;br&gt; 2018-03-19 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2514,55 +2550,55 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Domain-Driven-Design-Koln-Bonn/events/247273344/'&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;DDD Meetup &lt;br&gt; 2018-03-19 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/jugthde/events/245462401/'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;Java User Group &lt;br&gt; 2018-03-22 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Erfurt&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/jugthde/events/245462401/'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;Java User Group &lt;br&gt; 2018-03-22 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Erfurt&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://java.withthebest.com/'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;Java With the Best &lt;br&gt; 2018-04-17 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Online&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2570,27 +2606,27 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://java.withthebest.com/'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;Java With the Best &lt;br&gt; 2018-04-17 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Online&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://amsterdam2018.codemotionworld.com/talk-detail/?detail=7544'&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-05-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Amsterdam&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2598,46 +2634,46 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://amsterdam2018.codemotionworld.com/talk-detail/?detail=7544'&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-05-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Amsterdam&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://craft-conf.com/'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;Craft-Conf &lt;br&gt; 2018-05-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Budapest&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>194</v>
+        <v>170</v>
+      </c>
+      <c r="F11" t="s">
+        <v>169</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://craft-conf.com/'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;Craft-Conf &lt;br&gt; 2018-05-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Budapest&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -2646,7 +2682,7 @@
         <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2654,35 +2690,17 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" t="s">
-        <v>170</v>
-      </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3025,31 +3043,20 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="48" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A4:G13">
-    <sortCondition ref="A4:A13"/>
+  <sortState ref="A4:G12">
+    <sortCondition ref="A4:A12"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{0E5527AD-E47A-49BF-AEF5-60BBFDC1A20E}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{D5BB08EC-77FA-4C63-B367-DDD6BAFE2A89}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{50C94ACE-EFF7-458F-B729-7141A66F4830}"/>
-    <hyperlink ref="F9" r:id="rId4" xr:uid="{94AD6036-1164-47A1-A88C-2BFA5E235597}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{82A9AD1D-FCBF-439E-B6AC-BF80A8905511}"/>
-    <hyperlink ref="F11" r:id="rId6" xr:uid="{C41C1E95-BB9A-459A-9124-471BE824E216}"/>
-    <hyperlink ref="F4" r:id="rId7" xr:uid="{6DFDB843-A77E-4EF3-9D04-D1F20C6216ED}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{0E5527AD-E47A-49BF-AEF5-60BBFDC1A20E}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{D5BB08EC-77FA-4C63-B367-DDD6BAFE2A89}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{50C94ACE-EFF7-458F-B729-7141A66F4830}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{94AD6036-1164-47A1-A88C-2BFA5E235597}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{82A9AD1D-FCBF-439E-B6AC-BF80A8905511}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{C41C1E95-BB9A-459A-9124-471BE824E216}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3069,7 +3076,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -3084,7 +3091,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -3092,19 +3099,19 @@
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4" s="4" t="str">
         <f>IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -3117,19 +3124,19 @@
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ref="H5:H11" si="0">IF(D5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -3142,19 +3149,19 @@
     </row>
     <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
         <v>132</v>
-      </c>
-      <c r="F6" t="s">
-        <v>133</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3170,19 +3177,19 @@
         <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3198,19 +3205,19 @@
         <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
         <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
         <v>142</v>
-      </c>
-      <c r="F8" t="s">
-        <v>143</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3226,19 +3233,19 @@
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
         <v>144</v>
-      </c>
-      <c r="C9" t="s">
-        <v>145</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
         <v>146</v>
-      </c>
-      <c r="F9" t="s">
-        <v>147</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3254,19 +3261,19 @@
         <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" t="s">
         <v>149</v>
-      </c>
-      <c r="F10" t="s">
-        <v>150</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3282,16 +3289,16 @@
         <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="205">
   <si>
     <t>Jfokus</t>
   </si>
@@ -635,13 +635,19 @@
   </si>
   <si>
     <t>https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/javamattia</t>
+  </si>
+  <si>
+    <t>https://github.com/flowing/flowing-retail/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,6 +659,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -685,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -694,6 +708,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1012,7 +1027,7 @@
   <dimension ref="A2:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1081,17 +1096,20 @@
       <c r="H4" s="5" t="s">
         <v>201</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="L4" s="4" t="str">
         <f>IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M4" s="3" t="str">
         <f>IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" ref="N4:N6" si="0">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1113,17 +1131,20 @@
       <c r="G5" s="5" t="s">
         <v>200</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="L5" s="4" t="str">
         <f>IF(E5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M5" s="3" t="str">
         <f>IF((LEN(G5)&gt;0),"&lt;a href='"&amp;G5&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H5)&gt;0),"&lt;a href='"&amp;H5&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I5)&gt;0),"&lt;a href='"&amp;I5&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J5)&gt;0),"&lt;a href='"&amp;J5&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1145,6 +1166,9 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
+      <c r="H6" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
@@ -1154,11 +1178,11 @@
       </c>
       <c r="M6" s="3" t="str">
         <f>IF((LEN(G6)&gt;0),"&lt;a href='"&amp;G6&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H6)&gt;0),"&lt;a href='"&amp;H6&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I6)&gt;0),"&lt;a href='"&amp;I6&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J6)&gt;0),"&lt;a href='"&amp;J6&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2398,9 +2422,11 @@
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{FDDD29D1-9830-4C9D-8735-D25A5B6DE6C7}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DFF511-903F-4C1D-82B8-EDA43D2719AB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10540" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="212">
   <si>
     <t>Jfokus</t>
   </si>
@@ -550,9 +551,6 @@
     <t>Patience pays off. How long running services reduce complexity.</t>
   </si>
   <si>
-    <t>2018-03-12</t>
-  </si>
-  <si>
     <t>2018-05-09</t>
   </si>
   <si>
@@ -568,15 +566,9 @@
     <t>https://amsterdam2018.codemotionworld.com/talk-detail/?detail=7544</t>
   </si>
   <si>
-    <t>https://qconlondon.com/london2018/presentation/3-common-pitfalls-microservice-integration-and-how-avoid-them</t>
-  </si>
-  <si>
     <t>Qcon</t>
   </si>
   <si>
-    <t>2018-03-06</t>
-  </si>
-  <si>
     <t>http://java.withthebest.com/</t>
   </si>
   <si>
@@ -622,9 +614,6 @@
     <t>Break your event chains! Complex event flows in distributed systems.</t>
   </si>
   <si>
-    <t>https://voxxeddaysvienna2018.sched.com/event/Dl0C/patience-pays-off-how-long-running-services-reduce-complexity</t>
-  </si>
-  <si>
     <t>Nuremberg</t>
   </si>
   <si>
@@ -641,6 +630,39 @@
   </si>
   <si>
     <t>https://github.com/flowing/flowing-retail/</t>
+  </si>
+  <si>
+    <t>2018-03</t>
+  </si>
+  <si>
+    <t>www.jbcnconf.com/</t>
+  </si>
+  <si>
+    <t>3 common pitfalls in microservice integration and how to avoid them</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>JBCN Conf</t>
+  </si>
+  <si>
+    <t>2018-06-11</t>
+  </si>
+  <si>
+    <t>2018-06-21</t>
+  </si>
+  <si>
+    <t>Entwicklertag</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>http://entwicklertag.de/</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LJq6xAT0uwI</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01586060-4301-42D6-A296-5BF85ED0BBE5}">
-  <dimension ref="A2:N51"/>
+  <dimension ref="A2:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1076,28 +1098,22 @@
     </row>
     <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>5</v>
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>211</v>
       </c>
       <c r="L4" s="4" t="str">
         <f>IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -1105,34 +1121,37 @@
       </c>
       <c r="M4" s="3" t="str">
         <f>IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N6" si="0">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="N4:N7" si="0">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="L5" s="4" t="str">
         <f>IF(E5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -1140,37 +1159,34 @@
       </c>
       <c r="M5" s="3" t="str">
         <f>IF((LEN(G5)&gt;0),"&lt;a href='"&amp;G5&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H5)&gt;0),"&lt;a href='"&amp;H5&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I5)&gt;0),"&lt;a href='"&amp;I5&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J5)&gt;0),"&lt;a href='"&amp;J5&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="L6" s="4" t="str">
         <f>IF(E6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -1178,75 +1194,81 @@
       </c>
       <c r="M6" s="3" t="str">
         <f>IF((LEN(G6)&gt;0),"&lt;a href='"&amp;G6&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H6)&gt;0),"&lt;a href='"&amp;H6&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I6)&gt;0),"&lt;a href='"&amp;I6&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J6)&gt;0),"&lt;a href='"&amp;J6&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>154</v>
+      <c r="B7" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f t="shared" ref="L7:L36" si="1">IF(E7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f>IF(E7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f t="shared" ref="M7:M36" si="2">IF((LEN(G7)&gt;0),"&lt;a href='"&amp;G7&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H7)&gt;0),"&lt;a href='"&amp;H7&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I7)&gt;0),"&lt;a href='"&amp;I7&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J7)&gt;0),"&lt;a href='"&amp;J7&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f>IF((LEN(G7)&gt;0),"&lt;a href='"&amp;G7&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H7)&gt;0),"&lt;a href='"&amp;H7&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I7)&gt;0),"&lt;a href='"&amp;I7&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J7)&gt;0),"&lt;a href='"&amp;J7&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" ref="N7:N51" si="3">IF(LEN(A7)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G7&amp;"'&gt;"&amp;F7&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B7&amp;" "&amp;L7&amp;" "&amp;C7&amp;" ("&amp;D7&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M7&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" ref="L8:L37" si="1">IF(E8="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" ref="M8:M37" si="2">IF((LEN(G8)&gt;0),"&lt;a href='"&amp;G8&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H8)&gt;0),"&lt;a href='"&amp;H8&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I8)&gt;0),"&lt;a href='"&amp;I8&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J8)&gt;0),"&lt;a href='"&amp;J8&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="N8:N52" si="3">IF(LEN(A8)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G8&amp;"'&gt;"&amp;F8&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B8&amp;" "&amp;L8&amp;" "&amp;C8&amp;" ("&amp;D8&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M8&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1263,10 +1285,10 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1274,11 +1296,11 @@
       </c>
       <c r="M9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1286,57 +1308,54 @@
         <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1344,11 +1363,11 @@
       </c>
       <c r="M11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1356,22 +1375,22 @@
         <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1379,31 +1398,34 @@
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
       </c>
       <c r="L13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1411,11 +1433,11 @@
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1423,31 +1445,31 @@
         <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1455,31 +1477,31 @@
         <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1487,19 +1509,19 @@
         <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1507,11 +1529,11 @@
       </c>
       <c r="M16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1519,66 +1541,63 @@
         <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M17" s="3" t="str">
+      <c r="L18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N17" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M18" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1586,13 +1605,13 @@
         <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -1601,7 +1620,7 @@
         <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1609,11 +1628,11 @@
       </c>
       <c r="M19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1633,80 +1652,80 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
         <v>67</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="4" t="str">
+      <c r="L21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M20" s="3" t="str">
+      <c r="M21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N20" t="str">
+      <c r="N21" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
     <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
       <c r="B22" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
       </c>
       <c r="L22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1714,11 +1733,11 @@
       </c>
       <c r="M22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1729,7 +1748,7 @@
         <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
         <v>74</v>
@@ -1738,10 +1757,10 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1749,11 +1768,11 @@
       </c>
       <c r="M23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1761,25 +1780,22 @@
         <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1787,11 +1803,11 @@
       </c>
       <c r="M24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1799,34 +1815,37 @@
         <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
       </c>
       <c r="L25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M25" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1834,34 +1853,34 @@
         <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M26" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1869,34 +1888,34 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M27" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1907,34 +1926,31 @@
         <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1945,28 +1961,34 @@
         <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="G29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" t="s">
+        <v>103</v>
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M29" s="3" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1986,7 +2008,7 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1998,7 +2020,7 @@
       </c>
       <c r="N30" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2006,22 +2028,19 @@
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2029,11 +2048,11 @@
       </c>
       <c r="M31" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v/>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2044,19 +2063,19 @@
         <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="J32" t="s">
+        <v>106</v>
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2064,11 +2083,11 @@
       </c>
       <c r="M32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2076,10 +2095,10 @@
         <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
         <v>54</v>
@@ -2088,10 +2107,10 @@
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
-      </c>
-      <c r="J33" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="G33" t="s">
+        <v>109</v>
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2099,11 +2118,11 @@
       </c>
       <c r="M33" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2114,19 +2133,19 @@
         <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="J34" t="s">
+        <v>113</v>
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2134,11 +2153,11 @@
       </c>
       <c r="M34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2146,19 +2165,22 @@
         <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="G35" t="s">
+        <v>114</v>
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2166,11 +2188,11 @@
       </c>
       <c r="M35" s="3" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2178,57 +2200,75 @@
         <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>118</v>
+      </c>
+      <c r="L36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>119</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>120</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>2</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>121</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>122</v>
       </c>
-      <c r="L36" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M36" s="3" t="str">
+      <c r="L37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M37" s="3" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N36" t="str">
+      <c r="N37" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L37" s="4" t="str">
-        <f t="shared" ref="L37:L51" si="4">IF(E37="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M37" s="3" t="str">
-        <f t="shared" ref="M37:M51" si="5">IF((LEN(G37)&gt;0),"&lt;a href='"&amp;G37&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H37)&gt;0),"&lt;a href='"&amp;H37&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I37)&gt;0),"&lt;a href='"&amp;I37&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J37)&gt;0),"&lt;a href='"&amp;J37&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v/>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L38" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L38:L52" si="4">IF(E38="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M38" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M38:M52" si="5">IF((LEN(G38)&gt;0),"&lt;a href='"&amp;G38&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H38)&gt;0),"&lt;a href='"&amp;H38&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I38)&gt;0),"&lt;a href='"&amp;I38&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J38)&gt;0),"&lt;a href='"&amp;J38&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
         <v/>
       </c>
       <c r="N38" t="str">
@@ -2418,15 +2458,28 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
+    <row r="52" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L52" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M52" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{FDDD29D1-9830-4C9D-8735-D25A5B6DE6C7}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
+    <hyperlink ref="I4" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2435,12 +2488,13 @@
   <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
     <col min="8" max="8" width="10.90625" style="3"/>
   </cols>
   <sheetData>
@@ -2469,134 +2523,134 @@
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ref="H4:H47" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I47" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://qconlondon.com/london2018/presentation/3-common-pitfalls-microservice-integration-and-how-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;Qcon &lt;br&gt; 2018-03-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Domain-Driven-Design-Koln-Bonn/events/247273344/'&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;DDD Meetup &lt;br&gt; 2018-03-19 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" t="s">
-        <v>198</v>
+        <v>186</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://voxxeddaysvienna2018.sched.com/event/Dl0C/patience-pays-off-how-long-running-services-reduce-complexity'&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;Voxxed &lt;br&gt; 2018-03-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Vienna&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/jugthde/events/245462401/'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;Java User Group &lt;br&gt; 2018-03-22 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Erfurt&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Domain-Driven-Design-Koln-Bonn/events/247273344/'&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;DDD Meetup &lt;br&gt; 2018-03-19 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://java.withthebest.com/'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;Java With the Best &lt;br&gt; 2018-04-17 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Online&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/jugthde/events/245462401/'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;Java User Group &lt;br&gt; 2018-03-22 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Erfurt&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://amsterdam2018.codemotionworld.com/talk-detail/?detail=7544'&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-05-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Amsterdam&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2604,27 +2658,27 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://java.withthebest.com/'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;Java With the Best &lt;br&gt; 2018-04-17 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Online&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://craft-conf.com/'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;Craft-Conf &lt;br&gt; 2018-05-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Budapest&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2632,35 +2686,35 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://amsterdam2018.codemotionworld.com/talk-detail/?detail=7544'&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-05-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Amsterdam&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='www.jbcnconf.com/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JBCN Conf &lt;br&gt; 2018-06-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Barcelona&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://craft-conf.com/'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;Craft-Conf &lt;br&gt; 2018-05-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Budapest&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://entwicklertag.de/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Entwicklertag &lt;br&gt; 2018-06-21 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Karlsruhe&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2671,7 +2725,7 @@
         <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -2699,7 +2753,7 @@
         <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -3074,15 +3128,16 @@
     <sortCondition ref="A4:A12"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{0E5527AD-E47A-49BF-AEF5-60BBFDC1A20E}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{D5BB08EC-77FA-4C63-B367-DDD6BAFE2A89}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{50C94ACE-EFF7-458F-B729-7141A66F4830}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{94AD6036-1164-47A1-A88C-2BFA5E235597}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{82A9AD1D-FCBF-439E-B6AC-BF80A8905511}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{C41C1E95-BB9A-459A-9124-471BE824E216}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{0E5527AD-E47A-49BF-AEF5-60BBFDC1A20E}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{D5BB08EC-77FA-4C63-B367-DDD6BAFE2A89}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{94AD6036-1164-47A1-A88C-2BFA5E235597}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{82A9AD1D-FCBF-439E-B6AC-BF80A8905511}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{C41C1E95-BB9A-459A-9124-471BE824E216}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{28AD5029-090C-46B0-ABE2-A7FB0B197E51}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{89DE3070-7D57-437F-BE86-164774E3AF22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DFF511-903F-4C1D-82B8-EDA43D2719AB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD840FBB-8C6B-4E37-AA2E-33D9F16E769E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10540" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="216">
   <si>
     <t>Jfokus</t>
   </si>
@@ -663,6 +663,18 @@
   </si>
   <si>
     <t>https://youtu.be/LJq6xAT0uwI</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lZIe02um5eI</t>
+  </si>
+  <si>
+    <t>https://github.com/flowing/flowing-retail/tree/zeebe</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AXgEowOgDSg</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01586060-4301-42D6-A296-5BF85ED0BBE5}">
-  <dimension ref="A2:N52"/>
+  <dimension ref="A2:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1098,95 +1110,95 @@
     </row>
     <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>186</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>213</v>
+      </c>
+      <c r="I4" t="s">
+        <v>214</v>
       </c>
       <c r="L4" s="4" t="str">
         <f>IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M4" s="3" t="str">
         <f>IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N7" si="0">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="N4:N9" si="0">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03-22 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>197</v>
+        <v>168</v>
+      </c>
+      <c r="H5" t="s">
+        <v>215</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="L5" s="4" t="str">
         <f>IF(E5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M5" s="3" t="str">
         <f>IF((LEN(G5)&gt;0),"&lt;a href='"&amp;G5&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H5)&gt;0),"&lt;a href='"&amp;H5&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I5)&gt;0),"&lt;a href='"&amp;I5&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J5)&gt;0),"&lt;a href='"&amp;J5&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>IF(LEN(A5)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G5&amp;"'&gt;"&amp;F5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" "&amp;L5&amp;" "&amp;C5&amp;" ("&amp;D5&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M5&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03-19 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="H6" t="s">
+        <v>211</v>
       </c>
       <c r="L6" s="4" t="str">
         <f>IF(E6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -1194,36 +1206,36 @@
       </c>
       <c r="M6" s="3" t="str">
         <f>IF((LEN(G6)&gt;0),"&lt;a href='"&amp;G6&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H6)&gt;0),"&lt;a href='"&amp;H6&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I6)&gt;0),"&lt;a href='"&amp;I6&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J6)&gt;0),"&lt;a href='"&amp;J6&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>125</v>
+      <c r="B7" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="4" t="str">
@@ -1232,107 +1244,116 @@
       </c>
       <c r="M7" s="3" t="str">
         <f>IF((LEN(G7)&gt;0),"&lt;a href='"&amp;G7&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H7)&gt;0),"&lt;a href='"&amp;H7&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I7)&gt;0),"&lt;a href='"&amp;I7&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J7)&gt;0),"&lt;a href='"&amp;J7&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" ref="L8:L37" si="1">IF(E8="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f>IF(E8="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f t="shared" ref="M8:M37" si="2">IF((LEN(G8)&gt;0),"&lt;a href='"&amp;G8&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H8)&gt;0),"&lt;a href='"&amp;H8&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I8)&gt;0),"&lt;a href='"&amp;I8&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J8)&gt;0),"&lt;a href='"&amp;J8&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f>IF((LEN(G8)&gt;0),"&lt;a href='"&amp;G8&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H8)&gt;0),"&lt;a href='"&amp;H8&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I8)&gt;0),"&lt;a href='"&amp;I8&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J8)&gt;0),"&lt;a href='"&amp;J8&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" ref="N8:N52" si="3">IF(LEN(A8)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G8&amp;"'&gt;"&amp;F8&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B8&amp;" "&amp;L8&amp;" "&amp;C8&amp;" ("&amp;D8&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M8&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>155</v>
+      <c r="B9" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f>IF(E9="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f>IF((LEN(G9)&gt;0),"&lt;a href='"&amp;G9&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H9)&gt;0),"&lt;a href='"&amp;H9&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I9)&gt;0),"&lt;a href='"&amp;I9&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J9)&gt;0),"&lt;a href='"&amp;J9&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" ref="L10:L39" si="1">IF(E10="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" ref="M10:M39" si="2">IF((LEN(G10)&gt;0),"&lt;a href='"&amp;G10&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H10)&gt;0),"&lt;a href='"&amp;H10&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I10)&gt;0),"&lt;a href='"&amp;I10&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J10)&gt;0),"&lt;a href='"&amp;J10&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="N10:N54" si="3">IF(LEN(A10)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G10&amp;"'&gt;"&amp;F10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" "&amp;L10&amp;" "&amp;C10&amp;" ("&amp;D10&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1340,77 +1361,71 @@
         <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -1419,13 +1434,13 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1433,31 +1448,34 @@
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1465,43 +1483,46 @@
       </c>
       <c r="M14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1509,19 +1530,19 @@
         <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1529,11 +1550,11 @@
       </c>
       <c r="M16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1541,31 +1562,31 @@
         <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1573,101 +1594,95 @@
         <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
         <v>58</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M18" s="3" t="str">
+      <c r="L20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N18" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M19" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1675,22 +1690,22 @@
         <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1698,46 +1713,46 @@
       </c>
       <c r="M21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1745,57 +1760,57 @@
         <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
       <c r="B24" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1803,11 +1818,11 @@
       </c>
       <c r="M24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1815,25 +1830,22 @@
         <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1841,11 +1853,11 @@
       </c>
       <c r="M25" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1853,34 +1865,34 @@
         <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M26" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1888,22 +1900,25 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1911,11 +1926,11 @@
       </c>
       <c r="M27" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1923,22 +1938,22 @@
         <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1946,11 +1961,11 @@
       </c>
       <c r="M28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1958,25 +1973,22 @@
         <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1984,11 +1996,11 @@
       </c>
       <c r="M29" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1999,16 +2011,19 @@
         <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="G30" t="s">
+        <v>93</v>
       </c>
       <c r="L30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2016,11 +2031,11 @@
       </c>
       <c r="M30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2031,28 +2046,34 @@
         <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="G31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" t="s">
+        <v>103</v>
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M31" s="3" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2060,22 +2081,19 @@
         <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2083,11 +2101,11 @@
       </c>
       <c r="M32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v/>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2095,22 +2113,19 @@
         <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2118,11 +2133,11 @@
       </c>
       <c r="M33" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v/>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2130,22 +2145,22 @@
         <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2153,11 +2168,11 @@
       </c>
       <c r="M34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2165,22 +2180,22 @@
         <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2188,11 +2203,11 @@
       </c>
       <c r="M35" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2200,19 +2215,22 @@
         <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="J36" t="s">
+        <v>113</v>
       </c>
       <c r="L36" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2220,11 +2238,11 @@
       </c>
       <c r="M36" s="3" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2232,71 +2250,110 @@
         <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" t="s">
+        <v>114</v>
+      </c>
+      <c r="L37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>119</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>120</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>2</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F39" t="s">
         <v>121</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I39" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M37" s="3" t="str">
+      <c r="L39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M39" s="3" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N37" t="str">
+      <c r="N39" t="str">
         <f t="shared" si="3"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L38" s="4" t="str">
-        <f t="shared" ref="L38:L52" si="4">IF(E38="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M38" s="3" t="str">
-        <f t="shared" ref="M38:M52" si="5">IF((LEN(G38)&gt;0),"&lt;a href='"&amp;G38&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H38)&gt;0),"&lt;a href='"&amp;H38&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I38)&gt;0),"&lt;a href='"&amp;I38&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J38)&gt;0),"&lt;a href='"&amp;J38&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v/>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L39" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M39" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L40" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L40:L54" si="4">IF(E40="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M40" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M40:M54" si="5">IF((LEN(G40)&gt;0),"&lt;a href='"&amp;G40&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H40)&gt;0),"&lt;a href='"&amp;H40&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I40)&gt;0),"&lt;a href='"&amp;I40&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J40)&gt;0),"&lt;a href='"&amp;J40&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
         <v/>
       </c>
       <c r="N40" t="str">
@@ -2472,14 +2529,43 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
+    <row r="53" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L53" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M53" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L54" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M54" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
-    <hyperlink ref="I6" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
-    <hyperlink ref="I4" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
+    <hyperlink ref="I6" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2488,7 +2574,7 @@
   <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A4" sqref="A4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD840FBB-8C6B-4E37-AA2E-33D9F16E769E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A0C6DC-F943-4647-B227-DEB01EAF509B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10540" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
@@ -1061,7 +1061,7 @@
   <dimension ref="A2:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N5" sqref="N4:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
         <v>187</v>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" ref="N4:N9" si="0">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03-22 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="N5" t="str">
         <f>IF(LEN(A5)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G5&amp;"'&gt;"&amp;F5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" "&amp;L5&amp;" "&amp;C5&amp;" ("&amp;D5&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M5&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03-19 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A0C6DC-F943-4647-B227-DEB01EAF509B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47033D3E-4D09-4E5E-A0AE-B02B5289928C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10540" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="217">
   <si>
     <t>Jfokus</t>
   </si>
@@ -44,9 +44,6 @@
     <t>https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures</t>
   </si>
   <si>
-    <t>https://github.com/flowing/flowing-retail/tree/master/payment-rest</t>
-  </si>
-  <si>
     <t>When</t>
   </si>
   <si>
@@ -671,10 +668,16 @@
     <t>https://www.youtube.com/watch?v=lZIe02um5eI</t>
   </si>
   <si>
-    <t>https://github.com/flowing/flowing-retail/tree/zeebe</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=AXgEowOgDSg</t>
+  </si>
+  <si>
+    <t>https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html</t>
+  </si>
+  <si>
+    <t>https://github.com/flowing/flowing-retail/zeebe</t>
+  </si>
+  <si>
+    <t>https://github.com/flowing/rest/java/payment</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
   <dimension ref="A2:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N4:N5"/>
+      <selection activeCell="N39" sqref="N4:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1072,108 +1075,108 @@
   <sheetData>
     <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" t="s">
         <v>187</v>
       </c>
-      <c r="D4" t="s">
-        <v>188</v>
-      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" t="s">
         <v>212</v>
       </c>
-      <c r="H4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" t="s">
-        <v>214</v>
+      <c r="I4" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f>IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="L4:L9" si="0">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f>IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" ref="M4:M9" si="1">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N9" si="0">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="N4:N9" si="2">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f>IF(E5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M5" s="3" t="str">
-        <f>IF((LEN(G5)&gt;0),"&lt;a href='"&amp;G5&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H5)&gt;0),"&lt;a href='"&amp;H5&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I5)&gt;0),"&lt;a href='"&amp;I5&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J5)&gt;0),"&lt;a href='"&amp;J5&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N5" t="str">
@@ -1183,112 +1186,115 @@
     </row>
     <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
         <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f>IF(E6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f>IF((LEN(G6)&gt;0),"&lt;a href='"&amp;G6&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H6)&gt;0),"&lt;a href='"&amp;H6&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I6)&gt;0),"&lt;a href='"&amp;I6&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J6)&gt;0),"&lt;a href='"&amp;J6&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f>IF(E7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f>IF((LEN(G7)&gt;0),"&lt;a href='"&amp;G7&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H7)&gt;0),"&lt;a href='"&amp;H7&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I7)&gt;0),"&lt;a href='"&amp;I7&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J7)&gt;0),"&lt;a href='"&amp;J7&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f>IF(E8="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f>IF((LEN(G8)&gt;0),"&lt;a href='"&amp;G8&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H8)&gt;0),"&lt;a href='"&amp;H8&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I8)&gt;0),"&lt;a href='"&amp;I8&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J8)&gt;0),"&lt;a href='"&amp;J8&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -1306,677 +1312,677 @@
         <v>4</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" t="s">
-        <v>5</v>
+        <v>198</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f>IF(E9="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f>IF((LEN(G9)&gt;0),"&lt;a href='"&amp;G9&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H9)&gt;0),"&lt;a href='"&amp;H9&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I9)&gt;0),"&lt;a href='"&amp;I9&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J9)&gt;0),"&lt;a href='"&amp;J9&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/payment-rest' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
       <c r="L10" s="4" t="str">
-        <f t="shared" ref="L10:L39" si="1">IF(E10="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="L10:L39" si="3">IF(E10="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" ref="M10:M39" si="2">IF((LEN(G10)&gt;0),"&lt;a href='"&amp;G10&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H10)&gt;0),"&lt;a href='"&amp;H10&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I10)&gt;0),"&lt;a href='"&amp;I10&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J10)&gt;0),"&lt;a href='"&amp;J10&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <f t="shared" ref="M10:M39" si="4">IF((LEN(G10)&gt;0),"&lt;a href='"&amp;G10&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H10)&gt;0),"&lt;a href='"&amp;H10&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I10)&gt;0),"&lt;a href='"&amp;I10&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J10)&gt;0),"&lt;a href='"&amp;J10&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" ref="N10:N54" si="3">IF(LEN(A10)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G10&amp;"'&gt;"&amp;F10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" "&amp;L10&amp;" "&amp;C10&amp;" ("&amp;D10&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="N10:N54" si="5">IF(LEN(A10)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G10&amp;"'&gt;"&amp;F10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" "&amp;L10&amp;" "&amp;C10&amp;" ("&amp;D10&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
       <c r="L11" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M11" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
       <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
       <c r="L12" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
       <c r="L13" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
       <c r="L14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" t="s">
-        <v>52</v>
-      </c>
       <c r="L18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
         <v>58</v>
       </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
       <c r="L20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>61</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>63</v>
       </c>
-      <c r="G21" t="s">
-        <v>64</v>
-      </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>66</v>
-      </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
         <v>67</v>
       </c>
-      <c r="G23" t="s">
-        <v>68</v>
-      </c>
       <c r="L23" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
       <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>71</v>
       </c>
-      <c r="H24" t="s">
-        <v>72</v>
-      </c>
       <c r="L24" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M24" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
         <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M25" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
       <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
         <v>79</v>
       </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
       <c r="L26" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
         <v>81</v>
-      </c>
-      <c r="D27" t="s">
-        <v>82</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
         <v>83</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" t="s">
         <v>84</v>
       </c>
-      <c r="J27" t="s">
-        <v>85</v>
-      </c>
       <c r="L27" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
         <v>86</v>
       </c>
-      <c r="G28" t="s">
-        <v>87</v>
-      </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -1985,577 +1991,412 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
         <v>89</v>
       </c>
-      <c r="G29" t="s">
-        <v>90</v>
-      </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
         <v>91</v>
       </c>
-      <c r="D30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>92</v>
       </c>
-      <c r="G30" t="s">
-        <v>93</v>
-      </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M30" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
         <v>99</v>
-      </c>
-      <c r="D31" t="s">
-        <v>100</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
         <v>101</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>102</v>
       </c>
-      <c r="H31" t="s">
-        <v>103</v>
-      </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
         <v>20</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>21</v>
       </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M32" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
         <v>20</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>21</v>
       </c>
-      <c r="E33" t="s">
-        <v>22</v>
-      </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M33" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" t="s">
         <v>105</v>
       </c>
-      <c r="J34" t="s">
-        <v>106</v>
-      </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M34" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" t="s">
         <v>108</v>
       </c>
-      <c r="D35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" t="s">
-        <v>109</v>
-      </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M35" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
         <v>111</v>
       </c>
-      <c r="D36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="J36" t="s">
         <v>112</v>
       </c>
-      <c r="J36" t="s">
-        <v>113</v>
-      </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M36" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>61</v>
       </c>
-      <c r="D37" t="s">
-        <v>62</v>
-      </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M37" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
         <v>115</v>
       </c>
-      <c r="D38" t="s">
-        <v>116</v>
-      </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M38" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
         <v>119</v>
-      </c>
-      <c r="D39" t="s">
-        <v>120</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
       </c>
       <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" t="s">
         <v>121</v>
       </c>
-      <c r="I39" t="s">
-        <v>122</v>
-      </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M39" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L40" s="4" t="str">
-        <f t="shared" ref="L40:L54" si="4">IF(E40="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M40" s="3" t="str">
-        <f t="shared" ref="M40:M54" si="5">IF((LEN(G40)&gt;0),"&lt;a href='"&amp;G40&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H40)&gt;0),"&lt;a href='"&amp;H40&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I40)&gt;0),"&lt;a href='"&amp;I40&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J40)&gt;0),"&lt;a href='"&amp;J40&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v/>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L41" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M41" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
+      <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L42" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M42" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
+      <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L43" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M43" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
+      <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L44" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M44" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
+      <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L45" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M45" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
+      <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L46" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M46" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
+      <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L47" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M47" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
+      <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L48" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M48" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L49" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M49" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L50" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M50" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L51" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M51" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L52" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M52" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L53" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M53" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="12:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L54" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M54" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N54" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;  ()&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L54" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2563,9 +2404,12 @@
     <hyperlink ref="I8" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
     <hyperlink ref="I6" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
     <hyperlink ref="I5" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
+    <hyperlink ref="I9" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2586,45 +2430,45 @@
   <sheetData>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ref="H4:H47" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -2637,22 +2481,22 @@
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
         <v>187</v>
       </c>
-      <c r="C5" t="s">
-        <v>188</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2665,22 +2509,22 @@
     </row>
     <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2693,22 +2537,22 @@
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
         <v>174</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>175</v>
-      </c>
-      <c r="C7" t="s">
-        <v>176</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2721,22 +2565,22 @@
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
         <v>191</v>
-      </c>
-      <c r="C8" t="s">
-        <v>192</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2749,22 +2593,22 @@
     </row>
     <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2777,22 +2621,22 @@
     </row>
     <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
         <v>207</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>208</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2805,22 +2649,22 @@
     </row>
     <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2833,22 +2677,22 @@
     </row>
     <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3243,42 +3087,42 @@
   <sheetData>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" s="4" t="str">
         <f>IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -3291,19 +3135,19 @@
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
         <v>127</v>
-      </c>
-      <c r="C5" t="s">
-        <v>128</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ref="H5:H11" si="0">IF(D5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -3316,19 +3160,19 @@
     </row>
     <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
         <v>131</v>
-      </c>
-      <c r="F6" t="s">
-        <v>132</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3341,22 +3185,22 @@
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3369,22 +3213,22 @@
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
         <v>139</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>140</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>141</v>
-      </c>
-      <c r="F8" t="s">
-        <v>142</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3397,22 +3241,22 @@
     </row>
     <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
         <v>143</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>144</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>145</v>
-      </c>
-      <c r="F9" t="s">
-        <v>146</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3425,22 +3269,22 @@
     </row>
     <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>147</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>148</v>
-      </c>
-      <c r="F10" t="s">
-        <v>149</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3453,19 +3297,19 @@
     </row>
     <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>152</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>153</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47033D3E-4D09-4E5E-A0AE-B02B5289928C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C68278-D539-4076-AFCF-73792F747181}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10540" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10540" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent talks" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="214">
   <si>
     <t>Jfokus</t>
   </si>
@@ -314,9 +314,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>2018-03-19</t>
-  </si>
-  <si>
     <t>Cologne</t>
   </si>
   <si>
@@ -527,9 +524,6 @@
     <t>2015-11</t>
   </si>
   <si>
-    <t>https://www.meetup.com/Domain-Driven-Design-Koln-Bonn/events/247273344/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Long-running services and Camunda </t>
   </si>
   <si>
@@ -581,9 +575,6 @@
     <t>2018-04-17</t>
   </si>
   <si>
-    <t>https://www.meetup.com/jugthde/events/245462401/</t>
-  </si>
-  <si>
     <t>Zeebe.io - Event-driven Microservice Orchestration</t>
   </si>
   <si>
@@ -593,9 +584,6 @@
     <t>Erfurt</t>
   </si>
   <si>
-    <t>2018-03-22</t>
-  </si>
-  <si>
     <t>https://craft-conf.com/</t>
   </si>
   <si>
@@ -674,10 +662,13 @@
     <t>https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html</t>
   </si>
   <si>
-    <t>https://github.com/flowing/flowing-retail/zeebe</t>
-  </si>
-  <si>
-    <t>https://github.com/flowing/rest/java/payment</t>
+    <t>https://github.com/flowing/flowing-retail/tree/master/zeebe</t>
+  </si>
+  <si>
+    <t>https://github.com/flowing/flowing-retail/tree/master/rest/java/payment</t>
+  </si>
+  <si>
+    <t>2018-09-25</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01586060-4301-42D6-A296-5BF85ED0BBE5}">
   <dimension ref="A2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N4:N39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1113,28 +1104,28 @@
     </row>
     <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="H4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="L4" s="4" t="str">
         <f t="shared" ref="L4:L9" si="0">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -1142,34 +1133,34 @@
       </c>
       <c r="M4" s="3" t="str">
         <f t="shared" ref="M4:M9" si="1">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" ref="N4:N9" si="2">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1186,7 +1177,7 @@
     </row>
     <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -1198,10 +1189,10 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1218,10 +1209,10 @@
     </row>
     <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1230,16 +1221,16 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1247,16 +1238,16 @@
       </c>
       <c r="M7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1271,13 +1262,13 @@
         <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="L8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1294,7 +1285,7 @@
     </row>
     <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -1312,10 +1303,10 @@
         <v>4</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1323,16 +1314,16 @@
       </c>
       <c r="M9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1358,13 +1349,13 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" ref="N10:N54" si="5">IF(LEN(A10)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G10&amp;"'&gt;"&amp;F10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" "&amp;L10&amp;" "&amp;C10&amp;" ("&amp;D10&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="N10:N39" si="5">IF(LEN(A10)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G10&amp;"'&gt;"&amp;F10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" "&amp;L10&amp;" "&amp;C10&amp;" ("&amp;D10&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1396,7 +1387,7 @@
     </row>
     <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1428,7 +1419,7 @@
     </row>
     <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1463,7 +1454,7 @@
     </row>
     <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -1498,7 +1489,7 @@
     </row>
     <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -1533,7 +1524,7 @@
     </row>
     <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -1565,7 +1556,7 @@
     </row>
     <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -1597,7 +1588,7 @@
     </row>
     <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -1629,7 +1620,7 @@
     </row>
     <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
@@ -1661,7 +1652,7 @@
     </row>
     <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
         <v>76</v>
@@ -1696,7 +1687,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -1731,7 +1722,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
@@ -1766,7 +1757,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -1798,7 +1789,7 @@
     </row>
     <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -1836,7 +1827,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
@@ -1871,7 +1862,7 @@
         <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
         <v>77</v>
@@ -1906,7 +1897,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
         <v>80</v>
@@ -1944,7 +1935,7 @@
         <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -1979,7 +1970,7 @@
         <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
         <v>87</v>
@@ -2014,7 +2005,7 @@
         <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
         <v>90</v>
@@ -2049,25 +2040,25 @@
         <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
         <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>99</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" t="s">
         <v>100</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>101</v>
-      </c>
-      <c r="H31" t="s">
-        <v>102</v>
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2087,7 +2078,7 @@
         <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -2099,7 +2090,7 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2119,7 +2110,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
@@ -2131,7 +2122,7 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2151,7 +2142,7 @@
         <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
@@ -2163,10 +2154,10 @@
         <v>21</v>
       </c>
       <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" t="s">
         <v>104</v>
-      </c>
-      <c r="J34" t="s">
-        <v>105</v>
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2186,10 +2177,10 @@
         <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
         <v>53</v>
@@ -2198,10 +2189,10 @@
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2221,10 +2212,10 @@
         <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
         <v>53</v>
@@ -2233,10 +2224,10 @@
         <v>21</v>
       </c>
       <c r="F36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" t="s">
         <v>111</v>
-      </c>
-      <c r="J36" t="s">
-        <v>112</v>
       </c>
       <c r="L36" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2256,7 +2247,7 @@
         <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
         <v>60</v>
@@ -2268,10 +2259,10 @@
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2291,19 +2282,19 @@
         <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
         <v>114</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L38" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2323,22 +2314,22 @@
         <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
         <v>118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>119</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
       </c>
       <c r="F39" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" t="s">
         <v>120</v>
-      </c>
-      <c r="I39" t="s">
-        <v>121</v>
       </c>
       <c r="L39" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2407,9 +2398,10 @@
     <hyperlink ref="H8" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
     <hyperlink ref="I4" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
     <hyperlink ref="I9" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
+    <hyperlink ref="I7" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2417,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DED00E-46E1-48BC-B1F1-251D95106922}">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2452,79 +2444,45 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>166</v>
-      </c>
+      <c r="F4" s="5"/>
       <c r="H4" s="4" t="str">
         <f t="shared" ref="H4:H47" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I47" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Domain-Driven-Design-Koln-Bonn/events/247273344/'&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;DDD Meetup &lt;br&gt; 2018-03-19 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/jugthde/events/245462401/'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;Java User Group &lt;br&gt; 2018-03-22 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Erfurt&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2537,22 +2495,22 @@
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
         <v>173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" t="s">
-        <v>175</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2565,22 +2523,22 @@
     </row>
     <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2593,22 +2551,22 @@
     </row>
     <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2621,22 +2579,22 @@
     </row>
     <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2649,22 +2607,22 @@
     </row>
     <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2677,50 +2635,80 @@
     </row>
     <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>168</v>
       </c>
-      <c r="H12" s="4" t="str">
+      <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>167</v>
+      </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3058,16 +3046,14 @@
     <sortCondition ref="A4:A12"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{0E5527AD-E47A-49BF-AEF5-60BBFDC1A20E}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{D5BB08EC-77FA-4C63-B367-DDD6BAFE2A89}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{94AD6036-1164-47A1-A88C-2BFA5E235597}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{82A9AD1D-FCBF-439E-B6AC-BF80A8905511}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{C41C1E95-BB9A-459A-9124-471BE824E216}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{28AD5029-090C-46B0-ABE2-A7FB0B197E51}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{89DE3070-7D57-437F-BE86-164774E3AF22}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{D5BB08EC-77FA-4C63-B367-DDD6BAFE2A89}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{94AD6036-1164-47A1-A88C-2BFA5E235597}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{C41C1E95-BB9A-459A-9124-471BE824E216}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{28AD5029-090C-46B0-ABE2-A7FB0B197E51}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{89DE3070-7D57-437F-BE86-164774E3AF22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3087,7 +3073,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3110,19 +3096,19 @@
     </row>
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" s="4" t="str">
         <f>IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -3135,19 +3121,19 @@
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
         <v>126</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ref="H5:H11" si="0">IF(D5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -3160,19 +3146,19 @@
     </row>
     <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
         <v>130</v>
-      </c>
-      <c r="F6" t="s">
-        <v>131</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3188,19 +3174,19 @@
         <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3216,19 +3202,19 @@
         <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" t="s">
-        <v>139</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" t="s">
         <v>140</v>
-      </c>
-      <c r="F8" t="s">
-        <v>141</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3244,19 +3230,19 @@
         <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
         <v>142</v>
-      </c>
-      <c r="C9" t="s">
-        <v>143</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" t="s">
         <v>144</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3272,19 +3258,19 @@
         <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" t="s">
         <v>147</v>
-      </c>
-      <c r="F10" t="s">
-        <v>148</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3300,16 +3286,16 @@
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C68278-D539-4076-AFCF-73792F747181}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE9C98F-6168-47E3-B13B-13324449350D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10540" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10540" activeTab="2" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent talks" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="223">
   <si>
     <t>Jfokus</t>
   </si>
@@ -611,9 +611,6 @@
     <t>https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them</t>
   </si>
   <si>
-    <t>https://www.youtube.com/user/javamattia</t>
-  </si>
-  <si>
     <t>https://github.com/flowing/flowing-retail/</t>
   </si>
   <si>
@@ -669,13 +666,43 @@
   </si>
   <si>
     <t>2018-09-25</t>
+  </si>
+  <si>
+    <t>https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/</t>
+  </si>
+  <si>
+    <t>https://basta.net/microservices-apis/kommunikation-zwischen-microservices/</t>
+  </si>
+  <si>
+    <t>Kommunikation zwischen Microservices</t>
+  </si>
+  <si>
+    <t>2018-12-05</t>
+  </si>
+  <si>
+    <t>JUG</t>
+  </si>
+  <si>
+    <t>Muenster</t>
+  </si>
+  <si>
+    <t>http://www.jug-muenster.de/</t>
+  </si>
+  <si>
+    <t>Zeebe.io - New Open Source Project for event-driven Microservice Orchestration</t>
+  </si>
+  <si>
+    <t>https://www.meetup.com/JUG-Mainz/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ikj59uEKhjg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,14 +714,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -727,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -736,7 +755,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1055,7 +1073,7 @@
   <dimension ref="A2:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N39" sqref="N4:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1104,7 +1122,7 @@
     </row>
     <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
         <v>183</v>
@@ -1119,20 +1137,20 @@
         <v>182</v>
       </c>
       <c r="G4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" t="s">
         <v>207</v>
       </c>
-      <c r="H4" t="s">
-        <v>208</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L4" s="4" t="str">
         <f t="shared" ref="L4:L9" si="0">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M9" si="1">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <f t="shared" ref="M4:M39" si="1">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N4" t="str">
@@ -1142,7 +1160,7 @@
     </row>
     <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -1157,10 +1175,10 @@
         <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1177,7 +1195,7 @@
     </row>
     <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -1192,7 +1210,7 @@
         <v>170</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1209,7 +1227,7 @@
     </row>
     <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
         <v>176</v>
@@ -1230,7 +1248,7 @@
         <v>192</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1265,10 +1283,10 @@
         <v>191</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1302,11 +1320,11 @@
       <c r="G9" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>194</v>
+      <c r="H9" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1314,11 +1332,11 @@
       </c>
       <c r="M9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/user/javamattia' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1345,11 +1363,11 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" ref="M10:M39" si="4">IF((LEN(G10)&gt;0),"&lt;a href='"&amp;G10&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H10)&gt;0),"&lt;a href='"&amp;H10&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I10)&gt;0),"&lt;a href='"&amp;I10&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J10)&gt;0),"&lt;a href='"&amp;J10&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" ref="N10:N39" si="5">IF(LEN(A10)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G10&amp;"'&gt;"&amp;F10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" "&amp;L10&amp;" "&amp;C10&amp;" ("&amp;D10&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="N10:N39" si="4">IF(LEN(A10)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G10&amp;"'&gt;"&amp;F10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" "&amp;L10&amp;" "&amp;C10&amp;" ("&amp;D10&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1377,11 +1395,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1409,11 +1427,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1444,11 +1462,11 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1479,15 +1497,18 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>154</v>
       </c>
@@ -1514,15 +1535,18 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>155</v>
       </c>
@@ -1546,15 +1570,18 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>155</v>
       </c>
@@ -1578,15 +1605,18 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>155</v>
       </c>
@@ -1610,12 +1640,12 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1642,11 +1672,11 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1674,11 +1704,11 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1709,11 +1739,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1744,11 +1774,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N22" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1779,11 +1809,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N23" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1814,11 +1844,11 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N24" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1849,11 +1879,11 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N25" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1884,11 +1914,11 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N26" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1922,11 +1952,11 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N27" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1957,11 +1987,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N28" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1992,11 +2022,11 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N29" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2027,11 +2057,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N30" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2065,11 +2095,11 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N31" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2097,11 +2127,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N32" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2129,11 +2159,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N33" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2164,11 +2194,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N34" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2199,11 +2229,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N35" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2234,11 +2264,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N36" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2269,11 +2299,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N37" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2301,11 +2331,11 @@
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2336,11 +2366,11 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N39" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2399,18 +2429,19 @@
     <hyperlink ref="I4" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
     <hyperlink ref="I9" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
     <hyperlink ref="I7" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
+    <hyperlink ref="H9" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DED00E-46E1-48BC-B1F1-251D95106922}">
-  <dimension ref="A2:I47"/>
+  <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2446,22 +2477,22 @@
     <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F4" s="5"/>
       <c r="H4" s="4" t="str">
-        <f t="shared" ref="H4:H47" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="H4:H48" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I47" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="I4:I48" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" s="5"/>
       <c r="H5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H5:H16" si="2">IF(D5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I5:I16" si="3">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F5&amp;"'&gt;"&amp;E5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" &lt;br&gt; "&amp;A5&amp;" "&amp;H5&amp;" "&amp;C5&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2485,11 +2516,11 @@
         <v>177</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://java.withthebest.com/'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;Java With the Best &lt;br&gt; 2018-04-17 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Online&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2513,11 +2544,11 @@
         <v>175</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://amsterdam2018.codemotionworld.com/talk-detail/?detail=7544'&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-05-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Amsterdam&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2541,51 +2572,51 @@
         <v>185</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://craft-conf.com/'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;Craft-Conf &lt;br&gt; 2018-05-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Budapest&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='www.jbcnconf.com/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JBCN Conf &lt;br&gt; 2018-06-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Barcelona&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
         <v>202</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>203</v>
-      </c>
-      <c r="C10" t="s">
-        <v>204</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -2594,14 +2625,14 @@
         <v>168</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://entwicklertag.de/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Entwicklertag &lt;br&gt; 2018-06-21 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Karlsruhe&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2625,11 +2656,11 @@
         <v>166</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2653,17 +2684,17 @@
         <v>166</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -2675,20 +2706,23 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>215</v>
+      </c>
+      <c r="F13" t="s">
+        <v>214</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/'&gt;Kommunikation zwischen Microservices&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -2702,33 +2736,72 @@
       <c r="E14" t="s">
         <v>167</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="H14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="H15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="H16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3037,6 +3110,16 @@
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I48" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
@@ -3051,9 +3134,12 @@
     <hyperlink ref="F8" r:id="rId3" xr:uid="{C41C1E95-BB9A-459A-9124-471BE824E216}"/>
     <hyperlink ref="F9" r:id="rId4" xr:uid="{28AD5029-090C-46B0-ABE2-A7FB0B197E51}"/>
     <hyperlink ref="F10" r:id="rId5" xr:uid="{89DE3070-7D57-437F-BE86-164774E3AF22}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
+    <hyperlink ref="F15" r:id="rId8" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3061,7 +3147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE010A1-CC23-40A7-95CD-9FEF3DE24D49}">
   <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:I11"/>
     </sheetView>
   </sheetViews>

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE9C98F-6168-47E3-B13B-13324449350D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A6D8B-A033-4708-AFAE-963AA8A85D05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10540" activeTab="2" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10545" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent talks" sheetId="1" r:id="rId1"/>
     <sheet name="Upcoming talks" sheetId="2" r:id="rId2"/>
     <sheet name="Articles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="228">
   <si>
     <t>Jfokus</t>
   </si>
@@ -527,9 +527,6 @@
     <t xml:space="preserve">Long-running services and Camunda </t>
   </si>
   <si>
-    <t>https://www.developer-week.de/</t>
-  </si>
-  <si>
     <t>Workflows mit BPMN automatisieren. Lessons Learned.</t>
   </si>
   <si>
@@ -617,9 +614,6 @@
     <t>2018-03</t>
   </si>
   <si>
-    <t>www.jbcnconf.com/</t>
-  </si>
-  <si>
     <t>3 common pitfalls in microservice integration and how to avoid them</t>
   </si>
   <si>
@@ -641,9 +635,6 @@
     <t>Karlsruhe</t>
   </si>
   <si>
-    <t>http://entwicklertag.de/</t>
-  </si>
-  <si>
     <t>https://youtu.be/LJq6xAT0uwI</t>
   </si>
   <si>
@@ -692,10 +683,34 @@
     <t>Zeebe.io - New Open Source Project for event-driven Microservice Orchestration</t>
   </si>
   <si>
-    <t>https://www.meetup.com/JUG-Mainz/</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Ikj59uEKhjg</t>
+  </si>
+  <si>
+    <t>https://entwicklertag.de/karlsruhe/2018/lost-transaction-ber</t>
+  </si>
+  <si>
+    <t>http://www.jbcnconf.com/2018/infoSpeaker.html?ref=QmVybmRSdWVja2VyYmVybmQucnVlY2tlckBjYW11bmRhLmNvbQ==</t>
+  </si>
+  <si>
+    <t>https://www.developer-week.de/programm/#/talk/workflows-mit-bpmn-automatisieren-lessons-learned</t>
+  </si>
+  <si>
+    <t>https://www.developer-week.de/programm/#/talk/lost-in-transaction-uber-in-kosistenz-in-verteilten-systemen</t>
+  </si>
+  <si>
+    <t>TheNewStack</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>https://thenewstack.io/5-workflow-automation-use-cases-you-might-not-have-considered/</t>
+  </si>
+  <si>
+    <t>5 Workflow Automation Use Cases You Might Not Have Considered</t>
+  </si>
+  <si>
+    <t>https://www.meetup.com/JUG-Mainz/events/249130598/</t>
   </si>
 </sst>
 </file>
@@ -1076,13 +1091,13 @@
       <selection activeCell="N39" sqref="N4:N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.90625" style="1"/>
-    <col min="12" max="13" width="10.90625" style="3"/>
+    <col min="2" max="2" width="10.85546875" style="1"/>
+    <col min="12" max="13" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1120,30 +1135,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" t="s">
         <v>183</v>
-      </c>
-      <c r="D4" t="s">
-        <v>184</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="L4" s="4" t="str">
         <f t="shared" ref="L4:L9" si="0">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -1158,9 +1173,9 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -1175,10 +1190,10 @@
         <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1193,9 +1208,9 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -1207,10 +1222,10 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1225,12 +1240,12 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1239,16 +1254,16 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1263,7 +1278,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>123</v>
       </c>
@@ -1280,13 +1295,13 @@
         <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1301,7 +1316,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>123</v>
       </c>
@@ -1321,10 +1336,10 @@
         <v>4</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1339,7 +1354,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>152</v>
       </c>
@@ -1371,7 +1386,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>153</v>
       </c>
@@ -1403,7 +1418,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>153</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>153</v>
       </c>
@@ -1470,7 +1485,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>154</v>
       </c>
@@ -1505,7 +1520,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1543,7 +1558,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1613,7 +1628,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1648,7 +1663,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>155</v>
       </c>
@@ -1680,7 +1695,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>155</v>
       </c>
@@ -1712,7 +1727,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1747,7 +1762,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1782,7 +1797,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1817,7 +1832,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>158</v>
       </c>
@@ -1852,7 +1867,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1887,7 +1902,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1922,7 +1937,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1960,7 +1975,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1995,7 +2010,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -2030,7 +2045,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2065,7 +2080,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2103,7 +2118,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2135,7 +2150,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -2167,7 +2182,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -2202,7 +2217,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -2237,7 +2252,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -2272,7 +2287,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -2307,7 +2322,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -2339,7 +2354,7 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -2374,49 +2389,49 @@
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L54" s="4"/>
     </row>
   </sheetData>
@@ -2440,18 +2455,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DED00E-46E1-48BC-B1F1-251D95106922}">
   <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1"/>
-    <col min="2" max="2" width="27.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" style="3"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +2489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F4" s="5"/>
       <c r="H4" s="4" t="str">
         <f t="shared" ref="H4:H48" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -2485,7 +2500,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="5"/>
       <c r="H5" s="4" t="str">
         <f t="shared" ref="H5:H16" si="2">IF(D5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -2496,24 +2511,24 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2524,25 +2539,25 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://java.withthebest.com/'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;Java With the Best &lt;br&gt; 2018-04-17 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Online&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
         <v>171</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>172</v>
-      </c>
-      <c r="C7" t="s">
-        <v>173</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2552,24 +2567,24 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://amsterdam2018.codemotionworld.com/talk-detail/?detail=7544'&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-05-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Amsterdam&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
         <v>186</v>
-      </c>
-      <c r="C8" t="s">
-        <v>187</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2580,24 +2595,24 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://craft-conf.com/'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;Craft-Conf &lt;br&gt; 2018-05-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Budapest&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2605,83 +2620,83 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='www.jbcnconf.com/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JBCN Conf &lt;br&gt; 2018-06-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Barcelona&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jbcnconf.com/2018/infoSpeaker.html?ref=QmVybmRSdWVja2VyYmVybmQucnVlY2tlckBjYW11bmRhLmNvbQ=='&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JBCN Conf &lt;br&gt; 2018-06-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Barcelona&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
         <v>201</v>
-      </c>
-      <c r="B10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" t="s">
-        <v>203</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://entwicklertag.de/karlsruhe/2018/lost-transaction-ber'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Entwicklertag &lt;br&gt; 2018-06-21 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Karlsruhe&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://entwicklertag.de/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Entwicklertag &lt;br&gt; 2018-06-21 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Karlsruhe&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="B11" t="s">
         <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" t="s">
         <v>166</v>
       </c>
+      <c r="F11" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/programm/#/talk/workflows-mit-bpmn-automatisieren-lessons-learned'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
         <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2689,12 +2704,12 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/programm/#/talk/lost-in-transaction-uber-in-kosistenz-in-verteilten-systemen'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -2706,10 +2721,10 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2720,9 +2735,9 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/'&gt;Kommunikation zwischen Microservices&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -2734,10 +2749,10 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2748,12 +2763,12 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -2762,10 +2777,10 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2773,27 +2788,27 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2804,7 +2819,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2814,7 +2829,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="18" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2824,7 +2839,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="19" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2834,7 +2849,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="20" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2844,7 +2859,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="21" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2854,7 +2869,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="22" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2864,7 +2879,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="23" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2874,7 +2889,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="24" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2884,7 +2899,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="25" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2894,7 +2909,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="26" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2904,7 +2919,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="27" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2914,7 +2929,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="28" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2924,7 +2939,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="29" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2934,7 +2949,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="30" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2944,7 +2959,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="31" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2954,7 +2969,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="32" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2964,7 +2979,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="33" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2974,7 +2989,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="34" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2984,7 +2999,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="35" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -2994,7 +3009,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3004,7 +3019,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="37" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3014,7 +3029,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="38" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3024,7 +3039,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="39" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3034,7 +3049,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="40" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3044,7 +3059,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="41" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3054,7 +3069,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="42" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3064,7 +3079,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="43" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3074,7 +3089,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="44" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3084,7 +3099,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="45" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3094,7 +3109,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="46" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3104,7 +3119,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="47" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3114,7 +3129,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="48" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3137,27 +3152,29 @@
     <hyperlink ref="F14" r:id="rId6" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
     <hyperlink ref="F16" r:id="rId7" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
     <hyperlink ref="F15" r:id="rId8" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
+    <hyperlink ref="F11" r:id="rId9" location="/talk/workflows-mit-bpmn-automatisieren-lessons-learned" xr:uid="{16B16B5A-2EC0-44E7-BA7A-10B486B7758D}"/>
+    <hyperlink ref="F12" r:id="rId10" location="/talk/lost-in-transaction-uber-in-kosistenz-in-verteilten-systemen" xr:uid="{0DDA59BA-BF40-4F5A-9085-77D98FABF8AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE010A1-CC23-40A7-95CD-9FEF3DE24D49}">
-  <dimension ref="A2:I48"/>
+  <dimension ref="A2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.90625" style="1"/>
-    <col min="8" max="8" width="10.90625" style="3"/>
+    <col min="2" max="2" width="10.85546875" style="1"/>
+    <col min="8" max="8" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3180,59 +3197,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>123</v>
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f>IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>226</v>
+      </c>
+      <c r="F4" t="s">
+        <v>225</v>
       </c>
       <c r="I4" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoworld.com/article/3254777/application-development/3-common-pitfalls-of-microservices-integrationand-how-to-avoid-them.html'&gt;3 common pitfalls of microservices integration—and how to avoid them&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoWorld&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://thenewstack.io/5-workflow-automation-use-cases-you-might-not-have-considered/'&gt;5 Workflow Automation Use Cases You Might Not Have Considered&lt;/a&gt;&lt;p&gt;2018-04  TheNewStack&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f t="shared" ref="H5:H11" si="0">IF(D5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f>IF(D5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I11" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F5&amp;"'&gt;"&amp;E5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" "&amp;H5&amp;" "&amp;C5&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoq.com/articles/events-workflow-automation'&gt;Events, Flows and Long-Running Services: A Modern Approach to Workflow Automation&lt;/a&gt;&lt;p&gt;2017-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoQ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F5&amp;"'&gt;"&amp;E5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" "&amp;H5&amp;" "&amp;C5&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoworld.com/article/3254777/application-development/3-common-pitfalls-of-microservices-integrationand-how-to-avoid-them.html'&gt;3 common pitfalls of microservices integration—and how to avoid them&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoWorld&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>126</v>
@@ -3241,66 +3254,63 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" ref="H6:H12" si="0">IF(D6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F6&amp;"'&gt;"&amp;E6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" "&amp;H6&amp;" "&amp;C6&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoq.com/articles/events-workflow-automation'&gt;Events, Flows and Long-Running Services: A Modern Approach to Workflow Automation&lt;/a&gt;&lt;p&gt;2017-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoQ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>129</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I6" t="str">
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoq.com/articles/microservice-event-choreographies'&gt;Know the Flow! Microservices and Event Choreographies&lt;/a&gt;&lt;p&gt;2017-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoQ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://entwickler.de/online/windowsdeveloper/workflows-bpmn-automatisieren-301118.html'&gt;Workflows mit BPMN effektiv automatisieren&lt;/a&gt;&lt;p&gt;2016-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Windows Developer&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3308,27 +3318,27 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://network.camunda.org/whitepaper/45'&gt;BPM macht Spaß&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Aktuell&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://entwickler.de/online/windowsdeveloper/workflows-bpmn-automatisieren-301118.html'&gt;Workflows mit BPMN effektiv automatisieren&lt;/a&gt;&lt;p&gt;2016-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Windows Developer&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3336,27 +3346,27 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.sigs-datacom.de/uploads/tx_dmjournals/ruecker_OS_05_16_TRBT.pdf'&gt;Decision Model and Notation: Digitalisierung von Entscheidungen mit DMN&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Objekt Spektrum&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://network.camunda.org/whitepaper/45'&gt;BPM macht Spaß&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Aktuell&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3364,47 +3374,65 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://jaxenter.de/der-brueckenschlag-warum-dmn-den-business-rules-engines-markt-aufmischt-37252'&gt;Der Brückenschlag: Warum DMN den Business-Rules-Engines-Markt aufmischt&lt;/a&gt;&lt;p&gt;2016-04 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Business Technology&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.sigs-datacom.de/uploads/tx_dmjournals/ruecker_OS_05_16_TRBT.pdf'&gt;Decision Model and Notation: Digitalisierung von Entscheidungen mit DMN&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Objekt Spektrum&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://jaxenter.de/der-brueckenschlag-warum-dmn-den-business-rules-engines-markt-aufmischt-37252'&gt;Der Brückenschlag: Warum DMN den Business-Rules-Engines-Markt aufmischt&lt;/a&gt;&lt;p&gt;2016-04 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Business Technology&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="4" t="str">
+      <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Quo Vadis BPM&lt;/a&gt;&lt;p&gt;2016-01 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Magazin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="4" t="str">
-        <f t="shared" ref="H12:H48" si="2">IF(D12="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I12" t="e">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F12&amp;"'&gt;"&amp;E12&amp;"&lt;/a&gt;&lt;p&gt;"&amp;C12&amp;" &lt;br&gt; "&amp;B12&amp;" "&amp;H12&amp;" "&amp;#REF!&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H13:H49" si="2">IF(D13="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I13" t="e">
@@ -3412,7 +3440,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3422,7 +3450,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3432,7 +3460,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3442,7 +3470,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3452,7 +3480,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3462,7 +3490,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3472,7 +3500,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3482,7 +3510,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3492,7 +3520,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3502,7 +3530,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3512,7 +3540,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3522,7 +3550,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3532,7 +3560,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3542,7 +3570,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3552,7 +3580,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3562,7 +3590,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3572,7 +3600,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3582,7 +3610,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3592,7 +3620,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3602,7 +3630,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3612,7 +3640,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3622,7 +3650,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3632,7 +3660,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H36" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3642,7 +3670,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3652,7 +3680,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H38" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3662,7 +3690,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3672,7 +3700,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3682,7 +3710,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3692,7 +3720,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H42" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3702,7 +3730,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3712,7 +3740,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H44" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3722,7 +3750,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H45" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3732,7 +3760,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H46" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3742,7 +3770,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H47" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3752,13 +3780,23 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H48" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I48" t="e">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F48&amp;"'&gt;"&amp;E48&amp;"&lt;/a&gt;&lt;p&gt;"&amp;C48&amp;" &lt;br&gt; "&amp;B48&amp;" "&amp;H48&amp;" "&amp;#REF!&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I49" t="e">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F49&amp;"'&gt;"&amp;E49&amp;"&lt;/a&gt;&lt;p&gt;"&amp;C49&amp;" &lt;br&gt; "&amp;B49&amp;" "&amp;H49&amp;" "&amp;#REF!&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A6D8B-A033-4708-AFAE-963AA8A85D05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663D01E6-B85E-44D5-8069-6D655298BC30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10545" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="235">
   <si>
     <t>Jfokus</t>
   </si>
@@ -557,9 +557,6 @@
     <t>Qcon</t>
   </si>
   <si>
-    <t>http://java.withthebest.com/</t>
-  </si>
-  <si>
     <t>Online</t>
   </si>
   <si>
@@ -569,9 +566,6 @@
     <t>3 Common Pitfalls in Microservice Integration and How to Avoid them</t>
   </si>
   <si>
-    <t>2018-04-17</t>
-  </si>
-  <si>
     <t>Zeebe.io - Event-driven Microservice Orchestration</t>
   </si>
   <si>
@@ -711,6 +705,33 @@
   </si>
   <si>
     <t>https://www.meetup.com/JUG-Mainz/events/249130598/</t>
+  </si>
+  <si>
+    <t>QCon</t>
+  </si>
+  <si>
+    <t>https://qconnewyork.com/ny2018/presentation/complex-event-flows-distributed-systems</t>
+  </si>
+  <si>
+    <t>2018-06-27</t>
+  </si>
+  <si>
+    <t>2018-06-28</t>
+  </si>
+  <si>
+    <t>2018-06-26</t>
+  </si>
+  <si>
+    <t>https://www.meetup.com/nycjava/</t>
+  </si>
+  <si>
+    <t>The New York City Java Meetup Group</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Complex Event Flows in Distributed Systems</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01586060-4301-42D6-A296-5BF85ED0BBE5}">
-  <dimension ref="A2:N54"/>
+  <dimension ref="A2:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N39" sqref="N4:N39"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1137,285 +1158,285 @@
     </row>
     <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H4" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>207</v>
+        <v>178</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f t="shared" ref="L4:L9" si="0">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" ref="L4" si="0">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M39" si="1">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" ref="M4" si="1">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N9" si="2">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="N4:N10" si="2">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Java With the Best (Online)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>179</v>
+      </c>
+      <c r="G5" t="s">
+        <v>201</v>
       </c>
       <c r="H5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="L5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L5:L10" si="3">IF(E5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" ref="M5:M40" si="4">IF((LEN(G5)&gt;0),"&lt;a href='"&amp;G5&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H5)&gt;0),"&lt;a href='"&amp;H5&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I5)&gt;0),"&lt;a href='"&amp;I5&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J5)&gt;0),"&lt;a href='"&amp;J5&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N5" t="str">
-        <f>IF(LEN(A5)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G5&amp;"'&gt;"&amp;F5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" "&amp;L5&amp;" "&amp;C5&amp;" ("&amp;D5&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M5&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>IF(LEN(A6)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G6&amp;"'&gt;"&amp;F6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" "&amp;L6&amp;" "&amp;C6&amp;" ("&amp;D6&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M6&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>208</v>
+        <v>169</v>
+      </c>
+      <c r="H7" t="s">
+        <v>200</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>190</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>152</v>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f t="shared" ref="L10:L39" si="3">IF(E10="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" ref="N10:N39" si="4">IF(LEN(A10)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G10&amp;"'&gt;"&amp;F10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" "&amp;L10&amp;" "&amp;C10&amp;" ("&amp;D10&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" ref="L11:L40" si="5">IF(E11="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="N11:N40" si="6">IF(LEN(A11)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G11&amp;"'&gt;"&amp;F11&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B11&amp;" "&amp;L11&amp;" "&amp;C11&amp;" ("&amp;D11&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M11&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1432,22 +1453,22 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,107 +1476,101 @@
         <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,34 +1578,37 @@
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1601,31 +1619,31 @@
         <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,63 +1654,66 @@
         <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1700,66 +1721,63 @@
         <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
         <v>57</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M20" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="L21" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M21" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N20" t="str">
-        <f t="shared" si="4"/>
+      <c r="N21" t="str">
+        <f t="shared" si="6"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,13 +1785,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -1782,19 +1800,19 @@
         <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1814,92 +1832,92 @@
         <v>21</v>
       </c>
       <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M23" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="L24" s="4" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M23" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="M24" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N23" t="str">
-        <f t="shared" si="4"/>
+      <c r="N24" t="str">
+        <f t="shared" si="6"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
     <row r="25" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
       <c r="B25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1910,7 +1928,7 @@
         <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -1919,22 +1937,22 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1942,37 +1960,34 @@
         <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1980,34 +1995,37 @@
         <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2015,34 +2033,34 @@
         <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2050,34 +2068,34 @@
         <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2088,34 +2106,31 @@
         <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2126,28 +2141,34 @@
         <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>101</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2167,19 +2188,19 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,34 +2208,31 @@
         <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
-      </c>
-      <c r="J34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2225,31 +2243,31 @@
         <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="J35" t="s">
+        <v>104</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2257,10 +2275,10 @@
         <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
         <v>53</v>
@@ -2269,22 +2287,22 @@
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2295,31 +2313,31 @@
         <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="J37" t="s">
+        <v>111</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2327,31 +2345,34 @@
         <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="G38" t="s">
+        <v>112</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M38" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,38 +2380,67 @@
         <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>116</v>
+      </c>
+      <c r="L39" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>118</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>2</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>119</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>120</v>
       </c>
-      <c r="L39" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M39" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="L40" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M40" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N39" t="str">
-        <f t="shared" si="4"/>
+      <c r="N40" t="str">
+        <f t="shared" si="6"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L41" s="4"/>
@@ -2434,17 +2484,20 @@
     <row r="54" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L54" s="4"/>
     </row>
+    <row r="55" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L55" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
-    <hyperlink ref="I8" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
-    <hyperlink ref="I6" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
-    <hyperlink ref="H8" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
-    <hyperlink ref="I9" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
-    <hyperlink ref="I7" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
-    <hyperlink ref="H9" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
+    <hyperlink ref="I7" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
+    <hyperlink ref="I5" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
+    <hyperlink ref="I10" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
+    <hyperlink ref="I8" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
@@ -2456,7 +2509,7 @@
   <dimension ref="A2:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I4" sqref="I4:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2490,226 +2543,258 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="5"/>
+      <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="H4" s="4" t="str">
-        <f t="shared" ref="H4:H48" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="H4:H16" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I48" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="I4:I16" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://amsterdam2018.codemotionworld.com/talk-detail/?detail=7544'&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-05-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Amsterdam&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="5"/>
+      <c r="A5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="H5" s="4" t="str">
-        <f t="shared" ref="H5:H16" si="2">IF(D5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I16" si="3">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F5&amp;"'&gt;"&amp;E5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" &lt;br&gt; "&amp;A5&amp;" "&amp;H5&amp;" "&amp;C5&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://craft-conf.com/'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;Craft-Conf &lt;br&gt; 2018-05-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Budapest&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://java.withthebest.com/'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;Java With the Best &lt;br&gt; 2018-04-17 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Online&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jbcnconf.com/2018/infoSpeaker.html?ref=QmVybmRSdWVja2VyYmVybmQucnVlY2tlckBjYW11bmRhLmNvbQ=='&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JBCN Conf &lt;br&gt; 2018-06-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Barcelona&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://amsterdam2018.codemotionworld.com/talk-detail/?detail=7544'&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-05-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Amsterdam&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://entwicklertag.de/karlsruhe/2018/lost-transaction-ber'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Entwicklertag &lt;br&gt; 2018-06-21 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Karlsruhe&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
         <v>187</v>
       </c>
-      <c r="B8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" t="s">
-        <v>186</v>
-      </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://craft-conf.com/'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;Craft-Conf &lt;br&gt; 2018-05-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Budapest&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/programm/#/talk/workflows-mit-bpmn-automatisieren-lessons-learned'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>220</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jbcnconf.com/2018/infoSpeaker.html?ref=QmVybmRSdWVja2VyYmVybmQucnVlY2tlckBjYW11bmRhLmNvbQ=='&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JBCN Conf &lt;br&gt; 2018-06-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Barcelona&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/programm/#/talk/lost-in-transaction-uber-in-kosistenz-in-verteilten-systemen'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://entwicklertag.de/karlsruhe/2018/lost-transaction-ber'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Entwicklertag &lt;br&gt; 2018-06-21 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Karlsruhe&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/nycjava/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;The New York City Java Meetup Group &lt;br&gt; 2018-06-26 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; New York&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/programm/#/talk/workflows-mit-bpmn-automatisieren-lessons-learned'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://qconnewyork.com/ny2018/presentation/complex-event-flows-distributed-systems'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;QCon &lt;br&gt; 2018-06-28 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; New York&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>222</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="H12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/programm/#/talk/lost-in-transaction-uber-in-kosistenz-in-verteilten-systemen'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;QCon &lt;br&gt; 2018-06-27 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; New York&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -2721,23 +2806,23 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/'&gt;Kommunikation zwischen Microservices&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -2752,23 +2837,23 @@
         <v>166</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -2777,386 +2862,161 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" t="s">
         <v>213</v>
-      </c>
-      <c r="B16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" t="s">
-        <v>215</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;&lt;/a&gt;&lt;p&gt; &lt;br&gt;  &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
+    <row r="17" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A4:G12">
-    <sortCondition ref="A4:A12"/>
+  <sortState ref="A4:G9">
+    <sortCondition ref="A4:A9"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{D5BB08EC-77FA-4C63-B367-DDD6BAFE2A89}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{94AD6036-1164-47A1-A88C-2BFA5E235597}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{C41C1E95-BB9A-459A-9124-471BE824E216}"/>
-    <hyperlink ref="F9" r:id="rId4" xr:uid="{28AD5029-090C-46B0-ABE2-A7FB0B197E51}"/>
-    <hyperlink ref="F10" r:id="rId5" xr:uid="{89DE3070-7D57-437F-BE86-164774E3AF22}"/>
-    <hyperlink ref="F14" r:id="rId6" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
-    <hyperlink ref="F16" r:id="rId7" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
-    <hyperlink ref="F15" r:id="rId8" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
-    <hyperlink ref="F11" r:id="rId9" location="/talk/workflows-mit-bpmn-automatisieren-lessons-learned" xr:uid="{16B16B5A-2EC0-44E7-BA7A-10B486B7758D}"/>
-    <hyperlink ref="F12" r:id="rId10" location="/talk/lost-in-transaction-uber-in-kosistenz-in-verteilten-systemen" xr:uid="{0DDA59BA-BF40-4F5A-9085-77D98FABF8AB}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{D5BB08EC-77FA-4C63-B367-DDD6BAFE2A89}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{C41C1E95-BB9A-459A-9124-471BE824E216}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{28AD5029-090C-46B0-ABE2-A7FB0B197E51}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{89DE3070-7D57-437F-BE86-164774E3AF22}"/>
+    <hyperlink ref="F14" r:id="rId5" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
+    <hyperlink ref="F16" r:id="rId6" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
+    <hyperlink ref="F8" r:id="rId8" location="/talk/workflows-mit-bpmn-automatisieren-lessons-learned" xr:uid="{16B16B5A-2EC0-44E7-BA7A-10B486B7758D}"/>
+    <hyperlink ref="F9" r:id="rId9" location="/talk/lost-in-transaction-uber-in-kosistenz-in-verteilten-systemen" xr:uid="{0DDA59BA-BF40-4F5A-9085-77D98FABF8AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -3199,19 +3059,19 @@
     </row>
     <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I4" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663D01E6-B85E-44D5-8069-6D655298BC30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6301794C-1300-42DF-B7D5-931C58BE62FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10545" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="10548" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent talks" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="261">
   <si>
     <t>Jfokus</t>
   </si>
@@ -533,15 +533,9 @@
     <t xml:space="preserve">Lost in transaction? Über (In-)Kosistenz in verteilten Systemen </t>
   </si>
   <si>
-    <t>2018-06-25</t>
-  </si>
-  <si>
     <t>Patience pays off. How long running services reduce complexity.</t>
   </si>
   <si>
-    <t>2018-05-09</t>
-  </si>
-  <si>
     <t>Codemotion</t>
   </si>
   <si>
@@ -551,9 +545,6 @@
     <t xml:space="preserve">Workflow automation in the serverless age </t>
   </si>
   <si>
-    <t>https://amsterdam2018.codemotionworld.com/talk-detail/?detail=7544</t>
-  </si>
-  <si>
     <t>Qcon</t>
   </si>
   <si>
@@ -575,18 +566,12 @@
     <t>Erfurt</t>
   </si>
   <si>
-    <t>https://craft-conf.com/</t>
-  </si>
-  <si>
     <t>Craft-Conf</t>
   </si>
   <si>
     <t>Budapest</t>
   </si>
   <si>
-    <t>2018-05-10</t>
-  </si>
-  <si>
     <t>Break your event chains! Complex event flows in distributed systems.</t>
   </si>
   <si>
@@ -617,12 +602,6 @@
     <t>JBCN Conf</t>
   </si>
   <si>
-    <t>2018-06-11</t>
-  </si>
-  <si>
-    <t>2018-06-21</t>
-  </si>
-  <si>
     <t>Entwicklertag</t>
   </si>
   <si>
@@ -680,18 +659,6 @@
     <t>https://www.youtube.com/watch?v=Ikj59uEKhjg</t>
   </si>
   <si>
-    <t>https://entwicklertag.de/karlsruhe/2018/lost-transaction-ber</t>
-  </si>
-  <si>
-    <t>http://www.jbcnconf.com/2018/infoSpeaker.html?ref=QmVybmRSdWVja2VyYmVybmQucnVlY2tlckBjYW11bmRhLmNvbQ==</t>
-  </si>
-  <si>
-    <t>https://www.developer-week.de/programm/#/talk/workflows-mit-bpmn-automatisieren-lessons-learned</t>
-  </si>
-  <si>
-    <t>https://www.developer-week.de/programm/#/talk/lost-in-transaction-uber-in-kosistenz-in-verteilten-systemen</t>
-  </si>
-  <si>
     <t>TheNewStack</t>
   </si>
   <si>
@@ -710,21 +677,6 @@
     <t>QCon</t>
   </si>
   <si>
-    <t>https://qconnewyork.com/ny2018/presentation/complex-event-flows-distributed-systems</t>
-  </si>
-  <si>
-    <t>2018-06-27</t>
-  </si>
-  <si>
-    <t>2018-06-28</t>
-  </si>
-  <si>
-    <t>2018-06-26</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/nycjava/</t>
-  </si>
-  <si>
     <t>The New York City Java Meetup Group</t>
   </si>
   <si>
@@ -732,6 +684,132 @@
   </si>
   <si>
     <t>Complex Event Flows in Distributed Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GopherCon </t>
+  </si>
+  <si>
+    <t>2018-08-02</t>
+  </si>
+  <si>
+    <t>https://www.gophercon.co.uk/schedule/</t>
+  </si>
+  <si>
+    <t>2018-10-23</t>
+  </si>
+  <si>
+    <t>GoLab</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>https://golab.io/</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>Devoxx Poland</t>
+  </si>
+  <si>
+    <t>Krakow</t>
+  </si>
+  <si>
+    <t>Lost in transaction? Strategies to deal with (in-)consistency in modern architectures.</t>
+  </si>
+  <si>
+    <t>https://javaforumnord.de/site/2018/</t>
+  </si>
+  <si>
+    <t>2018-09-13</t>
+  </si>
+  <si>
+    <t>Java Forum Nord</t>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-09-12</t>
+  </si>
+  <si>
+    <t>JavaZone Noway</t>
+  </si>
+  <si>
+    <t>https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441</t>
+  </si>
+  <si>
+    <t>2018-09-05</t>
+  </si>
+  <si>
+    <t>Herbstcampus</t>
+  </si>
+  <si>
+    <t>Nurremberg</t>
+  </si>
+  <si>
+    <t>https://www.herbstcampus.de/veranstaltung-6984-lost-in-transaction-%C3%9Cber-%28in-%29kosistenz-in-verteilten-systemen.html?id=6984</t>
+  </si>
+  <si>
+    <t>Lost in transaction? Über (In-)Kosistenz in verteilten Systemen</t>
+  </si>
+  <si>
+    <t>Full Stack Fest</t>
+  </si>
+  <si>
+    <t>2018-09-04</t>
+  </si>
+  <si>
+    <t>Lost in transaction? Strategies to deal with (in-)consistency in distributed systems</t>
+  </si>
+  <si>
+    <t>https://2018.fullstackfest.com/speakers/berndr%C3%Bccker</t>
+  </si>
+  <si>
+    <t>2018-10-29</t>
+  </si>
+  <si>
+    <t>https://conferences.oreilly.com/software-architecture/sa-eu/public/schedule/detail/69841</t>
+  </si>
+  <si>
+    <t>https://www.ittage.informatik-aktuell.de/</t>
+  </si>
+  <si>
+    <t>IT Tage</t>
+  </si>
+  <si>
+    <t>3 typische Stolperfallen bei der Microservice-Integration</t>
+  </si>
+  <si>
+    <t>2018-12-10</t>
+  </si>
+  <si>
+    <t>BaselOne</t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t>2018-10-19</t>
+  </si>
+  <si>
+    <t>http://baselone.ch/</t>
+  </si>
+  <si>
+    <t>Dusseldorf</t>
+  </si>
+  <si>
+    <t>JCon</t>
+  </si>
+  <si>
+    <t>2018-10-09</t>
+  </si>
+  <si>
+    <t>Lost in transaction? Strategies to deal with (in-)consistency in distributed systems.</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1106,19 +1184,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01586060-4301-42D6-A296-5BF85ED0BBE5}">
-  <dimension ref="A2:N55"/>
+  <dimension ref="A2:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" style="1"/>
-    <col min="12" max="13" width="10.85546875" style="3"/>
+    <col min="2" max="2" width="10.88671875" style="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="12" max="13" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1156,1348 +1235,1618 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f t="shared" ref="L4:L12" si="0">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <f t="shared" ref="M4:M12" si="1">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N12" si="2">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; The New York City Java Meetup Group (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Entwicklertag (Karlsruhe)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Developer Week (Nuremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in modern architectures.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx Poland (Krakow)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JBCN Conf (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Codemotion (Amsterdam)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Craft-Conf (Budapest)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f>IF(E13="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M13" s="3" t="str">
+        <f t="shared" ref="M13" si="3">IF((LEN(G13)&gt;0),"&lt;a href='"&amp;G13&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H13)&gt;0),"&lt;a href='"&amp;H13&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I13)&gt;0),"&lt;a href='"&amp;I13&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J13)&gt;0),"&lt;a href='"&amp;J13&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N13" t="str">
+        <f>IF(LEN(A13)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G13&amp;"'&gt;"&amp;F13&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B13&amp;" "&amp;L13&amp;" "&amp;C13&amp;" ("&amp;D13&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M13&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Java With the Best (Online)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" s="4" t="str">
-        <f t="shared" ref="L4" si="0">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4" si="1">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" ref="N4:N10" si="2">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Java With the Best (Online)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f t="shared" ref="L5:L10" si="3">IF(E5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+      <c r="F14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="4" t="str">
+        <f>IF(E14="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M5" s="3" t="str">
-        <f t="shared" ref="M5:M40" si="4">IF((LEN(G5)&gt;0),"&lt;a href='"&amp;G5&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H5)&gt;0),"&lt;a href='"&amp;H5&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I5)&gt;0),"&lt;a href='"&amp;I5&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J5)&gt;0),"&lt;a href='"&amp;J5&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+      <c r="M14" s="3" t="str">
+        <f t="shared" ref="M14:M49" si="4">IF((LEN(G14)&gt;0),"&lt;a href='"&amp;G14&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H14)&gt;0),"&lt;a href='"&amp;H14&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I14)&gt;0),"&lt;a href='"&amp;I14&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J14)&gt;0),"&lt;a href='"&amp;J14&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="2"/>
+      <c r="N14" t="str">
+        <f>IF(LEN(A14)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G14&amp;"'&gt;"&amp;F14&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B14&amp;" "&amp;L14&amp;" "&amp;C14&amp;" ("&amp;D14&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M14&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F15" t="s">
         <v>165</v>
       </c>
-      <c r="H6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="H15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" s="4" t="str">
+        <f>IF(E15="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M6" s="3" t="str">
+      <c r="M15" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N6" t="str">
-        <f>IF(LEN(A6)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G6&amp;"'&gt;"&amp;F6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" "&amp;L6&amp;" "&amp;C6&amp;" ("&amp;D6&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M6&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+      <c r="N15" t="str">
+        <f>IF(LEN(A15)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G15&amp;"'&gt;"&amp;F15&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B15&amp;" "&amp;L15&amp;" "&amp;C15&amp;" ("&amp;D15&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M15&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="16" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D16" t="s">
         <v>81</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M7" s="3" t="str">
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="4" t="str">
+        <f>IF(E16="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M16" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N7" t="str">
-        <f t="shared" si="2"/>
+      <c r="N16" t="str">
+        <f>IF(LEN(A16)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G16&amp;"'&gt;"&amp;F16&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B16&amp;" "&amp;L16&amp;" "&amp;C16&amp;" ("&amp;D16&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M16&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
         <v>175</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M8" s="3" t="str">
+      <c r="G17" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f>IF(E17="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M17" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" si="2"/>
+      <c r="N17" t="str">
+        <f>IF(LEN(A17)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G17&amp;"'&gt;"&amp;F17&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B17&amp;" "&amp;L17&amp;" "&amp;C17&amp;" ("&amp;D17&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M17&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="18" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D18" t="s">
         <v>93</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E18" t="s">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F18" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M9" s="3" t="str">
+      <c r="G18" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <f>IF(E18="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" si="2"/>
+      <c r="N18" t="str">
+        <f>IF(LEN(A18)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G18&amp;"'&gt;"&amp;F18&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B18&amp;" "&amp;L18&amp;" "&amp;C18&amp;" ("&amp;D18&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M18&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="19" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C19" t="s">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F19" t="s">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G19" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M10" s="3" t="str">
+      <c r="H19" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f>IF(E19="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N10" t="str">
-        <f t="shared" si="2"/>
+      <c r="N19" t="str">
+        <f>IF(LEN(A19)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G19&amp;"'&gt;"&amp;F19&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B19&amp;" "&amp;L19&amp;" "&amp;C19&amp;" ("&amp;D19&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M19&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="20" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E20" t="s">
         <v>2</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="4" t="str">
-        <f t="shared" ref="L11:L40" si="5">IF(E11="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M11" s="3" t="str">
+      <c r="L20" s="4" t="str">
+        <f>IF(E20="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N11" t="str">
-        <f t="shared" ref="N11:N40" si="6">IF(LEN(A11)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G11&amp;"'&gt;"&amp;F11&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B11&amp;" "&amp;L11&amp;" "&amp;C11&amp;" ("&amp;D11&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M11&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="N20" t="str">
+        <f>IF(LEN(A20)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G20&amp;"'&gt;"&amp;F20&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B20&amp;" "&amp;L20&amp;" "&amp;C20&amp;" ("&amp;D20&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M20&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E21" t="s">
         <v>21</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F21" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G21" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L21" s="4" t="str">
+        <f>IF(E21="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M12" s="3" t="str">
+      <c r="M21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N12" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="N21" t="str">
+        <f>IF(LEN(A21)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G21&amp;"'&gt;"&amp;F21&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B21&amp;" "&amp;L21&amp;" "&amp;C21&amp;" ("&amp;D21&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M21&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E22" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F22" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G22" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L22" s="4" t="str">
+        <f>IF(E22="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M13" s="3" t="str">
+      <c r="M22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="N22" t="str">
+        <f>IF(LEN(A22)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G22&amp;"'&gt;"&amp;F22&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B22&amp;" "&amp;L22&amp;" "&amp;C22&amp;" ("&amp;D22&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M22&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E23" t="s">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F23" t="s">
         <v>28</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G23" t="s">
         <v>30</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H23" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M14" s="3" t="str">
+      <c r="L23" s="4" t="str">
+        <f>IF(E23="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N14" t="str">
-        <f t="shared" si="6"/>
+      <c r="N23" t="str">
+        <f>IF(LEN(A23)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G23&amp;"'&gt;"&amp;F23&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B23&amp;" "&amp;L23&amp;" "&amp;C23&amp;" ("&amp;D23&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M23&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="24" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E24" t="s">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F24" t="s">
         <v>75</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G24" t="s">
         <v>33</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H24" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M15" s="3" t="str">
+      <c r="L24" s="4" t="str">
+        <f>IF(E24="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N15" t="str">
-        <f t="shared" si="6"/>
+      <c r="N24" t="str">
+        <f>IF(LEN(A24)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G24&amp;"'&gt;"&amp;F24&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B24&amp;" "&amp;L24&amp;" "&amp;C24&amp;" ("&amp;D24&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M24&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="25" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E25" t="s">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F25" t="s">
         <v>37</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G25" t="s">
         <v>35</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H25" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M16" s="3" t="str">
+      <c r="L25" s="4" t="str">
+        <f>IF(E25="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N16" t="str">
-        <f t="shared" si="6"/>
+      <c r="N25" t="str">
+        <f>IF(LEN(A25)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G25&amp;"'&gt;"&amp;F25&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B25&amp;" "&amp;L25&amp;" "&amp;C25&amp;" ("&amp;D25&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M25&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="26" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C26" t="s">
         <v>43</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D26" t="s">
         <v>44</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E26" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F26" t="s">
         <v>46</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G26" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M17" s="3" t="str">
+      <c r="L26" s="4" t="str">
+        <f>IF(E26="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N17" t="str">
-        <f t="shared" si="6"/>
+      <c r="N26" t="str">
+        <f>IF(LEN(A26)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G26&amp;"'&gt;"&amp;F26&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B26&amp;" "&amp;L26&amp;" "&amp;C26&amp;" ("&amp;D26&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M26&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="27" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D27" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E27" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F27" t="s">
         <v>47</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G27" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L27" s="4" t="str">
+        <f>IF(E27="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M18" s="3" t="str">
+      <c r="M27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N18" t="str">
-        <f t="shared" si="6"/>
+      <c r="N27" t="str">
+        <f>IF(LEN(A27)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G27&amp;"'&gt;"&amp;F27&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B27&amp;" "&amp;L27&amp;" "&amp;C27&amp;" ("&amp;D27&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M27&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="28" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C28" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D28" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E28" t="s">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F28" t="s">
         <v>50</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G28" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M19" s="3" t="str">
+      <c r="L28" s="4" t="str">
+        <f>IF(E28="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N19" t="str">
-        <f t="shared" si="6"/>
+      <c r="N28" t="str">
+        <f>IF(LEN(A28)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G28&amp;"'&gt;"&amp;F28&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B28&amp;" "&amp;L28&amp;" "&amp;C28&amp;" ("&amp;D28&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M28&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="29" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C29" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D29" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E29" t="s">
         <v>2</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F29" t="s">
         <v>55</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G29" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M20" s="3" t="str">
+      <c r="L29" s="4" t="str">
+        <f>IF(E29="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N20" t="str">
-        <f t="shared" si="6"/>
+      <c r="N29" t="str">
+        <f>IF(LEN(A29)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G29&amp;"'&gt;"&amp;F29&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B29&amp;" "&amp;L29&amp;" "&amp;C29&amp;" ("&amp;D29&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M29&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="30" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C30" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E30" t="s">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F30" t="s">
         <v>57</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G30" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M21" s="3" t="str">
+      <c r="L30" s="4" t="str">
+        <f>IF(E30="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N21" t="str">
-        <f t="shared" si="6"/>
+      <c r="N30" t="str">
+        <f>IF(LEN(A30)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G30&amp;"'&gt;"&amp;F30&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B30&amp;" "&amp;L30&amp;" "&amp;C30&amp;" ("&amp;D30&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M30&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="31" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C31" t="s">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D31" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E31" t="s">
         <v>21</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F31" t="s">
         <v>62</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G31" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L31" s="4" t="str">
+        <f>IF(E31="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M22" s="3" t="str">
+      <c r="M31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N22" t="str">
-        <f t="shared" si="6"/>
+      <c r="N31" t="str">
+        <f>IF(LEN(A31)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G31&amp;"'&gt;"&amp;F31&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B31&amp;" "&amp;L31&amp;" "&amp;C31&amp;" ("&amp;D31&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M31&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="32" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E32" t="s">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G32" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L32" s="4" t="str">
+        <f>IF(E32="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M23" s="3" t="str">
+      <c r="M32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N23" t="str">
-        <f t="shared" si="6"/>
+      <c r="N32" t="str">
+        <f>IF(LEN(A32)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G32&amp;"'&gt;"&amp;F32&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B32&amp;" "&amp;L32&amp;" "&amp;C32&amp;" ("&amp;D32&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M32&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="33" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C33" t="s">
         <v>64</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D33" t="s">
         <v>40</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E33" t="s">
         <v>21</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G33" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L33" s="4" t="str">
+        <f>IF(E33="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M24" s="3" t="str">
+      <c r="M33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N24" t="str">
-        <f t="shared" si="6"/>
+      <c r="N33" t="str">
+        <f>IF(LEN(A33)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G33&amp;"'&gt;"&amp;F33&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B33&amp;" "&amp;L33&amp;" "&amp;C33&amp;" ("&amp;D33&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M33&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="34" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C34" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D34" t="s">
         <v>27</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E34" t="s">
         <v>2</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F34" t="s">
         <v>69</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G34" t="s">
         <v>70</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H34" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M25" s="3" t="str">
+      <c r="L34" s="4" t="str">
+        <f>IF(E34="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N25" t="str">
-        <f t="shared" si="6"/>
+      <c r="N34" t="str">
+        <f>IF(LEN(A34)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G34&amp;"'&gt;"&amp;F34&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B34&amp;" "&amp;L34&amp;" "&amp;C34&amp;" ("&amp;D34&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M34&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="35" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D35" t="s">
         <v>73</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E35" t="s">
         <v>2</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F35" t="s">
         <v>57</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G35" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M26" s="3" t="str">
+      <c r="L35" s="4" t="str">
+        <f>IF(E35="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N26" t="str">
-        <f t="shared" si="6"/>
+      <c r="N35" t="str">
+        <f>IF(LEN(A35)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G35&amp;"'&gt;"&amp;F35&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B35&amp;" "&amp;L35&amp;" "&amp;C35&amp;" ("&amp;D35&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M35&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="36" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D36" t="s">
         <v>73</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E36" t="s">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F36" t="s">
         <v>78</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G36" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M27" s="3" t="str">
+      <c r="L36" s="4" t="str">
+        <f>IF(E36="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N27" t="str">
-        <f t="shared" si="6"/>
+      <c r="N36" t="str">
+        <f>IF(LEN(A36)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G36&amp;"'&gt;"&amp;F36&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B36&amp;" "&amp;L36&amp;" "&amp;C36&amp;" ("&amp;D36&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M36&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="37" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D37" t="s">
         <v>81</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E37" t="s">
         <v>2</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F37" t="s">
         <v>82</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G37" t="s">
         <v>83</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J37" t="s">
         <v>84</v>
       </c>
-      <c r="L28" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M28" s="3" t="str">
+      <c r="L37" s="4" t="str">
+        <f>IF(E37="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N28" t="str">
-        <f t="shared" si="6"/>
+      <c r="N37" t="str">
+        <f>IF(LEN(A37)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G37&amp;"'&gt;"&amp;F37&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B37&amp;" "&amp;L37&amp;" "&amp;C37&amp;" ("&amp;D37&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M37&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="38" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C38" t="s">
         <v>42</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D38" t="s">
         <v>44</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E38" t="s">
         <v>21</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F38" t="s">
         <v>85</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G38" t="s">
         <v>86</v>
       </c>
-      <c r="L29" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L38" s="4" t="str">
+        <f>IF(E38="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M29" s="3" t="str">
+      <c r="M38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N29" t="str">
-        <f t="shared" si="6"/>
+      <c r="N38" t="str">
+        <f>IF(LEN(A38)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G38&amp;"'&gt;"&amp;F38&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B38&amp;" "&amp;L38&amp;" "&amp;C38&amp;" ("&amp;D38&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M38&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="39" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C39" t="s">
         <v>87</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D39" t="s">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E39" t="s">
         <v>2</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F39" t="s">
         <v>88</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G39" t="s">
         <v>89</v>
       </c>
-      <c r="L30" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M30" s="3" t="str">
+      <c r="L39" s="4" t="str">
+        <f>IF(E39="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N30" t="str">
-        <f t="shared" si="6"/>
+      <c r="N39" t="str">
+        <f>IF(LEN(A39)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G39&amp;"'&gt;"&amp;F39&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B39&amp;" "&amp;L39&amp;" "&amp;C39&amp;" ("&amp;D39&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M39&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="40" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C40" t="s">
         <v>90</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D40" t="s">
         <v>81</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E40" t="s">
         <v>21</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F40" t="s">
         <v>91</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G40" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L40" s="4" t="str">
+        <f>IF(E40="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M31" s="3" t="str">
+      <c r="M40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N31" t="str">
-        <f t="shared" si="6"/>
+      <c r="N40" t="str">
+        <f>IF(LEN(A40)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G40&amp;"'&gt;"&amp;F40&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B40&amp;" "&amp;L40&amp;" "&amp;C40&amp;" ("&amp;D40&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M40&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="41" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C41" t="s">
         <v>97</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D41" t="s">
         <v>98</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E41" t="s">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F41" t="s">
         <v>99</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G41" t="s">
         <v>100</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H41" t="s">
         <v>101</v>
       </c>
-      <c r="L32" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M32" s="3" t="str">
+      <c r="L41" s="4" t="str">
+        <f>IF(E41="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="6"/>
+      <c r="N41" t="str">
+        <f>IF(LEN(A41)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G41&amp;"'&gt;"&amp;F41&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B41&amp;" "&amp;L41&amp;" "&amp;C41&amp;" ("&amp;D41&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M41&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="42" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D42" t="s">
         <v>20</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E42" t="s">
         <v>21</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F42" t="s">
         <v>102</v>
       </c>
-      <c r="L33" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L42" s="4" t="str">
+        <f>IF(E42="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M33" s="3" t="str">
+      <c r="M42" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N33" t="str">
-        <f t="shared" si="6"/>
+      <c r="N42" t="str">
+        <f>IF(LEN(A42)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G42&amp;"'&gt;"&amp;F42&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B42&amp;" "&amp;L42&amp;" "&amp;C42&amp;" ("&amp;D42&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M42&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D43" t="s">
         <v>20</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E43" t="s">
         <v>21</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F43" t="s">
         <v>105</v>
       </c>
-      <c r="L34" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L43" s="4" t="str">
+        <f>IF(E43="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M34" s="3" t="str">
+      <c r="M43" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N34" t="str">
-        <f t="shared" si="6"/>
+      <c r="N43" t="str">
+        <f>IF(LEN(A43)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G43&amp;"'&gt;"&amp;F43&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B43&amp;" "&amp;L43&amp;" "&amp;C43&amp;" ("&amp;D43&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M43&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="44" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C44" t="s">
         <v>42</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D44" t="s">
         <v>40</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E44" t="s">
         <v>21</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F44" t="s">
         <v>103</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J44" t="s">
         <v>104</v>
       </c>
-      <c r="L35" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L44" s="4" t="str">
+        <f>IF(E44="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M35" s="3" t="str">
+      <c r="M44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="6"/>
+      <c r="N44" t="str">
+        <f>IF(LEN(A44)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G44&amp;"'&gt;"&amp;F44&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B44&amp;" "&amp;L44&amp;" "&amp;C44&amp;" ("&amp;D44&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M44&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="45" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C45" t="s">
         <v>106</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D45" t="s">
         <v>53</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E45" t="s">
         <v>21</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F45" t="s">
         <v>108</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G45" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L45" s="4" t="str">
+        <f>IF(E45="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M36" s="3" t="str">
+      <c r="M45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N36" t="str">
-        <f t="shared" si="6"/>
+      <c r="N45" t="str">
+        <f>IF(LEN(A45)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G45&amp;"'&gt;"&amp;F45&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B45&amp;" "&amp;L45&amp;" "&amp;C45&amp;" ("&amp;D45&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M45&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="46" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C46" t="s">
         <v>109</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D46" t="s">
         <v>53</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E46" t="s">
         <v>21</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F46" t="s">
         <v>110</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J46" t="s">
         <v>111</v>
       </c>
-      <c r="L37" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L46" s="4" t="str">
+        <f>IF(E46="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M37" s="3" t="str">
+      <c r="M46" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N37" t="str">
-        <f t="shared" si="6"/>
+      <c r="N46" t="str">
+        <f>IF(LEN(A46)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G46&amp;"'&gt;"&amp;F46&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B46&amp;" "&amp;L46&amp;" "&amp;C46&amp;" ("&amp;D46&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M46&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="47" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C47" t="s">
         <v>60</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D47" t="s">
         <v>61</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F47" t="s">
         <v>115</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G47" t="s">
         <v>112</v>
       </c>
-      <c r="L38" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L47" s="4" t="str">
+        <f>IF(E47="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M38" s="3" t="str">
+      <c r="M47" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N38" t="str">
-        <f t="shared" si="6"/>
+      <c r="N47" t="str">
+        <f>IF(LEN(A47)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G47&amp;"'&gt;"&amp;F47&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B47&amp;" "&amp;L47&amp;" "&amp;C47&amp;" ("&amp;D47&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M47&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="48" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C48" t="s">
         <v>113</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D48" t="s">
         <v>114</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E48" t="s">
         <v>21</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F48" t="s">
         <v>116</v>
       </c>
-      <c r="L39" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="L48" s="4" t="str">
+        <f>IF(E48="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M39" s="3" t="str">
+      <c r="M48" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N39" t="str">
-        <f t="shared" si="6"/>
+      <c r="N48" t="str">
+        <f>IF(LEN(A48)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G48&amp;"'&gt;"&amp;F48&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B48&amp;" "&amp;L48&amp;" "&amp;C48&amp;" ("&amp;D48&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M48&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="49" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C49" t="s">
         <v>117</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D49" t="s">
         <v>118</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E49" t="s">
         <v>2</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F49" t="s">
         <v>119</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I49" t="s">
         <v>120</v>
       </c>
-      <c r="L40" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M40" s="3" t="str">
+      <c r="L49" s="4" t="str">
+        <f>IF(E49="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M49" s="3" t="str">
         <f t="shared" si="4"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N40" t="str">
-        <f t="shared" si="6"/>
+      <c r="N49" t="str">
+        <f>IF(LEN(A49)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G49&amp;"'&gt;"&amp;F49&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B49&amp;" "&amp;L49&amp;" "&amp;C49&amp;" ("&amp;D49&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M49&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L64" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
-    <hyperlink ref="I9" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
-    <hyperlink ref="I7" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
-    <hyperlink ref="H9" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
-    <hyperlink ref="I5" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
-    <hyperlink ref="I10" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
-    <hyperlink ref="I8" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
+    <hyperlink ref="G18" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
+    <hyperlink ref="I18" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
+    <hyperlink ref="I16" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
+    <hyperlink ref="I15" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
+    <hyperlink ref="H18" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
+    <hyperlink ref="I14" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
+    <hyperlink ref="I19" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
+    <hyperlink ref="I17" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
+    <hyperlink ref="H19" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
@@ -2506,88 +2855,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DED00E-46E1-48BC-B1F1-251D95106922}">
-  <dimension ref="A2:I48"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>IF(D2="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F2&amp;"'&gt;"&amp;E2&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B2&amp;" &lt;br&gt; "&amp;A2&amp;" "&amp;H2&amp;" "&amp;C2&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.gophercon.co.uk/schedule/'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;GopherCon  &lt;br&gt; 2018-08-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f>IF(D3="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F3&amp;"'&gt;"&amp;E3&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B3&amp;" &lt;br&gt; "&amp;A3&amp;" "&amp;H3&amp;" "&amp;C3&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://2018.fullstackfest.com/speakers/berndr%C3%Bccker'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;Full Stack Fest &lt;br&gt; 2018-09-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Barcelona&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ref="H4:H16" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I16" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://amsterdam2018.codemotionworld.com/talk-detail/?detail=7544'&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-05-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Amsterdam&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.herbstcampus.de/veranstaltung-6984-lost-in-transaction-%C3%9Cber-%28in-%29kosistenz-in-verteilten-systemen.html?id=6984'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen&lt;/a&gt;&lt;p&gt;Herbstcampus &lt;br&gt; 2018-09-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nurremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2595,55 +3001,55 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://craft-conf.com/'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;Craft-Conf &lt;br&gt; 2018-05-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Budapest&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JavaZone Noway &lt;br&gt; 2018-09-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Oslo&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>218</v>
+        <v>188</v>
+      </c>
+      <c r="F6" t="s">
+        <v>230</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jbcnconf.com/2018/infoSpeaker.html?ref=QmVybmRSdWVja2VyYmVybmQucnVlY2tlckBjYW11bmRhLmNvbQ=='&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JBCN Conf &lt;br&gt; 2018-06-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Barcelona&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://javaforumnord.de/site/2018/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;Java Forum Nord &lt;br&gt; 2018-09-13 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Hannover&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>217</v>
+        <v>203</v>
+      </c>
+      <c r="F7" t="s">
+        <v>202</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2651,18 +3057,18 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://entwicklertag.de/karlsruhe/2018/lost-transaction-ber'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Entwicklertag &lt;br&gt; 2018-06-21 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Karlsruhe&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/'&gt;Kommunikation zwischen Microservices&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -2671,7 +3077,7 @@
         <v>166</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2679,27 +3085,27 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/programm/#/talk/workflows-mit-bpmn-automatisieren-lessons-learned'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2707,165 +3113,161 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.developer-week.de/programm/#/talk/lost-in-transaction-uber-in-kosistenz-in-verteilten-systemen'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;Developer Week &lt;br&gt; 2018-06-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nuremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/nycjava/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;The New York City Java Meetup Group &lt;br&gt; 2018-06-26 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; New York&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://qconnewyork.com/ny2018/presentation/complex-event-flows-distributed-systems'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;QCon &lt;br&gt; 2018-06-28 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; New York&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems.&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>244</v>
+      </c>
+      <c r="F12" t="s">
+        <v>255</v>
+      </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;QCon &lt;br&gt; 2018-06-27 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; New York&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://baselone.ch/'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;BaselOne &lt;br&gt; 2018-10-19 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Basel&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/'&gt;Kommunikation zwischen Microservices&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://golab.io/'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;GoLab &lt;br&gt; 2018-10-23 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Florence&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://conferences.oreilly.com/software-architecture/sa-eu/public/schedule/detail/69841'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;O'Reilly Software Architecture &lt;br&gt; 2018-10-29 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2873,27 +3275,27 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>214</v>
+        <v>250</v>
+      </c>
+      <c r="F16" t="s">
+        <v>248</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2901,122 +3303,81 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.ittage.informatik-aktuell.de/'&gt;3 typische Stolperfallen bei der Microservice-Integration&lt;/a&gt;&lt;p&gt;IT Tage &lt;br&gt; 2018-12-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Frankfurt&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="4"/>
-    </row>
   </sheetData>
-  <sortState ref="A4:G9">
-    <sortCondition ref="A4:A9"/>
+  <sortState ref="A2:G37">
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{D5BB08EC-77FA-4C63-B367-DDD6BAFE2A89}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{C41C1E95-BB9A-459A-9124-471BE824E216}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{28AD5029-090C-46B0-ABE2-A7FB0B197E51}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{89DE3070-7D57-437F-BE86-164774E3AF22}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
-    <hyperlink ref="F16" r:id="rId6" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
-    <hyperlink ref="F15" r:id="rId7" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
-    <hyperlink ref="F8" r:id="rId8" location="/talk/workflows-mit-bpmn-automatisieren-lessons-learned" xr:uid="{16B16B5A-2EC0-44E7-BA7A-10B486B7758D}"/>
-    <hyperlink ref="F9" r:id="rId9" location="/talk/lost-in-transaction-uber-in-kosistenz-in-verteilten-systemen" xr:uid="{0DDA59BA-BF40-4F5A-9085-77D98FABF8AB}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
+    <hyperlink ref="F15" r:id="rId2" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{383666B0-59AE-4BA9-A651-F95B80736DB8}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{D190A9E7-2E20-464B-9800-FAA7582BB2EE}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{91A5D0C1-3F45-4DEF-8CFF-B3AE83406D0E}"/>
+    <hyperlink ref="F14" r:id="rId7" xr:uid="{5E35E5DA-073F-42C8-BD6E-5327AEB9126C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -3028,13 +3389,13 @@
       <selection activeCell="I4" sqref="I4:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" style="1"/>
-    <col min="8" max="8" width="10.85546875" style="3"/>
+    <col min="2" max="2" width="10.88671875" style="1"/>
+    <col min="8" max="8" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3057,28 +3418,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I4" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://thenewstack.io/5-workflow-automation-use-cases-you-might-not-have-considered/'&gt;5 Workflow Automation Use Cases You Might Not Have Considered&lt;/a&gt;&lt;p&gt;2018-04  TheNewStack&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>123</v>
       </c>
@@ -3103,7 +3464,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoworld.com/article/3254777/application-development/3-common-pitfalls-of-microservices-integrationand-how-to-avoid-them.html'&gt;3 common pitfalls of microservices integration—and how to avoid them&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoWorld&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>125</v>
       </c>
@@ -3128,7 +3489,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoq.com/articles/events-workflow-automation'&gt;Events, Flows and Long-Running Services: A Modern Approach to Workflow Automation&lt;/a&gt;&lt;p&gt;2017-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoQ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>131</v>
       </c>
@@ -3153,7 +3514,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoq.com/articles/microservice-event-choreographies'&gt;Know the Flow! Microservices and Event Choreographies&lt;/a&gt;&lt;p&gt;2017-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoQ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3181,7 +3542,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://entwickler.de/online/windowsdeveloper/workflows-bpmn-automatisieren-301118.html'&gt;Workflows mit BPMN effektiv automatisieren&lt;/a&gt;&lt;p&gt;2016-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Windows Developer&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -3209,7 +3570,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://network.camunda.org/whitepaper/45'&gt;BPM macht Spaß&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Aktuell&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3237,7 +3598,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.sigs-datacom.de/uploads/tx_dmjournals/ruecker_OS_05_16_TRBT.pdf'&gt;Decision Model and Notation: Digitalisierung von Entscheidungen mit DMN&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Objekt Spektrum&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3265,7 +3626,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://jaxenter.de/der-brueckenschlag-warum-dmn-den-business-rules-engines-markt-aufmischt-37252'&gt;Der Brückenschlag: Warum DMN den Business-Rules-Engines-Markt aufmischt&lt;/a&gt;&lt;p&gt;2016-04 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Business Technology&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -3290,7 +3651,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Quo Vadis BPM&lt;/a&gt;&lt;p&gt;2016-01 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Magazin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="4" t="str">
         <f t="shared" ref="H13:H49" si="2">IF(D13="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3300,7 +3661,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3310,7 +3671,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3320,7 +3681,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3330,7 +3691,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3340,7 +3701,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3350,7 +3711,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3360,7 +3721,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3370,7 +3731,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3380,7 +3741,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3390,7 +3751,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3400,7 +3761,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3410,7 +3771,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3420,7 +3781,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3430,7 +3791,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3440,7 +3801,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3450,7 +3811,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3460,7 +3821,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3470,7 +3831,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3480,7 +3841,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3490,7 +3851,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3500,7 +3861,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3510,7 +3871,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3520,7 +3881,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3530,7 +3891,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3540,7 +3901,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3550,7 +3911,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3560,7 +3921,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H40" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3570,7 +3931,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H41" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3580,7 +3941,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H42" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3590,7 +3951,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H43" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3600,7 +3961,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H44" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3610,7 +3971,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H45" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3620,7 +3981,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H46" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3630,7 +3991,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H47" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3640,7 +4001,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H48" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3650,7 +4011,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H49" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6301794C-1300-42DF-B7D5-931C58BE62FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB35C8A-25B0-442C-912A-D7D07B1F4F6E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="10548" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
@@ -874,7 +874,18 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1186,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01586060-4301-42D6-A296-5BF85ED0BBE5}">
   <dimension ref="A2:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2837,6 +2848,9 @@
       <c r="L64" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N4:N50">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G18" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
     <hyperlink ref="I18" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB35C8A-25B0-442C-912A-D7D07B1F4F6E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0AD72-6EE8-4CB5-9A45-46038D84BA34}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="10548" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="10548" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent talks" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="282">
   <si>
     <t>Jfokus</t>
   </si>
@@ -791,9 +791,6 @@
     <t>Basel</t>
   </si>
   <si>
-    <t>2018-10-19</t>
-  </si>
-  <si>
     <t>http://baselone.ch/</t>
   </si>
   <si>
@@ -810,6 +807,72 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>2018-09-28</t>
+  </si>
+  <si>
+    <t>Cloud Native</t>
+  </si>
+  <si>
+    <t>Coordinate cloud-native components using distributed state machines</t>
+  </si>
+  <si>
+    <t>https://skillsmatter.com/conferences/10160-cloudnative-london-2018#program</t>
+  </si>
+  <si>
+    <t>.NET Developer Conference</t>
+  </si>
+  <si>
+    <t>2018-11-28</t>
+  </si>
+  <si>
+    <t>3 common pitfalls in microservice integration</t>
+  </si>
+  <si>
+    <t>https://www.dotnet-developer-conference.de/programm/#/tag-3</t>
+  </si>
+  <si>
+    <t>2018-10-10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4g2drf_EjWk</t>
+  </si>
+  <si>
+    <t>https://www.ustream.tv/recorded/114862863</t>
+  </si>
+  <si>
+    <t>https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems</t>
+  </si>
+  <si>
+    <t>https://www.infoq.com/presentations/event-flow-distributed-systems</t>
+  </si>
+  <si>
+    <t>2018-10-18</t>
+  </si>
+  <si>
+    <t>2018-11-08</t>
+  </si>
+  <si>
+    <t>2018-11-27</t>
+  </si>
+  <si>
+    <t>JVMCon</t>
+  </si>
+  <si>
+    <t>3 common pitfalls of microservice integration</t>
+  </si>
+  <si>
+    <t>JUG Münster</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01586060-4301-42D6-A296-5BF85ED0BBE5}">
   <dimension ref="A2:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4:N49"/>
     </sheetView>
   </sheetViews>
@@ -1262,17 +1325,20 @@
       <c r="F4" t="s">
         <v>188</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="L4" s="4" t="str">
-        <f t="shared" ref="L4:L12" si="0">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="L4:L22" si="0">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M12" si="1">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v/>
+        <f t="shared" ref="M4:M22" si="1">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N12" si="2">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; The New York City Java Meetup Group (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" ref="N4:N22" si="2">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; The New York City Java Meetup Group (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1291,17 +1357,23 @@
       <c r="F5" t="s">
         <v>218</v>
       </c>
+      <c r="G5" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="L5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,17 +1392,20 @@
       <c r="F6" t="s">
         <v>188</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="L6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1378,17 +1453,20 @@
       <c r="F8" t="s">
         <v>166</v>
       </c>
+      <c r="G8" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="L8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Developer Week (Nuremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Developer Week (Nuremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1436,17 +1514,20 @@
       <c r="F10" t="s">
         <v>188</v>
       </c>
+      <c r="G10" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="L10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JBCN Conf (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JBCN Conf (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1494,17 +1575,23 @@
       <c r="F12" t="s">
         <v>181</v>
       </c>
+      <c r="G12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="L12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Craft-Conf (Budapest)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Craft-Conf (Budapest)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1527,15 +1614,15 @@
         <v>185</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f>IF(E13="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f t="shared" ref="M13" si="3">IF((LEN(G13)&gt;0),"&lt;a href='"&amp;G13&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H13)&gt;0),"&lt;a href='"&amp;H13&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I13)&gt;0),"&lt;a href='"&amp;I13&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J13)&gt;0),"&lt;a href='"&amp;J13&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N13" t="str">
-        <f>IF(LEN(A13)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G13&amp;"'&gt;"&amp;F13&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B13&amp;" "&amp;L13&amp;" "&amp;C13&amp;" ("&amp;D13&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M13&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Java With the Best (Online)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1558,22 +1645,22 @@
       <c r="G14" t="s">
         <v>194</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="5" t="s">
         <v>195</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>198</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f>IF(E14="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" ref="M14:M49" si="4">IF((LEN(G14)&gt;0),"&lt;a href='"&amp;G14&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H14)&gt;0),"&lt;a href='"&amp;H14&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I14)&gt;0),"&lt;a href='"&amp;I14&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J14)&gt;0),"&lt;a href='"&amp;J14&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N14" t="str">
-        <f>IF(LEN(A14)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G14&amp;"'&gt;"&amp;F14&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B14&amp;" "&amp;L14&amp;" "&amp;C14&amp;" ("&amp;D14&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M14&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1593,22 +1680,22 @@
       <c r="F15" t="s">
         <v>165</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="5" t="s">
         <v>196</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>186</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f>IF(E15="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N15" t="str">
-        <f>IF(LEN(A15)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G15&amp;"'&gt;"&amp;F15&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B15&amp;" "&amp;L15&amp;" "&amp;C15&amp;" ("&amp;D15&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M15&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1628,19 +1715,19 @@
       <c r="F16" t="s">
         <v>168</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="5" t="s">
         <v>193</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f>IF(E16="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N16" t="str">
-        <f>IF(LEN(A16)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G16&amp;"'&gt;"&amp;F16&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B16&amp;" "&amp;L16&amp;" "&amp;C16&amp;" ("&amp;D16&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M16&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1670,15 +1757,15 @@
         <v>199</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f>IF(E17="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N17" t="str">
-        <f>IF(LEN(A17)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G17&amp;"'&gt;"&amp;F17&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B17&amp;" "&amp;L17&amp;" "&amp;C17&amp;" ("&amp;D17&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M17&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1708,15 +1795,15 @@
         <v>186</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f>IF(E18="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N18" t="str">
-        <f>IF(LEN(A18)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G18&amp;"'&gt;"&amp;F18&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B18&amp;" "&amp;L18&amp;" "&amp;C18&amp;" ("&amp;D18&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M18&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1746,21 +1833,21 @@
         <v>199</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f>IF(E19="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N19" t="str">
-        <f>IF(LEN(A19)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G19&amp;"'&gt;"&amp;F19&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B19&amp;" "&amp;L19&amp;" "&amp;C19&amp;" ("&amp;D19&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M19&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>152</v>
@@ -1781,21 +1868,21 @@
         <v>18</v>
       </c>
       <c r="L20" s="4" t="str">
-        <f>IF(E20="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N20" t="str">
-        <f>IF(LEN(A20)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G20&amp;"'&gt;"&amp;F20&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B20&amp;" "&amp;L20&amp;" "&amp;C20&amp;" ("&amp;D20&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M20&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>153</v>
@@ -1816,21 +1903,21 @@
         <v>22</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f>IF(E21="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N21" t="str">
-        <f>IF(LEN(A21)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G21&amp;"'&gt;"&amp;F21&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B21&amp;" "&amp;L21&amp;" "&amp;C21&amp;" ("&amp;D21&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M21&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>153</v>
@@ -1851,15 +1938,15 @@
         <v>25</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f>IF(E22="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N22" t="str">
-        <f>IF(LEN(A22)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G22&amp;"'&gt;"&amp;F22&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B22&amp;" "&amp;L22&amp;" "&amp;C22&amp;" ("&amp;D22&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M22&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1886,15 +1973,15 @@
         <v>29</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f>IF(E23="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="L13:L49" si="3">IF(E23="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M14:M49" si="4">IF((LEN(G23)&gt;0),"&lt;a href='"&amp;G23&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H23)&gt;0),"&lt;a href='"&amp;H23&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I23)&gt;0),"&lt;a href='"&amp;I23&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J23)&gt;0),"&lt;a href='"&amp;J23&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N23" t="str">
-        <f>IF(LEN(A23)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G23&amp;"'&gt;"&amp;F23&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B23&amp;" "&amp;L23&amp;" "&amp;C23&amp;" ("&amp;D23&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M23&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="N13:N49" si="5">IF(LEN(A23)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G23&amp;"'&gt;"&amp;F23&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B23&amp;" "&amp;L23&amp;" "&amp;C23&amp;" ("&amp;D23&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M23&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1921,7 +2008,7 @@
         <v>34</v>
       </c>
       <c r="L24" s="4" t="str">
-        <f>IF(E24="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M24" s="3" t="str">
@@ -1929,7 +2016,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N24" t="str">
-        <f>IF(LEN(A24)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G24&amp;"'&gt;"&amp;F24&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B24&amp;" "&amp;L24&amp;" "&amp;C24&amp;" ("&amp;D24&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M24&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1959,7 +2046,7 @@
         <v>38</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f>IF(E25="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M25" s="3" t="str">
@@ -1967,7 +2054,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N25" t="str">
-        <f>IF(LEN(A25)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G25&amp;"'&gt;"&amp;F25&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B25&amp;" "&amp;L25&amp;" "&amp;C25&amp;" ("&amp;D25&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M25&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -1994,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f>IF(E26="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M26" s="3" t="str">
@@ -2002,7 +2089,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N26" t="str">
-        <f>IF(LEN(A26)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G26&amp;"'&gt;"&amp;F26&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B26&amp;" "&amp;L26&amp;" "&amp;C26&amp;" ("&amp;D26&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M26&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2028,17 +2115,20 @@
       <c r="G27" t="s">
         <v>45</v>
       </c>
+      <c r="H27" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="L27" s="4" t="str">
-        <f>IF(E27="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N27" t="str">
-        <f>IF(LEN(A27)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G27&amp;"'&gt;"&amp;F27&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B27&amp;" "&amp;L27&amp;" "&amp;C27&amp;" ("&amp;D27&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M27&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2064,7 +2154,7 @@
         <v>51</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f>IF(E28="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M28" s="3" t="str">
@@ -2072,7 +2162,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N28" t="str">
-        <f>IF(LEN(A28)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G28&amp;"'&gt;"&amp;F28&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B28&amp;" "&amp;L28&amp;" "&amp;C28&amp;" ("&amp;D28&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M28&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2096,7 +2186,7 @@
         <v>54</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f>IF(E29="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M29" s="3" t="str">
@@ -2104,7 +2194,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N29" t="str">
-        <f>IF(LEN(A29)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G29&amp;"'&gt;"&amp;F29&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B29&amp;" "&amp;L29&amp;" "&amp;C29&amp;" ("&amp;D29&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M29&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2128,7 +2218,7 @@
         <v>58</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f>IF(E30="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M30" s="3" t="str">
@@ -2136,7 +2226,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N30" t="str">
-        <f>IF(LEN(A30)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G30&amp;"'&gt;"&amp;F30&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B30&amp;" "&amp;L30&amp;" "&amp;C30&amp;" ("&amp;D30&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M30&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2163,7 +2253,7 @@
         <v>63</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f>IF(E31="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M31" s="3" t="str">
@@ -2171,7 +2261,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N31" t="str">
-        <f>IF(LEN(A31)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G31&amp;"'&gt;"&amp;F31&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B31&amp;" "&amp;L31&amp;" "&amp;C31&amp;" ("&amp;D31&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M31&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2198,7 +2288,7 @@
         <v>65</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f>IF(E32="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M32" s="3" t="str">
@@ -2206,7 +2296,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N32" t="str">
-        <f>IF(LEN(A32)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G32&amp;"'&gt;"&amp;F32&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B32&amp;" "&amp;L32&amp;" "&amp;C32&amp;" ("&amp;D32&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M32&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2233,7 +2323,7 @@
         <v>67</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f>IF(E33="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M33" s="3" t="str">
@@ -2241,7 +2331,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N33" t="str">
-        <f>IF(LEN(A33)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G33&amp;"'&gt;"&amp;F33&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B33&amp;" "&amp;L33&amp;" "&amp;C33&amp;" ("&amp;D33&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M33&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2268,7 +2358,7 @@
         <v>71</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f>IF(E34="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M34" s="3" t="str">
@@ -2276,7 +2366,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N34" t="str">
-        <f>IF(LEN(A34)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G34&amp;"'&gt;"&amp;F34&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B34&amp;" "&amp;L34&amp;" "&amp;C34&amp;" ("&amp;D34&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M34&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2303,7 +2393,7 @@
         <v>74</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f>IF(E35="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M35" s="3" t="str">
@@ -2311,7 +2401,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N35" t="str">
-        <f>IF(LEN(A35)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G35&amp;"'&gt;"&amp;F35&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B35&amp;" "&amp;L35&amp;" "&amp;C35&amp;" ("&amp;D35&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M35&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2338,7 +2428,7 @@
         <v>79</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f>IF(E36="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M36" s="3" t="str">
@@ -2346,7 +2436,7 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N36" t="str">
-        <f>IF(LEN(A36)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G36&amp;"'&gt;"&amp;F36&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B36&amp;" "&amp;L36&amp;" "&amp;C36&amp;" ("&amp;D36&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M36&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2376,7 +2466,7 @@
         <v>84</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f>IF(E37="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M37" s="3" t="str">
@@ -2384,7 +2474,7 @@
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N37" t="str">
-        <f>IF(LEN(A37)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G37&amp;"'&gt;"&amp;F37&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B37&amp;" "&amp;L37&amp;" "&amp;C37&amp;" ("&amp;D37&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M37&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2411,7 +2501,7 @@
         <v>86</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f>IF(E38="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M38" s="3" t="str">
@@ -2419,7 +2509,7 @@
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N38" t="str">
-        <f>IF(LEN(A38)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G38&amp;"'&gt;"&amp;F38&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B38&amp;" "&amp;L38&amp;" "&amp;C38&amp;" ("&amp;D38&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M38&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2446,7 +2536,7 @@
         <v>89</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f>IF(E39="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M39" s="3" t="str">
@@ -2454,7 +2544,7 @@
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N39" t="str">
-        <f>IF(LEN(A39)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G39&amp;"'&gt;"&amp;F39&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B39&amp;" "&amp;L39&amp;" "&amp;C39&amp;" ("&amp;D39&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M39&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2481,7 +2571,7 @@
         <v>92</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f>IF(E40="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M40" s="3" t="str">
@@ -2489,7 +2579,7 @@
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N40" t="str">
-        <f>IF(LEN(A40)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G40&amp;"'&gt;"&amp;F40&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B40&amp;" "&amp;L40&amp;" "&amp;C40&amp;" ("&amp;D40&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M40&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2519,7 +2609,7 @@
         <v>101</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f>IF(E41="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M41" s="3" t="str">
@@ -2527,7 +2617,7 @@
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N41" t="str">
-        <f>IF(LEN(A41)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G41&amp;"'&gt;"&amp;F41&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B41&amp;" "&amp;L41&amp;" "&amp;C41&amp;" ("&amp;D41&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M41&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2551,7 +2641,7 @@
         <v>102</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f>IF(E42="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M42" s="3" t="str">
@@ -2559,7 +2649,7 @@
         <v/>
       </c>
       <c r="N42" t="str">
-        <f>IF(LEN(A42)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G42&amp;"'&gt;"&amp;F42&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B42&amp;" "&amp;L42&amp;" "&amp;C42&amp;" ("&amp;D42&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M42&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2583,7 +2673,7 @@
         <v>105</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f>IF(E43="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M43" s="3" t="str">
@@ -2591,7 +2681,7 @@
         <v/>
       </c>
       <c r="N43" t="str">
-        <f>IF(LEN(A43)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G43&amp;"'&gt;"&amp;F43&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B43&amp;" "&amp;L43&amp;" "&amp;C43&amp;" ("&amp;D43&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M43&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2618,7 +2708,7 @@
         <v>104</v>
       </c>
       <c r="L44" s="4" t="str">
-        <f>IF(E44="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M44" s="3" t="str">
@@ -2626,7 +2716,7 @@
         <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N44" t="str">
-        <f>IF(LEN(A44)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G44&amp;"'&gt;"&amp;F44&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B44&amp;" "&amp;L44&amp;" "&amp;C44&amp;" ("&amp;D44&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M44&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2653,7 +2743,7 @@
         <v>107</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f>IF(E45="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M45" s="3" t="str">
@@ -2661,7 +2751,7 @@
         <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N45" t="str">
-        <f>IF(LEN(A45)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G45&amp;"'&gt;"&amp;F45&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B45&amp;" "&amp;L45&amp;" "&amp;C45&amp;" ("&amp;D45&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M45&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2688,7 +2778,7 @@
         <v>111</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f>IF(E46="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M46" s="3" t="str">
@@ -2696,7 +2786,7 @@
         <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N46" t="str">
-        <f>IF(LEN(A46)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G46&amp;"'&gt;"&amp;F46&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B46&amp;" "&amp;L46&amp;" "&amp;C46&amp;" ("&amp;D46&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M46&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2723,7 +2813,7 @@
         <v>112</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f>IF(E47="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M47" s="3" t="str">
@@ -2731,7 +2821,7 @@
         <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N47" t="str">
-        <f>IF(LEN(A47)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G47&amp;"'&gt;"&amp;F47&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B47&amp;" "&amp;L47&amp;" "&amp;C47&amp;" ("&amp;D47&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M47&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2755,7 +2845,7 @@
         <v>116</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f>IF(E48="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M48" s="3" t="str">
@@ -2763,7 +2853,7 @@
         <v/>
       </c>
       <c r="N48" t="str">
-        <f>IF(LEN(A48)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G48&amp;"'&gt;"&amp;F48&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B48&amp;" "&amp;L48&amp;" "&amp;C48&amp;" ("&amp;D48&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M48&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2790,7 +2880,7 @@
         <v>120</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f>IF(E49="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M49" s="3" t="str">
@@ -2798,7 +2888,7 @@
         <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N49" t="str">
-        <f>IF(LEN(A49)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G49&amp;"'&gt;"&amp;F49&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B49&amp;" "&amp;L49&amp;" "&amp;C49&amp;" ("&amp;D49&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M49&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2861,19 +2951,32 @@
     <hyperlink ref="I19" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
     <hyperlink ref="I17" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
     <hyperlink ref="H19" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
+    <hyperlink ref="H17" r:id="rId10" xr:uid="{6BCCE56F-2EA1-4DC2-80C1-886F59732629}"/>
+    <hyperlink ref="H27" r:id="rId11" xr:uid="{947EE223-8994-433F-8A35-6D220242B528}"/>
+    <hyperlink ref="H12" r:id="rId12" xr:uid="{2ED97438-F28D-43BF-97F2-B5B6C18CF0E0}"/>
+    <hyperlink ref="G12" r:id="rId13" xr:uid="{5253A7E2-08B0-4D8B-BB8F-681799847B0A}"/>
+    <hyperlink ref="G4" r:id="rId14" xr:uid="{D15A062B-FA03-4938-B671-B5AEBBC0EBDA}"/>
+    <hyperlink ref="G6" r:id="rId15" xr:uid="{6A995991-E383-4A40-8480-8B3527DA23A3}"/>
+    <hyperlink ref="G10" r:id="rId16" xr:uid="{A3DEC8F9-95D4-4CE1-8986-625B4C73C31B}"/>
+    <hyperlink ref="H16" r:id="rId17" xr:uid="{143E5BE5-0127-4F74-B302-B26E9D7D4C9A}"/>
+    <hyperlink ref="H15" r:id="rId18" xr:uid="{46ECF8FD-E706-4833-9288-B314D012A7B9}"/>
+    <hyperlink ref="H14" r:id="rId19" xr:uid="{3EFDC7D3-428C-4A16-8A95-F53382D74802}"/>
+    <hyperlink ref="H5" r:id="rId20" xr:uid="{F1FF04B9-6EC3-472C-B60B-BAD3DF9C4CCC}"/>
+    <hyperlink ref="G8" r:id="rId21" xr:uid="{C5E42E95-BE4C-4304-930E-C240A62CA0F4}"/>
+    <hyperlink ref="G5" r:id="rId22" xr:uid="{047246D3-2F75-4E4C-8A81-ED485E0EC1C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DED00E-46E1-48BC-B1F1-251D95106922}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2954,11 +3057,11 @@
         <v>245</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f>IF(D3="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="H3:H21" si="0">IF(D3="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I3" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F3&amp;"'&gt;"&amp;E3&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B3&amp;" &lt;br&gt; "&amp;A3&amp;" "&amp;H3&amp;" "&amp;C3&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="I3:I21" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F3&amp;"'&gt;"&amp;E3&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B3&amp;" &lt;br&gt; "&amp;A3&amp;" "&amp;H3&amp;" "&amp;C3&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://2018.fullstackfest.com/speakers/berndr%C3%Bccker'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;Full Stack Fest &lt;br&gt; 2018-09-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Barcelona&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -2982,11 +3085,11 @@
         <v>240</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f t="shared" ref="H4:H16" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I16" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.herbstcampus.de/veranstaltung-6984-lost-in-transaction-%C3%9Cber-%28in-%29kosistenz-in-verteilten-systemen.html?id=6984'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen&lt;/a&gt;&lt;p&gt;Herbstcampus &lt;br&gt; 2018-09-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nurremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
@@ -3132,44 +3235,47 @@
     </row>
     <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>262</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://skillsmatter.com/conferences/10160-cloudnative-london-2018#program'&gt;Coordinate cloud-native components using distributed state machines&lt;/a&gt;&lt;p&gt;Cloud Native &lt;br&gt; 2018-09-28 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3177,55 +3283,49 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems.&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://baselone.ch/'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;BaselOne &lt;br&gt; 2018-10-19 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Basel&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems.&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3233,27 +3333,27 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://golab.io/'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;GoLab &lt;br&gt; 2018-10-23 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Florence&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JAX &lt;br&gt; 2018-10-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="F14" t="s">
+        <v>254</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3261,111 +3361,232 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://conferences.oreilly.com/software-architecture/sa-eu/public/schedule/detail/69841'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;O'Reilly Software Architecture &lt;br&gt; 2018-10-29 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://baselone.ch/'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;BaselOne &lt;br&gt; 2018-10-18 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Basel&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>207</v>
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>225</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://golab.io/'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;GoLab &lt;br&gt; 2018-10-23 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Florence&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>250</v>
-      </c>
-      <c r="F16" t="s">
-        <v>248</v>
+        <v>188</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://conferences.oreilly.com/software-architecture/sa-eu/public/schedule/detail/69841'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;O'Reilly Software Architecture &lt;br&gt; 2018-10-29 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;WJAX &lt;br&gt; 2018-11-08 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Munic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration&lt;/a&gt;&lt;p&gt;JVMCon &lt;br&gt; 2018-11-27 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.dotnet-developer-conference.de/programm/#/tag-3'&gt;3 common pitfalls in microservice integration&lt;/a&gt;&lt;p&gt;.NET Developer Conference &lt;br&gt; 2018-11-28 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG Münster &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.ittage.informatik-aktuell.de/'&gt;3 typische Stolperfallen bei der Microservice-Integration&lt;/a&gt;&lt;p&gt;IT Tage &lt;br&gt; 2018-12-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Frankfurt&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="17" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3377,21 +3598,34 @@
     <row r="35" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H35" s="4"/>
     </row>
+    <row r="36" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:G37">
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A2:G41">
+    <sortCondition ref="A2:A41"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
-    <hyperlink ref="F15" r:id="rId2" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
     <hyperlink ref="F9" r:id="rId3" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{383666B0-59AE-4BA9-A651-F95B80736DB8}"/>
     <hyperlink ref="F4" r:id="rId5" xr:uid="{D190A9E7-2E20-464B-9800-FAA7582BB2EE}"/>
     <hyperlink ref="F3" r:id="rId6" xr:uid="{91A5D0C1-3F45-4DEF-8CFF-B3AE83406D0E}"/>
-    <hyperlink ref="F14" r:id="rId7" xr:uid="{5E35E5DA-073F-42C8-BD6E-5327AEB9126C}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{5E35E5DA-073F-42C8-BD6E-5327AEB9126C}"/>
+    <hyperlink ref="F10" r:id="rId8" location="program" xr:uid="{3A76840C-F48E-4331-B660-054B25B4C133}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0AD72-6EE8-4CB5-9A45-46038D84BA34}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE6D94-ED7A-4CCE-B193-E0FFC81F0EF4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="10548" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10550" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent talks" sheetId="1" r:id="rId1"/>
     <sheet name="Upcoming talks" sheetId="2" r:id="rId2"/>
     <sheet name="Articles" sheetId="3" r:id="rId3"/>
+    <sheet name="Stats" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="311">
   <si>
     <t>Jfokus</t>
   </si>
@@ -689,12 +695,6 @@
     <t xml:space="preserve">GopherCon </t>
   </si>
   <si>
-    <t>2018-08-02</t>
-  </si>
-  <si>
-    <t>https://www.gophercon.co.uk/schedule/</t>
-  </si>
-  <si>
     <t>2018-10-23</t>
   </si>
   <si>
@@ -740,33 +740,21 @@
     <t>https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441</t>
   </si>
   <si>
-    <t>2018-09-05</t>
-  </si>
-  <si>
     <t>Herbstcampus</t>
   </si>
   <si>
     <t>Nurremberg</t>
   </si>
   <si>
-    <t>https://www.herbstcampus.de/veranstaltung-6984-lost-in-transaction-%C3%9Cber-%28in-%29kosistenz-in-verteilten-systemen.html?id=6984</t>
-  </si>
-  <si>
     <t>Lost in transaction? Über (In-)Kosistenz in verteilten Systemen</t>
   </si>
   <si>
     <t>Full Stack Fest</t>
   </si>
   <si>
-    <t>2018-09-04</t>
-  </si>
-  <si>
     <t>Lost in transaction? Strategies to deal with (in-)consistency in distributed systems</t>
   </si>
   <si>
-    <t>https://2018.fullstackfest.com/speakers/berndr%C3%Bccker</t>
-  </si>
-  <si>
     <t>2018-10-29</t>
   </si>
   <si>
@@ -785,15 +773,6 @@
     <t>2018-12-10</t>
   </si>
   <si>
-    <t>BaselOne</t>
-  </si>
-  <si>
-    <t>Basel</t>
-  </si>
-  <si>
-    <t>http://baselone.ch/</t>
-  </si>
-  <si>
     <t>Dusseldorf</t>
   </si>
   <si>
@@ -848,18 +827,12 @@
     <t>https://www.infoq.com/presentations/event-flow-distributed-systems</t>
   </si>
   <si>
-    <t>2018-10-18</t>
-  </si>
-  <si>
     <t>2018-11-08</t>
   </si>
   <si>
     <t>2018-11-27</t>
   </si>
   <si>
-    <t>JVMCon</t>
-  </si>
-  <si>
     <t>3 common pitfalls of microservice integration</t>
   </si>
   <si>
@@ -873,6 +846,126 @@
   </si>
   <si>
     <t>https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems</t>
+  </si>
+  <si>
+    <t>2018-10-16</t>
+  </si>
+  <si>
+    <t>Kafka Summit</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Big Picture: Monitoring and Orchestration of Your Microservices Landscape with Kafka and Zeebe </t>
+  </si>
+  <si>
+    <t>2018-11-20</t>
+  </si>
+  <si>
+    <t>2018-11-21</t>
+  </si>
+  <si>
+    <t>DOAG</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?list=PLRsbF2sD7JVrSMm9aK4juBQz9AyU_rakc&amp;v=8KgTB75VePo</t>
+  </si>
+  <si>
+    <t>Accepted talks</t>
+  </si>
+  <si>
+    <t>Sponsored talks</t>
+  </si>
+  <si>
+    <t>Meetups</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Complex event flows vs. Distributed tx</t>
+  </si>
+  <si>
+    <t>2018-09-26</t>
+  </si>
+  <si>
+    <t>DevConf</t>
+  </si>
+  <si>
+    <t>http://devconf.pl/#schedule2_day2_auditorium1_time3</t>
+  </si>
+  <si>
+    <t>2018-12-06</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>Zeebe</t>
+  </si>
+  <si>
+    <t>Lost in transaction?</t>
+  </si>
+  <si>
+    <t>Accepted, but turned down</t>
+  </si>
+  <si>
+    <t>https://www.meetup.com/Domain-Driven-Design-Ruhrgebiet/events/253263745/</t>
+  </si>
+  <si>
+    <t>Live Coding around Process Managers, Sagas and Orchestration</t>
+  </si>
+  <si>
+    <t>https://kafka-summit.org/sessions/monitoring-orchestration-microservices-landscape/</t>
+  </si>
+  <si>
+    <t>https://www.meetup.com/Microservices-Meetup-Munich/events/253329558/</t>
+  </si>
+  <si>
+    <t>2018-10-04</t>
+  </si>
+  <si>
+    <t>Microservices Meetup</t>
+  </si>
+  <si>
+    <t>Double Feature: Events and long running services</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NBo7d5AG-3s</t>
+  </si>
+  <si>
+    <t>https://github.com/flowing/flowing-retail/tree/master/rest/go</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/</t>
+  </si>
+  <si>
+    <t>https://github.com/flowing/flowing-retail</t>
+  </si>
+  <si>
+    <t>IT for insurances</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>https://www.versicherungsforen.net/portal/de/messekongresse/it/index.xhtml</t>
+  </si>
+  <si>
+    <t>Ein Kessel Buntes – BPM(N) Anwendungsszenarien bei der Allianz</t>
   </si>
 </sst>
 </file>
@@ -959,6 +1052,1952 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Acceptance at conferences 2018</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F947-49C4-BF1E-B6E5C667B856}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F947-49C4-BF1E-B6E5C667B856}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F947-49C4-BF1E-B6E5C667B856}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F947-49C4-BF1E-B6E5C667B856}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F947-49C4-BF1E-B6E5C667B856}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-059B-4234-A4B0-C1D4FC8E3E76}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-059B-4234-A4B0-C1D4FC8E3E76}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accepted talks</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sponsored talks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Meetups</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Accepted, but turned down</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rejected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-059B-4234-A4B0-C1D4FC8E3E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Talks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7768-41AF-B117-8C1F9AD5DD8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7768-41AF-B117-8C1F9AD5DD8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7768-41AF-B117-8C1F9AD5DD8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7768-41AF-B117-8C1F9AD5DD8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7768-41AF-B117-8C1F9AD5DD8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7768-41AF-B117-8C1F9AD5DD8D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stats!$A$19:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3 common pitfalls in microservice integration</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Complex event flows vs. Distributed tx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lost in transaction?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Orchestration of Microservices</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Zeebe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stats!$B$19:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B92-4695-9C9E-D38D5497348A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1B2C8C-E5A1-4D80-9EA5-68DD10C11432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFD9EB9-28CD-4DBD-BB28-876CF9292BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1258,20 +3297,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01586060-4301-42D6-A296-5BF85ED0BBE5}">
-  <dimension ref="A2:N64"/>
+  <dimension ref="A2:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N49"/>
+      <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" style="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="12" max="13" width="10.88671875" style="3"/>
+    <col min="2" max="2" width="10.81640625" style="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="12" max="13" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1309,1351 +3348,1356 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="4"/>
+      <c r="M3" s="3" t="str">
+        <f t="shared" ref="M3:M6" si="0">IF((LEN(G3)&gt;0),"&lt;a href='"&amp;G3&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H3)&gt;0),"&lt;a href='"&amp;H3&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I3)&gt;0),"&lt;a href='"&amp;I3&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J3)&gt;0),"&lt;a href='"&amp;J3&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>279</v>
+        <v>305</v>
+      </c>
+      <c r="I4" t="s">
+        <v>306</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f t="shared" ref="L4:L22" si="0">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="L3:L6" si="1">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M22" si="1">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" ref="N4:N22" si="2">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; The New York City Java Meetup Group (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>272</v>
+        <v>305</v>
+      </c>
+      <c r="I5" t="s">
+        <v>306</v>
       </c>
       <c r="L5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=NBo7d5AG-3s' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/go' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6" si="2">IF(LEN(A6)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G6&amp;"'&gt;"&amp;F6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" "&amp;L6&amp;" "&amp;C6&amp;" ("&amp;D6&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M6&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2018-08 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; GopherCon  (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=NBo7d5AG-3s' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/go' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
         <v>188</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M6" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="G7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f t="shared" ref="L7" si="3">IF(E7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f t="shared" ref="M7" si="4">IF((LEN(G7)&gt;0),"&lt;a href='"&amp;G7&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H7)&gt;0),"&lt;a href='"&amp;H7&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I7)&gt;0),"&lt;a href='"&amp;I7&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J7)&gt;0),"&lt;a href='"&amp;J7&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="N7" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Entwicklertag (Karlsruhe)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N7" si="5">IF(LEN(A7)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G7&amp;"'&gt;"&amp;F7&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B7&amp;" "&amp;L7&amp;" "&amp;C7&amp;" ("&amp;D7&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M7&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; The New York City Java Meetup Group (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>280</v>
+        <v>270</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" ref="L8:L52" si="6">IF(E8="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" ref="M8:M52" si="7">IF((LEN(G8)&gt;0),"&lt;a href='"&amp;G8&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H8)&gt;0),"&lt;a href='"&amp;H8&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I8)&gt;0),"&lt;a href='"&amp;I8&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J8)&gt;0),"&lt;a href='"&amp;J8&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Developer Week (Nuremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N8:N52" si="8">IF(LEN(A8)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G8&amp;"'&gt;"&amp;F8&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B8&amp;" "&amp;L8&amp;" "&amp;C8&amp;" ("&amp;D8&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M8&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>188</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in modern architectures.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx Poland (Krakow)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="N10" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Entwicklertag (Karlsruhe)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Developer Week (Nuremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
         <v>226</v>
-      </c>
-      <c r="C10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JBCN Conf (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Codemotion (Amsterdam)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" t="s">
-        <v>180</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.youtube.com/watch?list=PLRsbF2sD7JVrSMm9aK4juBQz9AyU_rakc&amp;v=8KgTB75VePo' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Craft-Conf (Budapest)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in modern architectures.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx Poland (Krakow)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?list=PLRsbF2sD7JVrSMm9aK4juBQz9AyU_rakc&amp;v=8KgTB75VePo' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Java With the Best (Online)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JBCN Conf (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Codemotion (Amsterdam)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>181</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Craft-Conf (Budapest)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Java With the Best (Online)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>194</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>186</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>123</v>
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>259</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
+        <v>175</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="L20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>259</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>153</v>
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f t="shared" ref="L13:L49" si="3">IF(E23="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f t="shared" ref="M14:M49" si="4">IF((LEN(G23)&gt;0),"&lt;a href='"&amp;G23&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H23)&gt;0),"&lt;a href='"&amp;H23&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I23)&gt;0),"&lt;a href='"&amp;I23&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J23)&gt;0),"&lt;a href='"&amp;J23&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" ref="N13:N49" si="5">IF(LEN(A23)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G23&amp;"'&gt;"&amp;F23&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B23&amp;" "&amp;L23&amp;" "&amp;C23&amp;" ("&amp;D23&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M23&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>250</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="L24" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M24" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M25" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M25" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M26" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>269</v>
+        <v>33</v>
+      </c>
+      <c r="H27" t="s">
+        <v>34</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
+        <v>38</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M30" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M31" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M32" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M33" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>60</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D34" t="s">
         <v>61</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E34" t="s">
         <v>21</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F34" t="s">
         <v>62</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G34" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="L34" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M31" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="M34" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N31" t="str">
-        <f t="shared" si="5"/>
+      <c r="N34" t="str">
+        <f t="shared" si="8"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" t="s">
-        <v>65</v>
-      </c>
-      <c r="L32" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M32" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M33" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" t="s">
-        <v>71</v>
-      </c>
-      <c r="L34" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M34" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M35" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M36" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L36" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M36" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
-      </c>
-      <c r="J37" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>71</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M37" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M38" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M39" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="J40" t="s">
+        <v>84</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M40" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M41" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>88</v>
+      </c>
+      <c r="G42" t="s">
+        <v>89</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M42" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -2661,332 +4705,444 @@
         <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M43" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
-      </c>
-      <c r="J44" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="G44" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" t="s">
+        <v>101</v>
       </c>
       <c r="L44" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M44" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M45" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
-      </c>
-      <c r="J46" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M46" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>115</v>
-      </c>
-      <c r="G47" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="J47" t="s">
+        <v>104</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M47" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="G48" t="s">
+        <v>107</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M48" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" t="s">
+        <v>111</v>
+      </c>
+      <c r="L49" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M49" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" t="s">
+        <v>112</v>
+      </c>
+      <c r="L50" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M50" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>116</v>
+      </c>
+      <c r="L51" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M51" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>117</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>118</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E52" t="s">
         <v>2</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F52" t="s">
         <v>119</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I52" t="s">
         <v>120</v>
       </c>
-      <c r="L49" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M49" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="L52" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M52" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N49" t="str">
-        <f t="shared" si="5"/>
+      <c r="N52" t="str">
+        <f t="shared" si="8"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L64" s="4"/>
     </row>
+    <row r="65" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L67" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N4:N50">
+  <conditionalFormatting sqref="N6:N53">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G18" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
-    <hyperlink ref="I18" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
-    <hyperlink ref="I16" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
-    <hyperlink ref="I15" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
-    <hyperlink ref="H18" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
-    <hyperlink ref="I14" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
-    <hyperlink ref="I19" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
-    <hyperlink ref="I17" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
-    <hyperlink ref="H19" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
-    <hyperlink ref="H17" r:id="rId10" xr:uid="{6BCCE56F-2EA1-4DC2-80C1-886F59732629}"/>
-    <hyperlink ref="H27" r:id="rId11" xr:uid="{947EE223-8994-433F-8A35-6D220242B528}"/>
-    <hyperlink ref="H12" r:id="rId12" xr:uid="{2ED97438-F28D-43BF-97F2-B5B6C18CF0E0}"/>
-    <hyperlink ref="G12" r:id="rId13" xr:uid="{5253A7E2-08B0-4D8B-BB8F-681799847B0A}"/>
-    <hyperlink ref="G4" r:id="rId14" xr:uid="{D15A062B-FA03-4938-B671-B5AEBBC0EBDA}"/>
-    <hyperlink ref="G6" r:id="rId15" xr:uid="{6A995991-E383-4A40-8480-8B3527DA23A3}"/>
-    <hyperlink ref="G10" r:id="rId16" xr:uid="{A3DEC8F9-95D4-4CE1-8986-625B4C73C31B}"/>
-    <hyperlink ref="H16" r:id="rId17" xr:uid="{143E5BE5-0127-4F74-B302-B26E9D7D4C9A}"/>
-    <hyperlink ref="H15" r:id="rId18" xr:uid="{46ECF8FD-E706-4833-9288-B314D012A7B9}"/>
-    <hyperlink ref="H14" r:id="rId19" xr:uid="{3EFDC7D3-428C-4A16-8A95-F53382D74802}"/>
-    <hyperlink ref="H5" r:id="rId20" xr:uid="{F1FF04B9-6EC3-472C-B60B-BAD3DF9C4CCC}"/>
-    <hyperlink ref="G8" r:id="rId21" xr:uid="{C5E42E95-BE4C-4304-930E-C240A62CA0F4}"/>
-    <hyperlink ref="G5" r:id="rId22" xr:uid="{047246D3-2F75-4E4C-8A81-ED485E0EC1C9}"/>
+    <hyperlink ref="G21" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
+    <hyperlink ref="I21" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
+    <hyperlink ref="I19" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
+    <hyperlink ref="I18" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
+    <hyperlink ref="H21" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
+    <hyperlink ref="I17" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
+    <hyperlink ref="I22" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
+    <hyperlink ref="I20" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
+    <hyperlink ref="H22" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
+    <hyperlink ref="H20" r:id="rId10" xr:uid="{6BCCE56F-2EA1-4DC2-80C1-886F59732629}"/>
+    <hyperlink ref="H30" r:id="rId11" xr:uid="{947EE223-8994-433F-8A35-6D220242B528}"/>
+    <hyperlink ref="H15" r:id="rId12" xr:uid="{2ED97438-F28D-43BF-97F2-B5B6C18CF0E0}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{5253A7E2-08B0-4D8B-BB8F-681799847B0A}"/>
+    <hyperlink ref="G7" r:id="rId14" xr:uid="{D15A062B-FA03-4938-B671-B5AEBBC0EBDA}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{6A995991-E383-4A40-8480-8B3527DA23A3}"/>
+    <hyperlink ref="G13" r:id="rId16" xr:uid="{A3DEC8F9-95D4-4CE1-8986-625B4C73C31B}"/>
+    <hyperlink ref="H19" r:id="rId17" xr:uid="{143E5BE5-0127-4F74-B302-B26E9D7D4C9A}"/>
+    <hyperlink ref="H18" r:id="rId18" xr:uid="{46ECF8FD-E706-4833-9288-B314D012A7B9}"/>
+    <hyperlink ref="H17" r:id="rId19" xr:uid="{3EFDC7D3-428C-4A16-8A95-F53382D74802}"/>
+    <hyperlink ref="H8" r:id="rId20" xr:uid="{F1FF04B9-6EC3-472C-B60B-BAD3DF9C4CCC}"/>
+    <hyperlink ref="G11" r:id="rId21" xr:uid="{C5E42E95-BE4C-4304-930E-C240A62CA0F4}"/>
+    <hyperlink ref="G8" r:id="rId22" xr:uid="{047246D3-2F75-4E4C-8A81-ED485E0EC1C9}"/>
+    <hyperlink ref="H12" r:id="rId23" xr:uid="{0FAE76CB-E33A-4873-99FE-E22F03878B7C}"/>
+    <hyperlink ref="H6" r:id="rId24" xr:uid="{2DD7DC49-5627-4845-A9D4-CDB5409ADB49}"/>
+    <hyperlink ref="I6" r:id="rId25" xr:uid="{1E1B121D-8E8F-449D-B72E-3E72215FD2B5}"/>
+    <hyperlink ref="G5" r:id="rId26" xr:uid="{D190A9E7-2E20-464B-9800-FAA7582BB2EE}"/>
+    <hyperlink ref="G4" r:id="rId27" xr:uid="{91A5D0C1-3F45-4DEF-8CFF-B3AE83406D0E}"/>
+    <hyperlink ref="I4" r:id="rId28" xr:uid="{214CD628-CF7B-4310-B02B-84431318278A}"/>
+    <hyperlink ref="I5" r:id="rId29" xr:uid="{C901C06E-BCE4-4F8C-AD4C-7ED2D65AA18F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DED00E-46E1-48BC-B1F1-251D95106922}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="3"/>
+    <col min="1" max="1" width="10.81640625" style="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3009,24 +5165,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
+        <v>188</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="H2" s="4" t="str">
         <f>IF(D2="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -3034,248 +5190,245 @@
       </c>
       <c r="I2" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F2&amp;"'&gt;"&amp;E2&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B2&amp;" &lt;br&gt; "&amp;A2&amp;" "&amp;H2&amp;" "&amp;C2&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.gophercon.co.uk/schedule/'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;GopherCon  &lt;br&gt; 2018-08-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JavaZone Noway &lt;br&gt; 2018-09-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Oslo&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H21" si="0">IF(D3="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f>IF(D3="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F3&amp;"'&gt;"&amp;E3&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B3&amp;" &lt;br&gt; "&amp;A3&amp;" "&amp;H3&amp;" "&amp;C3&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://2018.fullstackfest.com/speakers/berndr%C3%Bccker'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;Full Stack Fest &lt;br&gt; 2018-09-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Barcelona&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F3&amp;"'&gt;"&amp;E3&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B3&amp;" &lt;br&gt; "&amp;A3&amp;" "&amp;H3&amp;" "&amp;C3&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://javaforumnord.de/site/2018/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;Java Forum Nord &lt;br&gt; 2018-09-13 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Hannover&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="H4" s="4" t="str">
+        <f>IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/'&gt;Kommunikation zwischen Microservices&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f>IF(D5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F5&amp;"'&gt;"&amp;E5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" &lt;br&gt; "&amp;A5&amp;" "&amp;H5&amp;" "&amp;C5&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f>IF(D6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F6&amp;"'&gt;"&amp;E6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" &lt;br&gt; "&amp;A6&amp;" "&amp;H6&amp;" "&amp;C6&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f>IF(D7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I7" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F7&amp;"'&gt;"&amp;E7&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B7&amp;" &lt;br&gt; "&amp;A7&amp;" "&amp;H7&amp;" "&amp;C7&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://skillsmatter.com/conferences/10160-cloudnative-london-2018#program'&gt;Coordinate cloud-native components using distributed state machines&lt;/a&gt;&lt;p&gt;Cloud Native &lt;br&gt; 2018-09-26 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" ref="H8:H11" si="0">IF(D8="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F8&amp;"'&gt;"&amp;E8&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B8&amp;" &lt;br&gt; "&amp;A8&amp;" "&amp;H8&amp;" "&amp;C8&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://devconf.pl/#schedule2_day2_auditorium1_time3'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;DevConf &lt;br&gt; 2018-09-28 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Krakow&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Microservices-Meetup-Munich/events/253329558/'&gt;Double Feature: Events and long running services&lt;/a&gt;&lt;p&gt;Microservices Meetup &lt;br&gt; 2018-10-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Munic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.herbstcampus.de/veranstaltung-6984-lost-in-transaction-%C3%9Cber-%28in-%29kosistenz-in-verteilten-systemen.html?id=6984'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen&lt;/a&gt;&lt;p&gt;Herbstcampus &lt;br&gt; 2018-09-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nurremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JavaZone Noway &lt;br&gt; 2018-09-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Oslo&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://javaforumnord.de/site/2018/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;Java Forum Nord &lt;br&gt; 2018-09-13 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Hannover&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/'&gt;Kommunikation zwischen Microservices&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://skillsmatter.com/conferences/10160-cloudnative-london-2018#program'&gt;Coordinate cloud-native components using distributed state machines&lt;/a&gt;&lt;p&gt;Cloud Native &lt;br&gt; 2018-09-28 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3283,178 +5436,179 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems.&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f>IF(D12="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems.&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F12&amp;"'&gt;"&amp;E12&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B12&amp;" &lt;br&gt; "&amp;A12&amp;" "&amp;H12&amp;" "&amp;C12&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JAX &lt;br&gt; 2018-10-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>274</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D13="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JAX &lt;br&gt; 2018-10-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F13&amp;"'&gt;"&amp;E13&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B13&amp;" &lt;br&gt; "&amp;A13&amp;" "&amp;H13&amp;" "&amp;C13&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://kafka-summit.org/sessions/monitoring-orchestration-microservices-landscape/'&gt;The Big Picture: Monitoring and Orchestration of Your Microservices Landscape with Kafka and Zeebe &lt;/a&gt;&lt;p&gt;Kafka Summit &lt;br&gt; 2018-10-16 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; San Francisco&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
-      </c>
-      <c r="F14" t="s">
-        <v>254</v>
+        <v>62</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D14="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://baselone.ch/'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;BaselOne &lt;br&gt; 2018-10-18 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Basel&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F14&amp;"'&gt;"&amp;E14&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B14&amp;" &lt;br&gt; "&amp;A14&amp;" "&amp;H14&amp;" "&amp;C14&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://golab.io/'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;GoLab &lt;br&gt; 2018-10-23 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Florence&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" t="s">
-        <v>225</v>
+        <v>188</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D15="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://golab.io/'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;GoLab &lt;br&gt; 2018-10-23 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Florence&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F15&amp;"'&gt;"&amp;E15&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B15&amp;" &lt;br&gt; "&amp;A15&amp;" "&amp;H15&amp;" "&amp;C15&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://conferences.oreilly.com/software-architecture/sa-eu/public/schedule/detail/69841'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;O'Reilly Software Architecture &lt;br&gt; 2018-10-29 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="H16" s="4" t="str">
+        <f>IF(D16="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I16" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F16&amp;"'&gt;"&amp;E16&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B16&amp;" &lt;br&gt; "&amp;A16&amp;" "&amp;H16&amp;" "&amp;C16&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;WJAX &lt;br&gt; 2018-11-08 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Munic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://conferences.oreilly.com/software-architecture/sa-eu/public/schedule/detail/69841'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;O'Reilly Software Architecture &lt;br&gt; 2018-10-29 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F17" s="5"/>
       <c r="H17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f>IF(D17="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;WJAX &lt;br&gt; 2018-11-08 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Munic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F17&amp;"'&gt;"&amp;E17&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B17&amp;" &lt;br&gt; "&amp;A17&amp;" "&amp;H17&amp;" "&amp;C17&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-11-20 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Berlin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -3464,168 +5618,230 @@
       </c>
       <c r="F18" s="5"/>
       <c r="H18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D18="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration&lt;/a&gt;&lt;p&gt;JVMCon &lt;br&gt; 2018-11-27 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F18&amp;"'&gt;"&amp;E18&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B18&amp;" &lt;br&gt; "&amp;A18&amp;" "&amp;H18&amp;" "&amp;C18&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;DOAG &lt;br&gt; 2018-11-21 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nurremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>266</v>
-      </c>
-      <c r="F19" t="s">
-        <v>267</v>
+        <v>310</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D19="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.dotnet-developer-conference.de/programm/#/tag-3'&gt;3 common pitfalls in microservice integration&lt;/a&gt;&lt;p&gt;.NET Developer Conference &lt;br&gt; 2018-11-28 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F19&amp;"'&gt;"&amp;E19&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B19&amp;" &lt;br&gt; "&amp;A19&amp;" "&amp;H19&amp;" "&amp;C19&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.versicherungsforen.net/portal/de/messekongresse/it/index.xhtml'&gt;Ein Kessel Buntes – BPM(N) Anwendungsszenarien bei der Allianz&lt;/a&gt;&lt;p&gt;IT for insurances &lt;br&gt; 2018-11-27 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Leipzig&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D20="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG Münster &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F20&amp;"'&gt;"&amp;E20&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B20&amp;" &lt;br&gt; "&amp;A20&amp;" "&amp;H20&amp;" "&amp;C20&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.dotnet-developer-conference.de/programm/#/tag-3'&gt;3 common pitfalls in microservice integration&lt;/a&gt;&lt;p&gt;.NET Developer Conference &lt;br&gt; 2018-11-28 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>250</v>
-      </c>
-      <c r="F21" t="s">
-        <v>248</v>
+        <v>208</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D21="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F21&amp;"'&gt;"&amp;E21&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B21&amp;" &lt;br&gt; "&amp;A21&amp;" "&amp;H21&amp;" "&amp;C21&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG Münster &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f>IF(D22="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I22" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F22&amp;"'&gt;"&amp;E22&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B22&amp;" &lt;br&gt; "&amp;A22&amp;" "&amp;H22&amp;" "&amp;C22&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Domain-Driven-Design-Ruhrgebiet/events/253263745/'&gt;Live Coding around Process Managers, Sagas and Orchestration&lt;/a&gt;&lt;p&gt;DDD Meetup &lt;br&gt; 2018-12-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Essen&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f>IF(D23="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F23&amp;"'&gt;"&amp;E23&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B23&amp;" &lt;br&gt; "&amp;A23&amp;" "&amp;H23&amp;" "&amp;C23&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.ittage.informatik-aktuell.de/'&gt;3 typische Stolperfallen bei der Microservice-Integration&lt;/a&gt;&lt;p&gt;IT Tage &lt;br&gt; 2018-12-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Frankfurt&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H39" s="4"/>
     </row>
+    <row r="40" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:G41">
-    <sortCondition ref="A2:A41"/>
+  <sortState ref="A2:G43">
+    <sortCondition ref="A2:A43"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
-    <hyperlink ref="F20" r:id="rId2" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
-    <hyperlink ref="F9" r:id="rId3" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{383666B0-59AE-4BA9-A651-F95B80736DB8}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{D190A9E7-2E20-464B-9800-FAA7582BB2EE}"/>
-    <hyperlink ref="F3" r:id="rId6" xr:uid="{91A5D0C1-3F45-4DEF-8CFF-B3AE83406D0E}"/>
-    <hyperlink ref="F16" r:id="rId7" xr:uid="{5E35E5DA-073F-42C8-BD6E-5327AEB9126C}"/>
-    <hyperlink ref="F10" r:id="rId8" location="program" xr:uid="{3A76840C-F48E-4331-B660-054B25B4C133}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{383666B0-59AE-4BA9-A651-F95B80736DB8}"/>
+    <hyperlink ref="F15" r:id="rId5" xr:uid="{5E35E5DA-073F-42C8-BD6E-5327AEB9126C}"/>
+    <hyperlink ref="F7" r:id="rId6" location="program" xr:uid="{3A76840C-F48E-4331-B660-054B25B4C133}"/>
+    <hyperlink ref="F8" r:id="rId7" location="schedule2_day2_auditorium1_time3" xr:uid="{41AF3F30-019A-4F5B-B2CC-305A69A10B96}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{F1A5331D-728A-4108-9313-179C51CF5D23}"/>
+    <hyperlink ref="F3" r:id="rId9" xr:uid="{4FC5FD3A-3C0B-48F9-ABBB-1F9D60E3EA32}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{E5DD1308-034C-487C-B33E-3D3F182D2164}"/>
+    <hyperlink ref="F20" r:id="rId11" location="/tag-3" xr:uid="{810E31D0-4440-4E0A-88EA-FFF9EB1F1D1D}"/>
+    <hyperlink ref="F23" r:id="rId12" xr:uid="{2B26B471-EE23-4CAD-845A-1FCB2A15F06E}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{EFDACE8F-BFB3-4FBB-BA7D-6316A6F34A1F}"/>
+    <hyperlink ref="F19" r:id="rId14" xr:uid="{387628AD-8DFE-4C52-A652-25D066974691}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -3637,13 +5853,13 @@
       <selection activeCell="I4" sqref="I4:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" style="1"/>
-    <col min="8" max="8" width="10.88671875" style="3"/>
+    <col min="2" max="2" width="10.81640625" style="1"/>
+    <col min="8" max="8" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3666,7 +5882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>211</v>
       </c>
@@ -3687,7 +5903,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://thenewstack.io/5-workflow-automation-use-cases-you-might-not-have-considered/'&gt;5 Workflow Automation Use Cases You Might Not Have Considered&lt;/a&gt;&lt;p&gt;2018-04  TheNewStack&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>123</v>
       </c>
@@ -3712,7 +5928,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoworld.com/article/3254777/application-development/3-common-pitfalls-of-microservices-integrationand-how-to-avoid-them.html'&gt;3 common pitfalls of microservices integration—and how to avoid them&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoWorld&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>125</v>
       </c>
@@ -3737,7 +5953,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoq.com/articles/events-workflow-automation'&gt;Events, Flows and Long-Running Services: A Modern Approach to Workflow Automation&lt;/a&gt;&lt;p&gt;2017-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoQ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>131</v>
       </c>
@@ -3762,7 +5978,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoq.com/articles/microservice-event-choreographies'&gt;Know the Flow! Microservices and Event Choreographies&lt;/a&gt;&lt;p&gt;2017-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoQ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3790,7 +6006,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://entwickler.de/online/windowsdeveloper/workflows-bpmn-automatisieren-301118.html'&gt;Workflows mit BPMN effektiv automatisieren&lt;/a&gt;&lt;p&gt;2016-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Windows Developer&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -3818,7 +6034,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://network.camunda.org/whitepaper/45'&gt;BPM macht Spaß&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Aktuell&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3846,7 +6062,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.sigs-datacom.de/uploads/tx_dmjournals/ruecker_OS_05_16_TRBT.pdf'&gt;Decision Model and Notation: Digitalisierung von Entscheidungen mit DMN&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Objekt Spektrum&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3874,7 +6090,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://jaxenter.de/der-brueckenschlag-warum-dmn-den-business-rules-engines-markt-aufmischt-37252'&gt;Der Brückenschlag: Warum DMN den Business-Rules-Engines-Markt aufmischt&lt;/a&gt;&lt;p&gt;2016-04 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Business Technology&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -3899,7 +6115,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Quo Vadis BPM&lt;/a&gt;&lt;p&gt;2016-01 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Magazin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H13" s="4" t="str">
         <f t="shared" ref="H13:H49" si="2">IF(D13="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3909,7 +6125,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3919,7 +6135,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3929,7 +6145,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3939,7 +6155,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3949,7 +6165,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3959,7 +6175,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3969,7 +6185,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3979,7 +6195,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3989,7 +6205,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -3999,7 +6215,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4009,7 +6225,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4019,7 +6235,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4029,7 +6245,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4039,7 +6255,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4049,7 +6265,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4059,7 +6275,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4069,7 +6285,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4079,7 +6295,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4089,7 +6305,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4099,7 +6315,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4109,7 +6325,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4119,7 +6335,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H35" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4129,7 +6345,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H36" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4139,7 +6355,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H37" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4149,7 +6365,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H38" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4159,7 +6375,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H39" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4169,7 +6385,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H40" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4179,7 +6395,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H41" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4189,7 +6405,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H42" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4199,7 +6415,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H43" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4209,7 +6425,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H44" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4219,7 +6435,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H45" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4229,7 +6445,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H46" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4239,7 +6455,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H47" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4249,7 +6465,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H48" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4259,7 +6475,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="8:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H49" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -4273,4 +6489,129 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EFBD3A-5EAB-4DE1-A864-CDE150E903EA}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f>SUM(B2:B4)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <f>SUM(B19:B24)</f>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="L20:L62">
+    <sortCondition ref="L20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE6D94-ED7A-4CCE-B193-E0FFC81F0EF4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F8E61-E5F9-40B9-B9CD-5D6556481621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10550" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10545" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent talks" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="314">
   <si>
     <t>Jfokus</t>
   </si>
@@ -719,9 +719,6 @@
     <t>Lost in transaction? Strategies to deal with (in-)consistency in modern architectures.</t>
   </si>
   <si>
-    <t>https://javaforumnord.de/site/2018/</t>
-  </si>
-  <si>
     <t>2018-09-13</t>
   </si>
   <si>
@@ -966,6 +963,18 @@
   </si>
   <si>
     <t>Ein Kessel Buntes – BPM(N) Anwendungsszenarien bei der Allianz</t>
+  </si>
+  <si>
+    <t>Monitoring and Orchestration of Your Microservices Landscape with Kafka and Zeebe</t>
+  </si>
+  <si>
+    <t>https://www.meetup.com/Berlin-Apache-Kafka-Meetup-by-Confluent/events/254703597/</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
+  </si>
+  <si>
+    <t>Apache Kafka Meetup Berlin</t>
   </si>
 </sst>
 </file>
@@ -3297,20 +3306,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01586060-4301-42D6-A296-5BF85ED0BBE5}">
-  <dimension ref="A2:N67"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:M4"/>
+      <selection activeCell="N6" sqref="L4:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" style="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="12" max="13" width="10.81640625" style="3"/>
+    <col min="2" max="2" width="10.85546875" style="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="12" max="13" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -3348,186 +3362,200 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L3" s="4"/>
       <c r="M3" s="3" t="str">
         <f t="shared" ref="M3:M6" si="0">IF((LEN(G3)&gt;0),"&lt;a href='"&amp;G3&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H3)&gt;0),"&lt;a href='"&amp;H3&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I3)&gt;0),"&lt;a href='"&amp;I3&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J3)&gt;0),"&lt;a href='"&amp;J3&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" t="s">
         <v>305</v>
       </c>
-      <c r="I4" t="s">
-        <v>306</v>
-      </c>
       <c r="L4" s="4" t="str">
-        <f t="shared" ref="L3:L6" si="1">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="L4:L5" si="1">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M4:M5" si="2">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N5" si="3">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;2018-09-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaZone Noway (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" t="s">
         <v>305</v>
-      </c>
-      <c r="I5" t="s">
-        <v>306</v>
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-09-13 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I6" t="s">
+        <v>305</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f t="shared" ref="L6" si="4">IF(E6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:N8" si="5">IF(LEN(A6)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G6&amp;"'&gt;"&amp;F6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" "&amp;L6&amp;" "&amp;C6&amp;" ("&amp;D6&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M6&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Full Stack Fest (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f t="shared" ref="L7:L19" si="6">IF(E7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f t="shared" ref="M7:M19" si="7">IF((LEN(G7)&gt;0),"&lt;a href='"&amp;G7&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H7)&gt;0),"&lt;a href='"&amp;H7&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I7)&gt;0),"&lt;a href='"&amp;I7&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J7)&gt;0),"&lt;a href='"&amp;J7&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Herbstcampus (Nurremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" t="s">
         <v>219</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=NBo7d5AG-3s' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/go' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" ref="N6" si="2">IF(LEN(A6)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G6&amp;"'&gt;"&amp;F6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" "&amp;L6&amp;" "&amp;C6&amp;" ("&amp;D6&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M6&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2018-08 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; GopherCon  (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=NBo7d5AG-3s' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/go' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f t="shared" ref="L7" si="3">IF(E7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M7" s="3" t="str">
-        <f t="shared" ref="M7" si="4">IF((LEN(G7)&gt;0),"&lt;a href='"&amp;G7&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H7)&gt;0),"&lt;a href='"&amp;H7&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I7)&gt;0),"&lt;a href='"&amp;I7&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J7)&gt;0),"&lt;a href='"&amp;J7&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" ref="N7" si="5">IF(LEN(A7)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G7&amp;"'&gt;"&amp;F7&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B7&amp;" "&amp;L7&amp;" "&amp;C7&amp;" ("&amp;D7&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M7&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; The New York City Java Meetup Group (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" t="s">
-        <v>217</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>263</v>
+        <v>300</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" ref="L8:L52" si="6">IF(E8="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="6"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f t="shared" ref="M8:M52" si="7">IF((LEN(G8)&gt;0),"&lt;a href='"&amp;G8&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H8)&gt;0),"&lt;a href='"&amp;H8&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I8)&gt;0),"&lt;a href='"&amp;I8&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J8)&gt;0),"&lt;a href='"&amp;J8&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=NBo7d5AG-3s' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/go' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" ref="N8:N52" si="8">IF(LEN(A8)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G8&amp;"'&gt;"&amp;F8&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B8&amp;" "&amp;L8&amp;" "&amp;C8&amp;" ("&amp;D8&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M8&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2018-08 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; GopherCon  (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=NBo7d5AG-3s' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/go' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
         <v>217</v>
@@ -3539,7 +3567,7 @@
         <v>188</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" si="6"/>
@@ -3550,150 +3578,156 @@
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N9" si="8">IF(LEN(A9)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G9&amp;"'&gt;"&amp;F9&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B9&amp;" "&amp;L9&amp;" "&amp;C9&amp;" ("&amp;D9&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M9&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; The New York City Java Meetup Group (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>218</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="L10" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M10" s="3" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Entwicklertag (Karlsruhe)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N10:N54" si="9">IF(LEN(A10)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G10&amp;"'&gt;"&amp;F10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" "&amp;L10&amp;" "&amp;C10&amp;" ("&amp;D10&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L11" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M11" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Developer Week (Nuremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="L12" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.youtube.com/watch?list=PLRsbF2sD7JVrSMm9aK4juBQz9AyU_rakc&amp;v=8KgTB75VePo' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v/>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in modern architectures.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx Poland (Krakow)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?list=PLRsbF2sD7JVrSMm9aK4juBQz9AyU_rakc&amp;v=8KgTB75VePo' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Entwicklertag (Karlsruhe)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>268</v>
       </c>
       <c r="L13" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JBCN Conf (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Developer Week (Nuremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>227</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" si="6"/>
@@ -3701,34 +3735,31 @@
       </c>
       <c r="M14" s="3" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>&lt;a href='https://www.youtube.com/watch?list=PLRsbF2sD7JVrSMm9aK4juBQz9AyU_rakc&amp;v=8KgTB75VePo' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Codemotion (Amsterdam)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in modern architectures.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx Poland (Krakow)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?list=PLRsbF2sD7JVrSMm9aK4juBQz9AyU_rakc&amp;v=8KgTB75VePo' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" si="6"/>
@@ -3736,31 +3767,28 @@
       </c>
       <c r="M15" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Craft-Conf (Budapest)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JBCN Conf (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" si="6"/>
@@ -3768,416 +3796,410 @@
       </c>
       <c r="M16" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v/>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Java With the Best (Online)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Codemotion (Amsterdam)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" t="s">
-        <v>194</v>
+        <v>181</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M17" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Craft-Conf (Budapest)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>186</v>
+        <v>175</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M18" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Java With the Best (Online)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>194</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M19" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="L20" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" ref="L20:L54" si="10">IF(E20="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" ref="M20:M54" si="11">IF((LEN(G20)&gt;0),"&lt;a href='"&amp;G20&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H20)&gt;0),"&lt;a href='"&amp;H20&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I20)&gt;0),"&lt;a href='"&amp;I20&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J20)&gt;0),"&lt;a href='"&amp;J20&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="2" t="s">
-        <v>123</v>
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4</v>
+        <v>175</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>199</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>250</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
       <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M23" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M24" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G25" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M23" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="L25" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M25" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N23" t="str">
-        <f t="shared" si="8"/>
+      <c r="N25" t="str">
+        <f t="shared" si="9"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M24" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M25" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>249</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M26" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M27" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M26" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M27" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -4186,101 +4208,101 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>260</v>
+        <v>35</v>
+      </c>
+      <c r="H30" t="s">
+        <v>38</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M30" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -4288,489 +4310,489 @@
         <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M32" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
       </c>
       <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M33" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M34" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
         <v>57</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G35" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M33" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="L35" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M35" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N33" t="str">
-        <f t="shared" si="8"/>
+      <c r="N35" t="str">
+        <f t="shared" si="9"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" t="s">
-        <v>63</v>
-      </c>
-      <c r="L34" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M34" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" t="s">
-        <v>65</v>
-      </c>
-      <c r="L35" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M35" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M36" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M37" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M38" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="H39" t="s">
+        <v>71</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M39" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
-      </c>
-      <c r="J40" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M40" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M41" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="J42" t="s">
+        <v>84</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M42" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M43" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="L44" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M44" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4778,31 +4800,34 @@
         <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M45" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -4810,319 +4835,394 @@
         <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="G46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" t="s">
+        <v>101</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M46" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
-      </c>
-      <c r="J47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M47" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M48" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J49" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M49" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L50" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M50" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="J51" t="s">
+        <v>111</v>
       </c>
       <c r="L51" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M51" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" t="s">
+        <v>112</v>
+      </c>
+      <c r="L52" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M52" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M53" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>117</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>118</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E54" t="s">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F54" t="s">
         <v>119</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I54" t="s">
         <v>120</v>
       </c>
-      <c r="L52" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M52" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="L54" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M54" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
-      <c r="N52" t="str">
-        <f t="shared" si="8"/>
+      <c r="N54" t="str">
+        <f t="shared" si="9"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L67" s="4"/>
     </row>
+    <row r="68" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N6:N53">
+  <conditionalFormatting sqref="N4:N55">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
-    <hyperlink ref="I21" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
-    <hyperlink ref="I19" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
-    <hyperlink ref="I18" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
-    <hyperlink ref="H21" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
-    <hyperlink ref="I17" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
-    <hyperlink ref="I22" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
-    <hyperlink ref="I20" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
-    <hyperlink ref="H22" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
-    <hyperlink ref="H20" r:id="rId10" xr:uid="{6BCCE56F-2EA1-4DC2-80C1-886F59732629}"/>
-    <hyperlink ref="H30" r:id="rId11" xr:uid="{947EE223-8994-433F-8A35-6D220242B528}"/>
-    <hyperlink ref="H15" r:id="rId12" xr:uid="{2ED97438-F28D-43BF-97F2-B5B6C18CF0E0}"/>
-    <hyperlink ref="G15" r:id="rId13" xr:uid="{5253A7E2-08B0-4D8B-BB8F-681799847B0A}"/>
-    <hyperlink ref="G7" r:id="rId14" xr:uid="{D15A062B-FA03-4938-B671-B5AEBBC0EBDA}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{6A995991-E383-4A40-8480-8B3527DA23A3}"/>
-    <hyperlink ref="G13" r:id="rId16" xr:uid="{A3DEC8F9-95D4-4CE1-8986-625B4C73C31B}"/>
-    <hyperlink ref="H19" r:id="rId17" xr:uid="{143E5BE5-0127-4F74-B302-B26E9D7D4C9A}"/>
-    <hyperlink ref="H18" r:id="rId18" xr:uid="{46ECF8FD-E706-4833-9288-B314D012A7B9}"/>
-    <hyperlink ref="H17" r:id="rId19" xr:uid="{3EFDC7D3-428C-4A16-8A95-F53382D74802}"/>
-    <hyperlink ref="H8" r:id="rId20" xr:uid="{F1FF04B9-6EC3-472C-B60B-BAD3DF9C4CCC}"/>
-    <hyperlink ref="G11" r:id="rId21" xr:uid="{C5E42E95-BE4C-4304-930E-C240A62CA0F4}"/>
-    <hyperlink ref="G8" r:id="rId22" xr:uid="{047246D3-2F75-4E4C-8A81-ED485E0EC1C9}"/>
-    <hyperlink ref="H12" r:id="rId23" xr:uid="{0FAE76CB-E33A-4873-99FE-E22F03878B7C}"/>
-    <hyperlink ref="H6" r:id="rId24" xr:uid="{2DD7DC49-5627-4845-A9D4-CDB5409ADB49}"/>
-    <hyperlink ref="I6" r:id="rId25" xr:uid="{1E1B121D-8E8F-449D-B72E-3E72215FD2B5}"/>
-    <hyperlink ref="G5" r:id="rId26" xr:uid="{D190A9E7-2E20-464B-9800-FAA7582BB2EE}"/>
-    <hyperlink ref="G4" r:id="rId27" xr:uid="{91A5D0C1-3F45-4DEF-8CFF-B3AE83406D0E}"/>
-    <hyperlink ref="I4" r:id="rId28" xr:uid="{214CD628-CF7B-4310-B02B-84431318278A}"/>
-    <hyperlink ref="I5" r:id="rId29" xr:uid="{C901C06E-BCE4-4F8C-AD4C-7ED2D65AA18F}"/>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
+    <hyperlink ref="I23" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
+    <hyperlink ref="I21" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
+    <hyperlink ref="I20" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
+    <hyperlink ref="H23" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
+    <hyperlink ref="I19" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
+    <hyperlink ref="I24" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
+    <hyperlink ref="I22" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
+    <hyperlink ref="H24" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
+    <hyperlink ref="H22" r:id="rId10" xr:uid="{6BCCE56F-2EA1-4DC2-80C1-886F59732629}"/>
+    <hyperlink ref="H32" r:id="rId11" xr:uid="{947EE223-8994-433F-8A35-6D220242B528}"/>
+    <hyperlink ref="H17" r:id="rId12" xr:uid="{2ED97438-F28D-43BF-97F2-B5B6C18CF0E0}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{5253A7E2-08B0-4D8B-BB8F-681799847B0A}"/>
+    <hyperlink ref="G9" r:id="rId14" xr:uid="{D15A062B-FA03-4938-B671-B5AEBBC0EBDA}"/>
+    <hyperlink ref="G11" r:id="rId15" xr:uid="{6A995991-E383-4A40-8480-8B3527DA23A3}"/>
+    <hyperlink ref="G15" r:id="rId16" xr:uid="{A3DEC8F9-95D4-4CE1-8986-625B4C73C31B}"/>
+    <hyperlink ref="H21" r:id="rId17" xr:uid="{143E5BE5-0127-4F74-B302-B26E9D7D4C9A}"/>
+    <hyperlink ref="H20" r:id="rId18" xr:uid="{46ECF8FD-E706-4833-9288-B314D012A7B9}"/>
+    <hyperlink ref="H19" r:id="rId19" xr:uid="{3EFDC7D3-428C-4A16-8A95-F53382D74802}"/>
+    <hyperlink ref="H10" r:id="rId20" xr:uid="{F1FF04B9-6EC3-472C-B60B-BAD3DF9C4CCC}"/>
+    <hyperlink ref="G13" r:id="rId21" xr:uid="{C5E42E95-BE4C-4304-930E-C240A62CA0F4}"/>
+    <hyperlink ref="G10" r:id="rId22" xr:uid="{047246D3-2F75-4E4C-8A81-ED485E0EC1C9}"/>
+    <hyperlink ref="H14" r:id="rId23" xr:uid="{0FAE76CB-E33A-4873-99FE-E22F03878B7C}"/>
+    <hyperlink ref="H8" r:id="rId24" xr:uid="{2DD7DC49-5627-4845-A9D4-CDB5409ADB49}"/>
+    <hyperlink ref="I8" r:id="rId25" xr:uid="{1E1B121D-8E8F-449D-B72E-3E72215FD2B5}"/>
+    <hyperlink ref="G7" r:id="rId26" xr:uid="{D190A9E7-2E20-464B-9800-FAA7582BB2EE}"/>
+    <hyperlink ref="G6" r:id="rId27" xr:uid="{91A5D0C1-3F45-4DEF-8CFF-B3AE83406D0E}"/>
+    <hyperlink ref="I6" r:id="rId28" xr:uid="{214CD628-CF7B-4310-B02B-84431318278A}"/>
+    <hyperlink ref="I7" r:id="rId29" xr:uid="{C901C06E-BCE4-4F8C-AD4C-7ED2D65AA18F}"/>
+    <hyperlink ref="H4" r:id="rId30" xr:uid="{8D5534B9-A1BE-439A-ADBB-16E6AEBF6A9E}"/>
+    <hyperlink ref="G4" r:id="rId31" xr:uid="{AE0004CC-944C-4E63-99B8-4AAAFBA0B327}"/>
+    <hyperlink ref="G5" r:id="rId32" xr:uid="{E7A02488-E7B0-461B-A154-FB6BC590EBAE}"/>
+    <hyperlink ref="I5" r:id="rId33" xr:uid="{2126BA08-3CA7-4B2F-A355-96D4ABCD5910}"/>
+    <hyperlink ref="I4" r:id="rId34" xr:uid="{65F84F01-56C2-4FA2-847A-CA66558F9885}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -5132,17 +5232,17 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="1"/>
-    <col min="2" max="2" width="27.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="3"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5165,52 +5265,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="4" t="str">
-        <f>IF(D2="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I2" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F2&amp;"'&gt;"&amp;E2&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B2&amp;" &lt;br&gt; "&amp;A2&amp;" "&amp;H2&amp;" "&amp;C2&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JavaZone Noway &lt;br&gt; 2018-09-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Oslo&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>IF(D3="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -5218,10 +5290,10 @@
       </c>
       <c r="I3" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F3&amp;"'&gt;"&amp;E3&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B3&amp;" &lt;br&gt; "&amp;A3&amp;" "&amp;H3&amp;" "&amp;C3&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://javaforumnord.de/site/2018/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;Java Forum Nord &lt;br&gt; 2018-09-13 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Hannover&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/'&gt;Kommunikation zwischen Microservices&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
@@ -5235,26 +5307,26 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f>IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="H4:H22" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I4" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/'&gt;Kommunikation zwischen Microservices&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I4:I22" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -5263,147 +5335,144 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f>IF(D5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I5" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F5&amp;"'&gt;"&amp;E5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" &lt;br&gt; "&amp;A5&amp;" "&amp;H5&amp;" "&amp;C5&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f>IF(D6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I6" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F6&amp;"'&gt;"&amp;E6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" &lt;br&gt; "&amp;A6&amp;" "&amp;H6&amp;" "&amp;C6&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://skillsmatter.com/conferences/10160-cloudnative-london-2018#program'&gt;Coordinate cloud-native components using distributed state machines&lt;/a&gt;&lt;p&gt;Cloud Native &lt;br&gt; 2018-09-26 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" t="s">
         <v>285</v>
       </c>
-      <c r="B7" t="s">
-        <v>252</v>
-      </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f>IF(D7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I7" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F7&amp;"'&gt;"&amp;E7&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B7&amp;" &lt;br&gt; "&amp;A7&amp;" "&amp;H7&amp;" "&amp;C7&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://skillsmatter.com/conferences/10160-cloudnative-london-2018#program'&gt;Coordinate cloud-native components using distributed state machines&lt;/a&gt;&lt;p&gt;Cloud Native &lt;br&gt; 2018-09-26 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://devconf.pl/#schedule2_day2_auditorium1_time3'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;DevConf &lt;br&gt; 2018-09-28 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Krakow&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" ref="H8:H11" si="0">IF(D8="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" ref="I8:I11" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F8&amp;"'&gt;"&amp;E8&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B8&amp;" &lt;br&gt; "&amp;A8&amp;" "&amp;H8&amp;" "&amp;C8&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://devconf.pl/#schedule2_day2_auditorium1_time3'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;DevConf &lt;br&gt; 2018-09-28 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Krakow&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Microservices-Meetup-Munich/events/253329558/'&gt;Double Feature: Events and long running services&lt;/a&gt;&lt;p&gt;Microservices Meetup &lt;br&gt; 2018-10-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Munic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Microservices-Meetup-Munich/events/253329558/'&gt;Double Feature: Events and long running services&lt;/a&gt;&lt;p&gt;Microservices Meetup &lt;br&gt; 2018-10-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Munic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5411,88 +5480,91 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems.&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems.&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JAX &lt;br&gt; 2018-10-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>273</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f>IF(D12="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I12" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F12&amp;"'&gt;"&amp;E12&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B12&amp;" &lt;br&gt; "&amp;A12&amp;" "&amp;H12&amp;" "&amp;C12&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JAX &lt;br&gt; 2018-10-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://kafka-summit.org/sessions/monitoring-orchestration-microservices-landscape/'&gt;The Big Picture: Monitoring and Orchestration of Your Microservices Landscape with Kafka and Zeebe &lt;/a&gt;&lt;p&gt;Kafka Summit &lt;br&gt; 2018-10-16 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; San Francisco&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f>IF(D13="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I13" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F13&amp;"'&gt;"&amp;E13&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B13&amp;" &lt;br&gt; "&amp;A13&amp;" "&amp;H13&amp;" "&amp;C13&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://kafka-summit.org/sessions/monitoring-orchestration-microservices-landscape/'&gt;The Big Picture: Monitoring and Orchestration of Your Microservices Landscape with Kafka and Zeebe &lt;/a&gt;&lt;p&gt;Kafka Summit &lt;br&gt; 2018-10-16 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; San Francisco&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Berlin-Apache-Kafka-Meetup-by-Confluent/events/254703597/'&gt;Monitoring and Orchestration of Your Microservices Landscape with Kafka and Zeebe&lt;/a&gt;&lt;p&gt;Apache Kafka Meetup Berlin &lt;br&gt; 2018-10-22 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Berlin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>220</v>
       </c>
@@ -5512,17 +5584,17 @@
         <v>223</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f>IF(D14="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I14" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F14&amp;"'&gt;"&amp;E14&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B14&amp;" &lt;br&gt; "&amp;A14&amp;" "&amp;H14&amp;" "&amp;C14&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://golab.io/'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;GoLab &lt;br&gt; 2018-10-23 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Florence&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -5537,20 +5609,20 @@
         <v>188</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f>IF(D15="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I15" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F15&amp;"'&gt;"&amp;E15&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B15&amp;" &lt;br&gt; "&amp;A15&amp;" "&amp;H15&amp;" "&amp;C15&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://conferences.oreilly.com/software-architecture/sa-eu/public/schedule/detail/69841'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;O'Reilly Software Architecture &lt;br&gt; 2018-10-29 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -5562,21 +5634,21 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F16" s="5"/>
       <c r="H16" s="4" t="str">
-        <f>IF(D16="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I16" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F16&amp;"'&gt;"&amp;E16&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B16&amp;" &lt;br&gt; "&amp;A16&amp;" "&amp;H16&amp;" "&amp;C16&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;WJAX &lt;br&gt; 2018-11-08 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Munic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" t="s">
         <v>169</v>
@@ -5588,78 +5660,78 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F17" s="5"/>
       <c r="H17" s="4" t="str">
-        <f>IF(D17="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I17" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F17&amp;"'&gt;"&amp;E17&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B17&amp;" &lt;br&gt; "&amp;A17&amp;" "&amp;H17&amp;" "&amp;C17&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-11-20 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Berlin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" t="s">
         <v>276</v>
       </c>
-      <c r="B18" t="s">
-        <v>277</v>
-      </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F18" s="5"/>
       <c r="H18" s="4" t="str">
-        <f>IF(D18="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I18" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F18&amp;"'&gt;"&amp;E18&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B18&amp;" &lt;br&gt; "&amp;A18&amp;" "&amp;H18&amp;" "&amp;C18&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;DOAG &lt;br&gt; 2018-11-21 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nurremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="s">
         <v>307</v>
-      </c>
-      <c r="C19" t="s">
-        <v>308</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f>IF(D19="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I19" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F19&amp;"'&gt;"&amp;E19&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B19&amp;" &lt;br&gt; "&amp;A19&amp;" "&amp;H19&amp;" "&amp;C19&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.versicherungsforen.net/portal/de/messekongresse/it/index.xhtml'&gt;Ein Kessel Buntes – BPM(N) Anwendungsszenarien bei der Allianz&lt;/a&gt;&lt;p&gt;IT for insurances &lt;br&gt; 2018-11-27 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Leipzig&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" t="s">
         <v>95</v>
@@ -5668,26 +5740,26 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="H20" s="4" t="str">
-        <f>IF(D20="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I20" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F20&amp;"'&gt;"&amp;E20&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B20&amp;" &lt;br&gt; "&amp;A20&amp;" "&amp;H20&amp;" "&amp;C20&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.dotnet-developer-conference.de/programm/#/tag-3'&gt;3 common pitfalls in microservice integration&lt;/a&gt;&lt;p&gt;.NET Developer Conference &lt;br&gt; 2018-11-28 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
         <v>206</v>
@@ -5702,48 +5774,48 @@
         <v>207</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f>IF(D21="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I21" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F21&amp;"'&gt;"&amp;E21&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B21&amp;" &lt;br&gt; "&amp;A21&amp;" "&amp;H21&amp;" "&amp;C21&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG Münster &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f>IF(D22="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I22" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F22&amp;"'&gt;"&amp;E22&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B22&amp;" &lt;br&gt; "&amp;A22&amp;" "&amp;H22&amp;" "&amp;C22&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Domain-Driven-Design-Ruhrgebiet/events/253263745/'&gt;Live Coding around Process Managers, Sagas and Orchestration&lt;/a&gt;&lt;p&gt;DDD Meetup &lt;br&gt; 2018-12-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Essen&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -5752,72 +5824,72 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f>IF(D23="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f t="shared" ref="H11:H23" si="2">IF(D23="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I23" t="str">
-        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F23&amp;"'&gt;"&amp;E23&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B23&amp;" &lt;br&gt; "&amp;A23&amp;" "&amp;H23&amp;" "&amp;C23&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f t="shared" ref="I11:I23" si="3">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F23&amp;"'&gt;"&amp;E23&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B23&amp;" &lt;br&gt; "&amp;A23&amp;" "&amp;H23&amp;" "&amp;C23&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.ittage.informatik-aktuell.de/'&gt;3 typische Stolperfallen bei der Microservice-Integration&lt;/a&gt;&lt;p&gt;IT Tage &lt;br&gt; 2018-12-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Frankfurt&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="4"/>
     </row>
   </sheetData>
@@ -5825,23 +5897,22 @@
     <sortCondition ref="A2:A43"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
     <hyperlink ref="F21" r:id="rId2" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{383666B0-59AE-4BA9-A651-F95B80736DB8}"/>
-    <hyperlink ref="F15" r:id="rId5" xr:uid="{5E35E5DA-073F-42C8-BD6E-5327AEB9126C}"/>
-    <hyperlink ref="F7" r:id="rId6" location="program" xr:uid="{3A76840C-F48E-4331-B660-054B25B4C133}"/>
-    <hyperlink ref="F8" r:id="rId7" location="schedule2_day2_auditorium1_time3" xr:uid="{41AF3F30-019A-4F5B-B2CC-305A69A10B96}"/>
-    <hyperlink ref="F4" r:id="rId8" xr:uid="{F1A5331D-728A-4108-9313-179C51CF5D23}"/>
-    <hyperlink ref="F3" r:id="rId9" xr:uid="{4FC5FD3A-3C0B-48F9-ABBB-1F9D60E3EA32}"/>
-    <hyperlink ref="F14" r:id="rId10" xr:uid="{E5DD1308-034C-487C-B33E-3D3F182D2164}"/>
-    <hyperlink ref="F20" r:id="rId11" location="/tag-3" xr:uid="{810E31D0-4440-4E0A-88EA-FFF9EB1F1D1D}"/>
-    <hyperlink ref="F23" r:id="rId12" xr:uid="{2B26B471-EE23-4CAD-845A-1FCB2A15F06E}"/>
-    <hyperlink ref="F13" r:id="rId13" xr:uid="{EFDACE8F-BFB3-4FBB-BA7D-6316A6F34A1F}"/>
-    <hyperlink ref="F19" r:id="rId14" xr:uid="{387628AD-8DFE-4C52-A652-25D066974691}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
+    <hyperlink ref="F15" r:id="rId4" xr:uid="{5E35E5DA-073F-42C8-BD6E-5327AEB9126C}"/>
+    <hyperlink ref="F6" r:id="rId5" location="program" xr:uid="{3A76840C-F48E-4331-B660-054B25B4C133}"/>
+    <hyperlink ref="F7" r:id="rId6" location="schedule2_day2_auditorium1_time3" xr:uid="{41AF3F30-019A-4F5B-B2CC-305A69A10B96}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{F1A5331D-728A-4108-9313-179C51CF5D23}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{E5DD1308-034C-487C-B33E-3D3F182D2164}"/>
+    <hyperlink ref="F20" r:id="rId9" location="/tag-3" xr:uid="{810E31D0-4440-4E0A-88EA-FFF9EB1F1D1D}"/>
+    <hyperlink ref="F23" r:id="rId10" xr:uid="{2B26B471-EE23-4CAD-845A-1FCB2A15F06E}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{EFDACE8F-BFB3-4FBB-BA7D-6316A6F34A1F}"/>
+    <hyperlink ref="F19" r:id="rId12" xr:uid="{387628AD-8DFE-4C52-A652-25D066974691}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{AD29C808-3ACE-490A-9179-029070C1171E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -5853,13 +5924,13 @@
       <selection activeCell="I4" sqref="I4:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" style="1"/>
-    <col min="8" max="8" width="10.81640625" style="3"/>
+    <col min="2" max="2" width="10.85546875" style="1"/>
+    <col min="8" max="8" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -5882,7 +5953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>211</v>
       </c>
@@ -5903,7 +5974,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://thenewstack.io/5-workflow-automation-use-cases-you-might-not-have-considered/'&gt;5 Workflow Automation Use Cases You Might Not Have Considered&lt;/a&gt;&lt;p&gt;2018-04  TheNewStack&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>123</v>
       </c>
@@ -5928,7 +5999,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoworld.com/article/3254777/application-development/3-common-pitfalls-of-microservices-integrationand-how-to-avoid-them.html'&gt;3 common pitfalls of microservices integration—and how to avoid them&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoWorld&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>125</v>
       </c>
@@ -5953,7 +6024,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoq.com/articles/events-workflow-automation'&gt;Events, Flows and Long-Running Services: A Modern Approach to Workflow Automation&lt;/a&gt;&lt;p&gt;2017-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoQ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>131</v>
       </c>
@@ -5978,7 +6049,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoq.com/articles/microservice-event-choreographies'&gt;Know the Flow! Microservices and Event Choreographies&lt;/a&gt;&lt;p&gt;2017-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoQ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -6006,7 +6077,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://entwickler.de/online/windowsdeveloper/workflows-bpmn-automatisieren-301118.html'&gt;Workflows mit BPMN effektiv automatisieren&lt;/a&gt;&lt;p&gt;2016-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Windows Developer&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -6034,7 +6105,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://network.camunda.org/whitepaper/45'&gt;BPM macht Spaß&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Aktuell&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -6062,7 +6133,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.sigs-datacom.de/uploads/tx_dmjournals/ruecker_OS_05_16_TRBT.pdf'&gt;Decision Model and Notation: Digitalisierung von Entscheidungen mit DMN&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Objekt Spektrum&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -6090,7 +6161,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://jaxenter.de/der-brueckenschlag-warum-dmn-den-business-rules-engines-markt-aufmischt-37252'&gt;Der Brückenschlag: Warum DMN den Business-Rules-Engines-Markt aufmischt&lt;/a&gt;&lt;p&gt;2016-04 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Business Technology&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -6115,7 +6186,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Quo Vadis BPM&lt;/a&gt;&lt;p&gt;2016-01 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Magazin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="4" t="str">
         <f t="shared" ref="H13:H49" si="2">IF(D13="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6125,7 +6196,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6135,7 +6206,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6145,7 +6216,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6155,7 +6226,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6165,7 +6236,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6175,7 +6246,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6185,7 +6256,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6195,7 +6266,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6205,7 +6276,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6215,7 +6286,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6225,7 +6296,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6235,7 +6306,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6245,7 +6316,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6255,7 +6326,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6265,7 +6336,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6275,7 +6346,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6285,7 +6356,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6295,7 +6366,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6305,7 +6376,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6315,7 +6386,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6325,7 +6396,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6335,7 +6406,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6345,7 +6416,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H36" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6355,7 +6426,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H37" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6365,7 +6436,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H38" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6375,7 +6446,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6385,7 +6456,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6395,7 +6466,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6405,7 +6476,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H42" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6415,7 +6486,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6425,7 +6496,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H44" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6435,7 +6506,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H45" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6445,7 +6516,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H46" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6455,7 +6526,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H47" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6465,7 +6536,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H48" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6475,7 +6546,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H49" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6499,35 +6570,35 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -6537,47 +6608,47 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -6585,23 +6656,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B24">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>SUM(B19:B24)</f>
         <v>41</v>

--- a/TalksTable.xlsx
+++ b/TalksTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\bernd-ruecker.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\berndruecker.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F8E61-E5F9-40B9-B9CD-5D6556481621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D481E30D-23EF-4FCD-814C-1B77A65E3B92}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10545" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10550" activeTab="1" xr2:uid="{F5FCFEC6-B6BB-4038-B257-7F06F55ABB03}"/>
   </bookViews>
   <sheets>
     <sheet name="Recent talks" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="317">
   <si>
     <t>Jfokus</t>
   </si>
@@ -635,9 +635,6 @@
     <t>https://github.com/flowing/flowing-retail/tree/master/rest/java/payment</t>
   </si>
   <si>
-    <t>2018-09-25</t>
-  </si>
-  <si>
     <t>https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/</t>
   </si>
   <si>
@@ -719,18 +716,12 @@
     <t>Lost in transaction? Strategies to deal with (in-)consistency in modern architectures.</t>
   </si>
   <si>
-    <t>2018-09-13</t>
-  </si>
-  <si>
     <t>Java Forum Nord</t>
   </si>
   <si>
     <t>2018-05</t>
   </si>
   <si>
-    <t>2018-09-12</t>
-  </si>
-  <si>
     <t>JavaZone Noway</t>
   </si>
   <si>
@@ -785,9 +776,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>2018-09-28</t>
-  </si>
-  <si>
     <t>Cloud Native</t>
   </si>
   <si>
@@ -887,9 +875,6 @@
     <t>Complex event flows vs. Distributed tx</t>
   </si>
   <si>
-    <t>2018-09-26</t>
-  </si>
-  <si>
     <t>DevConf</t>
   </si>
   <si>
@@ -923,9 +908,6 @@
     <t>https://www.meetup.com/Microservices-Meetup-Munich/events/253329558/</t>
   </si>
   <si>
-    <t>2018-10-04</t>
-  </si>
-  <si>
     <t>Microservices Meetup</t>
   </si>
   <si>
@@ -950,9 +932,6 @@
     <t>https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/</t>
   </si>
   <si>
-    <t>https://github.com/flowing/flowing-retail</t>
-  </si>
-  <si>
     <t>IT for insurances</t>
   </si>
   <si>
@@ -975,6 +954,36 @@
   </si>
   <si>
     <t>Apache Kafka Meetup Berlin</t>
+  </si>
+  <si>
+    <t>Java Land</t>
+  </si>
+  <si>
+    <t>https://programm.javaland.eu/2019/#/scheduledEvent/569570</t>
+  </si>
+  <si>
+    <t>Lost in Transaction? Data Consistency in Distributed Systems</t>
+  </si>
+  <si>
+    <t>Brühl</t>
+  </si>
+  <si>
+    <t>2019-03-19</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JtaoNlL5mdI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7xC3dUIvF-0</t>
+  </si>
+  <si>
+    <t>https://skillsmatter.com/skillscasts/12110-coordinate-cloud-native-components-using-distributed-state-machines</t>
+  </si>
+  <si>
+    <t>https://github.com/berndruecker/flowing-retail</t>
+  </si>
+  <si>
+    <t>2018-10</t>
   </si>
 </sst>
 </file>
@@ -3306,25 +3315,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01586060-4301-42D6-A296-5BF85ED0BBE5}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A2:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="L4:N6"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" style="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="12" max="13" width="10.85546875" style="3"/>
+    <col min="2" max="2" width="10.81640625" style="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="12" max="13" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -3362,395 +3366,411 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L3" s="4"/>
       <c r="M3" s="3" t="str">
-        <f t="shared" ref="M3:M6" si="0">IF((LEN(G3)&gt;0),"&lt;a href='"&amp;G3&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H3)&gt;0),"&lt;a href='"&amp;H3&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I3)&gt;0),"&lt;a href='"&amp;I3&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J3)&gt;0),"&lt;a href='"&amp;J3&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <f t="shared" ref="M3:M12" si="0">IF((LEN(G3)&gt;0),"&lt;a href='"&amp;G3&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H3)&gt;0),"&lt;a href='"&amp;H3&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I3)&gt;0),"&lt;a href='"&amp;I3&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J3)&gt;0),"&lt;a href='"&amp;J3&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="I4" t="s">
-        <v>305</v>
+        <v>290</v>
+      </c>
+      <c r="H4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f t="shared" ref="L4:L5" si="1">IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f>IF(E4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M5" si="2">IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f>IF((LEN(G4)&gt;0),"&lt;a href='"&amp;G4&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H4)&gt;0),"&lt;a href='"&amp;H4&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I4)&gt;0),"&lt;a href='"&amp;I4&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J4)&gt;0),"&lt;a href='"&amp;J4&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.meetup.com/Microservices-Meetup-Munich/events/253329558/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=7xC3dUIvF-0' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N5" si="3">IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;2018-09-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaZone Noway (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(LEN(A4)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G4&amp;"'&gt;"&amp;F4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;L4&amp;" "&amp;C4&amp;" ("&amp;D4&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Microservices-Meetup-Munich/events/253329558/'&gt;Double Feature: Events and long running services&lt;/a&gt;&lt;p&gt;2018-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Microservices Meetup (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Microservices-Meetup-Munich/events/253329558/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=7xC3dUIvF-0' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f>IF(E5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f>IF((LEN(G5)&gt;0),"&lt;a href='"&amp;G5&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H5)&gt;0),"&lt;a href='"&amp;H5&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I5)&gt;0),"&lt;a href='"&amp;I5&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J5)&gt;0),"&lt;a href='"&amp;J5&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://skillsmatter.com/conferences/10160-cloudnative-london-2018#program' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/12110-coordinate-cloud-native-components-using-distributed-state-machines' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N5" t="str">
+        <f>IF(LEN(A5)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G5&amp;"'&gt;"&amp;F5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" "&amp;L5&amp;" "&amp;C5&amp;" ("&amp;D5&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M5&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://skillsmatter.com/conferences/10160-cloudnative-london-2018#program'&gt;Coordinate cloud-native components using distributed state machines&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Cloud Native (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://skillsmatter.com/conferences/10160-cloudnative-london-2018#program' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/12110-coordinate-cloud-native-components-using-distributed-state-machines' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f>IF(E6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f>IF((LEN(G6)&gt;0),"&lt;a href='"&amp;G6&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H6)&gt;0),"&lt;a href='"&amp;H6&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I6)&gt;0),"&lt;a href='"&amp;I6&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J6)&gt;0),"&lt;a href='"&amp;J6&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='http://devconf.pl/#schedule2_day2_auditorium1_time3' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N6" t="str">
+        <f>IF(LEN(A6)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G6&amp;"'&gt;"&amp;F6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" "&amp;L6&amp;" "&amp;C6&amp;" ("&amp;D6&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M6&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://devconf.pl/#schedule2_day2_auditorium1_time3'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DevConf (Krakow)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://devconf.pl/#schedule2_day2_auditorium1_time3' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" t="s">
         <v>229</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f t="shared" ref="L7:L8" si="1">IF(E7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f t="shared" ref="M7:M8" si="2">IF((LEN(G7)&gt;0),"&lt;a href='"&amp;G7&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H7)&gt;0),"&lt;a href='"&amp;H7&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I7)&gt;0),"&lt;a href='"&amp;I7&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J7)&gt;0),"&lt;a href='"&amp;J7&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" ref="N7:N8" si="3">IF(LEN(A7)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G7&amp;"'&gt;"&amp;F7&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B7&amp;" "&amp;L7&amp;" "&amp;C7&amp;" ("&amp;D7&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M7&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaZone Noway (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://2018.javazone.no/program/45df84d4-e819-4fc9-9e3b-931972891441' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I5" t="s">
-        <v>305</v>
-      </c>
-      <c r="L5" s="4" t="str">
+      <c r="G8" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="L8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
-      <c r="M5" s="3" t="str">
+      <c r="M8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N5" t="str">
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-09-13 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" t="s">
         <v>189</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I6" t="s">
-        <v>305</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f t="shared" ref="L6" si="4">IF(E6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" ref="N6:N8" si="5">IF(LEN(A6)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G6&amp;"'&gt;"&amp;F6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" "&amp;L6&amp;" "&amp;C6&amp;" ("&amp;D6&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M6&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Full Stack Fest (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f t="shared" ref="L7:L19" si="6">IF(E7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M7" s="3" t="str">
-        <f t="shared" ref="M7:M19" si="7">IF((LEN(G7)&gt;0),"&lt;a href='"&amp;G7&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H7)&gt;0),"&lt;a href='"&amp;H7&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I7)&gt;0),"&lt;a href='"&amp;I7&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J7)&gt;0),"&lt;a href='"&amp;J7&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Herbstcampus (Nurremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M8" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=NBo7d5AG-3s' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/go' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2018-08 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; GopherCon  (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=NBo7d5AG-3s' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/go' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" t="s">
-        <v>217</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>267</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I9" s="5"/>
       <c r="L9" s="4" t="str">
+        <f t="shared" ref="L9" si="4">IF(E9="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f>IF((LEN(G9)&gt;0),"&lt;a href='"&amp;G9&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H9)&gt;0),"&lt;a href='"&amp;H9&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I9)&gt;0),"&lt;a href='"&amp;I9&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J9)&gt;0),"&lt;a href='"&amp;J9&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=JtaoNlL5mdI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N9" t="str">
+        <f>IF(LEN(A9)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G9&amp;"'&gt;"&amp;F9&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B9&amp;" "&amp;L9&amp;" "&amp;C9&amp;" ("&amp;D9&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M9&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/'&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Full Stack Fest (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=JtaoNlL5mdI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f t="shared" ref="L10:L12" si="5">IF(E10="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" ref="N10:N12" si="6">IF(LEN(A10)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G10&amp;"'&gt;"&amp;F10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" "&amp;L10&amp;" "&amp;C10&amp;" ("&amp;D10&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/'&gt;Kommunikation zwischen Microservices&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M9" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" ref="N9" si="8">IF(LEN(A9)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G9&amp;"'&gt;"&amp;F9&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B9&amp;" "&amp;L9&amp;" "&amp;C9&amp;" ("&amp;D9&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M9&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; The New York City Java Meetup Group (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>218</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M10" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" ref="N10:N54" si="9">IF(LEN(A10)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G10&amp;"'&gt;"&amp;F10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" "&amp;L10&amp;" "&amp;C10&amp;" ("&amp;D10&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M10&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="L11" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M11" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>188</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="L12" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M12" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Entwicklertag (Karlsruhe)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JUG (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>268</v>
+        <v>298</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L13:L25" si="7">IF(E13="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" ref="M13:M25" si="8">IF((LEN(G13)&gt;0),"&lt;a href='"&amp;G13&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H13)&gt;0),"&lt;a href='"&amp;H13&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I13)&gt;0),"&lt;a href='"&amp;I13&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J13)&gt;0),"&lt;a href='"&amp;J13&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Developer Week (Nuremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N13:N14" si="9">IF(LEN(A13)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G13&amp;"'&gt;"&amp;F13&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B13&amp;" "&amp;L13&amp;" "&amp;C13&amp;" ("&amp;D13&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M13&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/'&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen&lt;/a&gt;&lt;p&gt;2018-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Herbstcampus (Nurremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2018-lost-in-transaction/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/berndruecker/flowing-retail' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>227</v>
+        <v>62</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>277</v>
+        <v>294</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.youtube.com/watch?list=PLRsbF2sD7JVrSMm9aK4juBQz9AyU_rakc&amp;v=8KgTB75VePo' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="8"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=NBo7d5AG-3s' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/go' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in modern architectures.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx Poland (Krakow)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?list=PLRsbF2sD7JVrSMm9aK4juBQz9AyU_rakc&amp;v=8KgTB75VePo' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2018-08 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; GopherCon  (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/gophercon-uk-2018-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=NBo7d5AG-3s' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/go' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -3759,447 +3779,420 @@
         <v>188</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JBCN Conf (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N15" si="10">IF(LEN(A15)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G15&amp;"'&gt;"&amp;F15&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B15&amp;" "&amp;L15&amp;" "&amp;C15&amp;" ("&amp;D15&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M15&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; The New York City Java Meetup Group (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>217</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Codemotion (Amsterdam)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N16:N60" si="11">IF(LEN(A16)&gt;0,"&lt;tr class='additional-row'&gt;","&lt;tr&gt;")&amp;"&lt;td&gt;&lt;a href='"&amp;G16&amp;"'&gt;"&amp;F16&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B16&amp;" "&amp;L16&amp;" "&amp;C16&amp;" ("&amp;D16&amp;")&lt;/p&gt;&lt;/td&gt;&lt;td&gt;" &amp;M16&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.infoq.com/presentations/event-flow-distributed-systems' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M17" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; QCon (New York)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Craft-Conf (Budapest)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L18" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Java With the Best (Online)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Über (In-)Kosistenz in verteilten Systemen &lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Entwicklertag (Karlsruhe)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>198</v>
+        <v>166</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M19" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Developer Week (Nuremberg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/workflow-automation-with-bpmn-lessons-learned' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L20" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L20" s="4" t="str">
-        <f t="shared" ref="L20:L54" si="10">IF(E20="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f t="shared" ref="M20:M54" si="11">IF((LEN(G20)&gt;0),"&lt;a href='"&amp;G20&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H20)&gt;0),"&lt;a href='"&amp;H20&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I20)&gt;0),"&lt;a href='"&amp;I20&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J20)&gt;0),"&lt;a href='"&amp;J20&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
-        <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+        <f t="shared" si="8"/>
+        <v>&lt;a href='https://www.youtube.com/watch?list=PLRsbF2sD7JVrSMm9aK4juBQz9AyU_rakc&amp;v=8KgTB75VePo' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in modern architectures.&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx Poland (Krakow)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?list=PLRsbF2sD7JVrSMm9aK4juBQz9AyU_rakc&amp;v=8KgTB75VePo' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M21" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;2018-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JBCN Conf (Barcelona)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/3-common-pitfalls-in-microservice-integration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M22" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N22" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Workflow automation in the serverless age &lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Codemotion (Amsterdam)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M23" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N23" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems'&gt;Break your event chains! Complex event flows in distributed systems.&lt;/a&gt;&lt;p&gt;2018-05 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Craft-Conf (Budapest)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://speakerdeck.com/martinschimak/craftconf-budapest-2018-break-your-event-chains-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.ustream.tv/recorded/114862863' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="L24" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M24" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N24" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>249</v>
-      </c>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Java With the Best (Online)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>194</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M25" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N25" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>249</v>
-      </c>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration'&gt;Zeebe.io - Event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java User Group (Erfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/java-user-group-erfurt-2018-zeebeio-eventdriven-microservice-orchestration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=lZIe02um5eI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/zeebe' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
+        <v>165</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="L26:L60" si="12">IF(E26="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M26" s="3" t="str">
+        <f t="shared" ref="M26:M60" si="13">IF((LEN(G26)&gt;0),"&lt;a href='"&amp;G26&amp;"' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(H26)&gt;0),"&lt;a href='"&amp;H26&amp;"' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;", "") &amp;IF((LEN(I26)&gt;0),"&lt;a href='"&amp;I26&amp;"' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;","")&amp;IF((LEN(J26)&gt;0),"&lt;a href='"&amp;J26&amp;"' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;","")</f>
+        <v>&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N26" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>249</v>
-      </c>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Long-running services and Camunda &lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Cologne)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=AXgEowOgDSg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
+        <v>168</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M27" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N27" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Patience pays off. How long running services reduce complexity.&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://youtu.be/LJq6xAT0uwI' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -4208,351 +4201,363 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" t="s">
-        <v>29</v>
+        <v>175</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M28" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N28" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them'&gt;3 Common Pitfalls in Microservice Integration and How to Avoid them&lt;/a&gt;&lt;p&gt;2018-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Qcon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/qcon-london-2018-3-common-pitfalls-in-microservice-integration-and-how-to-avoid-them' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://youtu.be/O2-NHptllKQ' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M29" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N29" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>154</v>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (New York City)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-nyc-2018-complex-event-flows-in-distributed-systems/' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781492028116/video318624.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M30" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N30" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures'&gt;Lost in transaction - Strategies to deal with (in-)consistency in modern architectures&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfokus-2018-lost-in-transaction-strategies-to-deal-with-inconsistency-in-modern-architectures' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=Ikj59uEKhjg' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://github.com/flowing/flowing-retail/tree/master/rest/java/payment' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M31" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N31" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018'&gt;Microservices with Camunda&lt;/a&gt;&lt;p&gt;2018-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Camunda Days (Berlin, Hamburg, D&amp;uuml;sseldorf, Frankfurt, Munic,  Z&amp;uuml;rich, Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/microservices-with-camunda-talk-from-camunda-days-012018' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M32" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N32" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale'&gt;Workflow Engines at scale&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-workflow-and-state-machines-at-scale' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M33" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N33" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration'&gt;(Micro-)service collaboration&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/wjax-2017-microservice-collaboration' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M34" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N34" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains'&gt;Break your event chains&lt;/a&gt;&lt;p&gt;2017-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; MuCon (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/mucon-london-2017-break-your-event-chains' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/10718-break-your-event-chains' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M35" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N35" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow'&gt;Let your domain events flow&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; KanDDDinsky (Berlin), DDD Belgium (Gent), JCon (D&amp;uuml;sseldorf)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/kandddinsky-let-your-domain-events-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=LKoaMbqZp9Y' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>38</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M36" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N36" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems'&gt;Complex event flows in distributed systems&lt;/a&gt;&lt;p&gt;2017-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; O'Reilly Software Architecture (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/oreilly-sa-complex-event-flows-in-distributed-systems' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.safaribooksonline.com/library/view/oreilly-software-architecture/9781491985274/video315427.html' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M37" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N37" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices'&gt;Orchestration of Microservices (Java edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JUG (Amsterdam), JUG  (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jug-frankfurt-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -4561,688 +4566,903 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>67</v>
+        <v>45</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M38" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N38" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices'&gt;Orchestration of Microservices (.NET edition)&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/basta-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=4g2drf_EjWk' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M39" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N39" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511'&gt;7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin), Java Forum Nord (Hannover)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/7-sins-of-workflow-80009511' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M40" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N40" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows'&gt;Tackling complex event flows&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD Meetup (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/2017-0905-ddd-ber-tackling-complex-event-flows' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M41" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N41" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-09 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBin (Trondheim, Bergen)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-trondheim-and-bergen-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
-      </c>
-      <c r="J42" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M42" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N42" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jfs-2017-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M43" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N43" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-orchestration-of-microservices' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M44" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda'&gt;Business Rules with DMN&lt;/a&gt;&lt;p&gt;2017-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JAX (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/jax-2017-talk-business-rules-with-dmn-and-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
         <v>2</v>
       </c>
-      <c r="F44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" t="s">
-        <v>89</v>
-      </c>
-      <c r="L44" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M44" s="3" t="str">
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M45" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N45" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" t="s">
-        <v>92</v>
-      </c>
-      <c r="L45" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M45" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd'&gt;Long running processes in DDD&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; DDD eXchange (London)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/long-running-processes-in-ddd' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://skillsmatter.com/skillscasts/9853-long-running-processes-in-ddd' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E46" t="s">
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="G46" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M46" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N46" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow'&gt;Let your microservices flow&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Goto Meetup (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/goto-meetup-stockholm-let-your-microservices-flow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>78</v>
+      </c>
+      <c r="G47" t="s">
+        <v>79</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M47" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N47" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda'&gt;Open source workflow and rule management with Camunda&lt;/a&gt;&lt;p&gt;2017-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JavaBIn (Oslo)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.slideshare.net/BerndRuecker/javabin-oslo-open-source-workflow-and-rule-management-with-camunda' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="G48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" t="s">
+        <v>84</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M48" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N48" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than'&gt;Because your business is more complex than Netflix&lt;/a&gt;&lt;p&gt;2017-03 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Voxxed (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/master-the-flow-of-microservices-because-your-business-is-more-complex-than' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.voxxed.com/blog/2017/03/orchestration-stacks-netflix/' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
-      </c>
-      <c r="J49" t="s">
-        <v>104</v>
+        <v>85</v>
+      </c>
+      <c r="G49" t="s">
+        <v>86</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M49" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N49" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net'&gt;BPMN und Workflows in .NET - das geht!&lt;/a&gt;&lt;p&gt;2017-02 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Frankfurt)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/bpmn-und-workflows-in-net' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="L50" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M50" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N50" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow'&gt;The 7 sins of workflow&lt;/a&gt;&lt;p&gt;2017-01 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; JFokus (Stockholm)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/the-7-sins-of-workflow' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
-      </c>
-      <c r="J51" t="s">
-        <v>111</v>
+        <v>91</v>
+      </c>
+      <c r="G51" t="s">
+        <v>92</v>
       </c>
       <c r="L51" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M51" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N51" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen'&gt;Prozesse digitalisieren - heute und morgen&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Digitalisierung und IT in Versicherungen  (Vienna)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/prozesse-digitalisieren-heute-und-morgen' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G52" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="H52" t="s">
+        <v>101</v>
       </c>
       <c r="L52" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M52" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N52" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm'&gt;Camunda BPM&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Jfall (Ede)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-jfall-camunda-bpm' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;a href='https://www.youtube.com/watch?v=_WKlc_X6zNE' title='Recording'&gt;&lt;img src='assets/img/recording.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="L53" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="M53" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N53" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPMN &amp;amp; CMMN. Wann nehme ich welchen Standard?&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>105</v>
+      </c>
+      <c r="L54" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M54" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Gesch&amp;auml;ftsregeln mit DMN&lt;/a&gt;&lt;p&gt;2016-11 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; WJAX (Munic)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>103</v>
+      </c>
+      <c r="J55" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M55" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Workflows mit BPMN 2.0 automatisieren&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Basta (Mainz)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=LTQtwHdBrr8' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" t="s">
+        <v>107</v>
+      </c>
+      <c r="L56" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M56" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action'&gt;Workflows (BPMN), Business Rules (DMN), Case Management (CMMN) – live &amp;amp; in Action&lt;/a&gt;&lt;p&gt;2016-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; BedCon (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://de.slideshare.net/BerndRuecker/2016-bedcon-talk-workflows-bpmn-business-rules-dmn-case-management-cmmn-live-in-action' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J57" t="s">
+        <v>111</v>
+      </c>
+      <c r="L57" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M57" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM und Microservices&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java EE Summit (Berlin)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=Up4QcVHxrwA' title='Interview'&gt;&lt;img src='assets/img/interview.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" t="s">
+        <v>112</v>
+      </c>
+      <c r="L58" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M58" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html'&gt;Workflows mit BPMN &amp;amp; Business Rules mit DMN - Open Source und in Action mit Camunda BPM (won best presentation award)&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; JFS (Stuttgart)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='http://www.java-forum-stuttgart.de/de/BestPresentations+2016.html' title='Slides'&gt;&lt;img src='assets/img/slides.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>116</v>
+      </c>
+      <c r="L59" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M59" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;BPM War Stories. Oder: Wie baue ich eine BPM-Architektur auf?&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; SEACON (Hamburg)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C60" t="s">
         <v>117</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D60" t="s">
         <v>118</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E60" t="s">
         <v>2</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F60" t="s">
         <v>119</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I60" t="s">
         <v>120</v>
       </c>
-      <c r="L54" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="M54" s="3" t="str">
+      <c r="L60" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+      </c>
+      <c r="M60" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="N60" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="N54" t="str">
-        <f t="shared" si="9"/>
         <v>&lt;tr class='additional-row'&gt;&lt;td&gt;&lt;a href=''&gt;Open Source Workflows, Business Rules and Case Management live and in action&lt;/a&gt;&lt;p&gt;2015-11 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Devoxx (Antwerp)&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;a href='https://www.youtube.com/watch?v=x9ceAoZt8xw' title='Source code'&gt;&lt;img src='assets/img/code.png' height='20px'&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="12:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L69" s="4"/>
     </row>
+    <row r="70" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="12:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L75" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N4:N55">
+  <conditionalFormatting sqref="N4:N61">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
-    <hyperlink ref="I23" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
-    <hyperlink ref="I21" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
-    <hyperlink ref="I20" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
-    <hyperlink ref="H23" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
-    <hyperlink ref="I19" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
-    <hyperlink ref="I24" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
-    <hyperlink ref="I22" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
-    <hyperlink ref="H24" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
-    <hyperlink ref="H22" r:id="rId10" xr:uid="{6BCCE56F-2EA1-4DC2-80C1-886F59732629}"/>
-    <hyperlink ref="H32" r:id="rId11" xr:uid="{947EE223-8994-433F-8A35-6D220242B528}"/>
-    <hyperlink ref="H17" r:id="rId12" xr:uid="{2ED97438-F28D-43BF-97F2-B5B6C18CF0E0}"/>
-    <hyperlink ref="G17" r:id="rId13" xr:uid="{5253A7E2-08B0-4D8B-BB8F-681799847B0A}"/>
-    <hyperlink ref="G9" r:id="rId14" xr:uid="{D15A062B-FA03-4938-B671-B5AEBBC0EBDA}"/>
-    <hyperlink ref="G11" r:id="rId15" xr:uid="{6A995991-E383-4A40-8480-8B3527DA23A3}"/>
-    <hyperlink ref="G15" r:id="rId16" xr:uid="{A3DEC8F9-95D4-4CE1-8986-625B4C73C31B}"/>
-    <hyperlink ref="H21" r:id="rId17" xr:uid="{143E5BE5-0127-4F74-B302-B26E9D7D4C9A}"/>
-    <hyperlink ref="H20" r:id="rId18" xr:uid="{46ECF8FD-E706-4833-9288-B314D012A7B9}"/>
-    <hyperlink ref="H19" r:id="rId19" xr:uid="{3EFDC7D3-428C-4A16-8A95-F53382D74802}"/>
-    <hyperlink ref="H10" r:id="rId20" xr:uid="{F1FF04B9-6EC3-472C-B60B-BAD3DF9C4CCC}"/>
-    <hyperlink ref="G13" r:id="rId21" xr:uid="{C5E42E95-BE4C-4304-930E-C240A62CA0F4}"/>
-    <hyperlink ref="G10" r:id="rId22" xr:uid="{047246D3-2F75-4E4C-8A81-ED485E0EC1C9}"/>
-    <hyperlink ref="H14" r:id="rId23" xr:uid="{0FAE76CB-E33A-4873-99FE-E22F03878B7C}"/>
-    <hyperlink ref="H8" r:id="rId24" xr:uid="{2DD7DC49-5627-4845-A9D4-CDB5409ADB49}"/>
-    <hyperlink ref="I8" r:id="rId25" xr:uid="{1E1B121D-8E8F-449D-B72E-3E72215FD2B5}"/>
-    <hyperlink ref="G7" r:id="rId26" xr:uid="{D190A9E7-2E20-464B-9800-FAA7582BB2EE}"/>
-    <hyperlink ref="G6" r:id="rId27" xr:uid="{91A5D0C1-3F45-4DEF-8CFF-B3AE83406D0E}"/>
-    <hyperlink ref="I6" r:id="rId28" xr:uid="{214CD628-CF7B-4310-B02B-84431318278A}"/>
-    <hyperlink ref="I7" r:id="rId29" xr:uid="{C901C06E-BCE4-4F8C-AD4C-7ED2D65AA18F}"/>
-    <hyperlink ref="H4" r:id="rId30" xr:uid="{8D5534B9-A1BE-439A-ADBB-16E6AEBF6A9E}"/>
-    <hyperlink ref="G4" r:id="rId31" xr:uid="{AE0004CC-944C-4E63-99B8-4AAAFBA0B327}"/>
-    <hyperlink ref="G5" r:id="rId32" xr:uid="{E7A02488-E7B0-461B-A154-FB6BC590EBAE}"/>
-    <hyperlink ref="I5" r:id="rId33" xr:uid="{2126BA08-3CA7-4B2F-A355-96D4ABCD5910}"/>
-    <hyperlink ref="I4" r:id="rId34" xr:uid="{65F84F01-56C2-4FA2-847A-CA66558F9885}"/>
+    <hyperlink ref="G29" r:id="rId1" xr:uid="{B2CB20F6-AFDC-4220-B6CB-D765A8D94783}"/>
+    <hyperlink ref="I29" r:id="rId2" xr:uid="{01ADA2E4-A5C4-4E2E-BFCA-9E2B21411DFE}"/>
+    <hyperlink ref="I27" r:id="rId3" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{900B2E3C-F4C2-487B-9C1E-A2369F22D279}"/>
+    <hyperlink ref="I26" r:id="rId4" xr:uid="{D288DED8-2D4A-4F87-B3DF-8F1BD0D7FF9F}"/>
+    <hyperlink ref="H29" r:id="rId5" xr:uid="{649CD0D6-9E06-4F22-BCA5-E80C1821530E}"/>
+    <hyperlink ref="I25" r:id="rId6" xr:uid="{B48AFA3B-6513-4CDF-B2AB-ADEF13504FCB}"/>
+    <hyperlink ref="I30" r:id="rId7" display="https://github.com/flowing/flowing-retail/tree/master/payment-rest" xr:uid="{97E748A2-734B-477E-8503-72C10E428AE7}"/>
+    <hyperlink ref="I28" r:id="rId8" display="https://github.com/flowing/rest/java/payment" xr:uid="{0AAAB93D-F00F-451D-8216-C141993FC734}"/>
+    <hyperlink ref="H30" r:id="rId9" xr:uid="{267ED0EF-3E95-479B-A0CB-E18E1826C7F9}"/>
+    <hyperlink ref="H28" r:id="rId10" xr:uid="{6BCCE56F-2EA1-4DC2-80C1-886F59732629}"/>
+    <hyperlink ref="H38" r:id="rId11" xr:uid="{947EE223-8994-433F-8A35-6D220242B528}"/>
+    <hyperlink ref="H23" r:id="rId12" xr:uid="{2ED97438-F28D-43BF-97F2-B5B6C18CF0E0}"/>
+    <hyperlink ref="G23" r:id="rId13" xr:uid="{5253A7E2-08B0-4D8B-BB8F-681799847B0A}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{D15A062B-FA03-4938-B671-B5AEBBC0EBDA}"/>
+    <hyperlink ref="G17" r:id="rId15" xr:uid="{6A995991-E383-4A40-8480-8B3527DA23A3}"/>
+    <hyperlink ref="G21" r:id="rId16" xr:uid="{A3DEC8F9-95D4-4CE1-8986-625B4C73C31B}"/>
+    <hyperlink ref="H27" r:id="rId17" xr:uid="{143E5BE5-0127-4F74-B302-B26E9D7D4C9A}"/>
+    <hyperlink ref="H26" r:id="rId18" xr:uid="{46ECF8FD-E706-4833-9288-B314D012A7B9}"/>
+    <hyperlink ref="H25" r:id="rId19" xr:uid="{3EFDC7D3-428C-4A16-8A95-F53382D74802}"/>
+    <hyperlink ref="H16" r:id="rId20" xr:uid="{F1FF04B9-6EC3-472C-B60B-BAD3DF9C4CCC}"/>
+    <hyperlink ref="G19" r:id="rId21" xr:uid="{C5E42E95-BE4C-4304-930E-C240A62CA0F4}"/>
+    <hyperlink ref="G16" r:id="rId22" xr:uid="{047246D3-2F75-4E4C-8A81-ED485E0EC1C9}"/>
+    <hyperlink ref="H20" r:id="rId23" xr:uid="{0FAE76CB-E33A-4873-99FE-E22F03878B7C}"/>
+    <hyperlink ref="H14" r:id="rId24" xr:uid="{2DD7DC49-5627-4845-A9D4-CDB5409ADB49}"/>
+    <hyperlink ref="I14" r:id="rId25" xr:uid="{1E1B121D-8E8F-449D-B72E-3E72215FD2B5}"/>
+    <hyperlink ref="G13" r:id="rId26" xr:uid="{D190A9E7-2E20-464B-9800-FAA7582BB2EE}"/>
+    <hyperlink ref="G9" r:id="rId27" xr:uid="{91A5D0C1-3F45-4DEF-8CFF-B3AE83406D0E}"/>
+    <hyperlink ref="H7" r:id="rId28" xr:uid="{8D5534B9-A1BE-439A-ADBB-16E6AEBF6A9E}"/>
+    <hyperlink ref="G7" r:id="rId29" xr:uid="{AE0004CC-944C-4E63-99B8-4AAAFBA0B327}"/>
+    <hyperlink ref="G8" r:id="rId30" xr:uid="{E7A02488-E7B0-461B-A154-FB6BC590EBAE}"/>
+    <hyperlink ref="H9" r:id="rId31" xr:uid="{E93CE883-FB4E-4F1D-9DD2-C64D7BEFB77B}"/>
+    <hyperlink ref="G11" r:id="rId32" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
+    <hyperlink ref="G12" r:id="rId33" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
+    <hyperlink ref="G5" r:id="rId34" location="program" xr:uid="{3A76840C-F48E-4331-B660-054B25B4C133}"/>
+    <hyperlink ref="G6" r:id="rId35" location="schedule2_day2_auditorium1_time3" xr:uid="{41AF3F30-019A-4F5B-B2CC-305A69A10B96}"/>
+    <hyperlink ref="G10" r:id="rId36" xr:uid="{F1A5331D-728A-4108-9313-179C51CF5D23}"/>
+    <hyperlink ref="I10" r:id="rId37" xr:uid="{8FDD6EB8-5776-4E79-94B0-96C7E72B2C78}"/>
+    <hyperlink ref="I5" r:id="rId38" xr:uid="{46CCCC0F-1573-4FFD-836C-B2065EEFF4F4}"/>
+    <hyperlink ref="I4" r:id="rId39" xr:uid="{362E945D-0FE9-4020-AD5C-47F64E4196A7}"/>
+    <hyperlink ref="I7" r:id="rId40" xr:uid="{E9784B83-9B20-40C0-9AAE-B580E0B6891C}"/>
+    <hyperlink ref="I8" r:id="rId41" xr:uid="{00DCFC39-12E4-4270-9070-78EA931C73C5}"/>
+    <hyperlink ref="I13" r:id="rId42" xr:uid="{4617088D-D0FC-46C3-8F6B-6CAFA7552954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId43"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DED00E-46E1-48BC-B1F1-251D95106922}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I3" sqref="I3:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="10.81640625" style="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5265,24 +5485,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>IF(D3="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
@@ -5290,629 +5507,485 @@
       </c>
       <c r="I3" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F3&amp;"'&gt;"&amp;E3&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B3&amp;" &lt;br&gt; "&amp;A3&amp;" "&amp;H3&amp;" "&amp;C3&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/microservices-apis/kommunikation-zwischen-microservices/'&gt;Kommunikation zwischen Microservices&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f t="shared" ref="H4:H22" si="0">IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <f>IF(D4="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I22" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://basta.net/web-development/workflows-mit-bpmn-automatisieren-lessons-learned/'&gt;Workflows mit BPMN automatisieren. Lessons Learned.&lt;/a&gt;&lt;p&gt;Basta &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" &lt;br&gt; "&amp;A4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems.&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="H5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f>IF(D5="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/JUG-Mainz/events/249130598/'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JUG &lt;br&gt; 2018-09-25 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Mainz&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F5&amp;"'&gt;"&amp;E5&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B5&amp;" &lt;br&gt; "&amp;A5&amp;" "&amp;H5&amp;" "&amp;C5&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JAX &lt;br&gt; 2018-10-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D6="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://skillsmatter.com/conferences/10160-cloudnative-london-2018#program'&gt;Coordinate cloud-native components using distributed state machines&lt;/a&gt;&lt;p&gt;Cloud Native &lt;br&gt; 2018-09-26 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F6&amp;"'&gt;"&amp;E6&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B6&amp;" &lt;br&gt; "&amp;A6&amp;" "&amp;H6&amp;" "&amp;C6&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://kafka-summit.org/sessions/monitoring-orchestration-microservices-landscape/'&gt;The Big Picture: Monitoring and Orchestration of Your Microservices Landscape with Kafka and Zeebe &lt;/a&gt;&lt;p&gt;Kafka Summit &lt;br&gt; 2018-10-16 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; San Francisco&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D7="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://devconf.pl/#schedule2_day2_auditorium1_time3'&gt;Complex Event Flows in Distributed Systems&lt;/a&gt;&lt;p&gt;DevConf &lt;br&gt; 2018-09-28 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Krakow&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F7&amp;"'&gt;"&amp;E7&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B7&amp;" &lt;br&gt; "&amp;A7&amp;" "&amp;H7&amp;" "&amp;C7&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Berlin-Apache-Kafka-Meetup-by-Confluent/events/254703597/'&gt;Monitoring and Orchestration of Your Microservices Landscape with Kafka and Zeebe&lt;/a&gt;&lt;p&gt;Apache Kafka Meetup Berlin &lt;br&gt; 2018-10-22 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Berlin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>62</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D8="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Microservices-Meetup-Munich/events/253329558/'&gt;Double Feature: Events and long running services&lt;/a&gt;&lt;p&gt;Microservices Meetup &lt;br&gt; 2018-10-04 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Munic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F8&amp;"'&gt;"&amp;E8&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B8&amp;" &lt;br&gt; "&amp;A8&amp;" "&amp;H8&amp;" "&amp;C8&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://golab.io/'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;GoLab &lt;br&gt; 2018-10-23 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Florence&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>188</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="H9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f>IF(D9="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F9&amp;"'&gt;"&amp;E9&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B9&amp;" &lt;br&gt; "&amp;A9&amp;" "&amp;H9&amp;" "&amp;C9&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://conferences.oreilly.com/software-architecture/sa-eu/public/schedule/detail/69841'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;O'Reilly Software Architecture &lt;br&gt; 2018-10-29 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D10="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Lost in transaction? Strategies to deal with (in-)consistency in distributed systems.&lt;/a&gt;&lt;p&gt;JCon &lt;br&gt; 2018-10-09 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Dusseldorf&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F10&amp;"'&gt;"&amp;E10&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B10&amp;" &lt;br&gt; "&amp;A10&amp;" "&amp;H10&amp;" "&amp;C10&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;WJAX &lt;br&gt; 2018-11-08 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Munic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="H11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D11="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;JAX &lt;br&gt; 2018-10-10 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F11&amp;"'&gt;"&amp;E11&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B11&amp;" &lt;br&gt; "&amp;A11&amp;" "&amp;H11&amp;" "&amp;C11&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-11-20 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Berlin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>273</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>294</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="H12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f>IF(D12="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://kafka-summit.org/sessions/monitoring-orchestration-microservices-landscape/'&gt;The Big Picture: Monitoring and Orchestration of Your Microservices Landscape with Kafka and Zeebe &lt;/a&gt;&lt;p&gt;Kafka Summit &lt;br&gt; 2018-10-16 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; San Francisco&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F12&amp;"'&gt;"&amp;E12&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B12&amp;" &lt;br&gt; "&amp;A12&amp;" "&amp;H12&amp;" "&amp;C12&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;DOAG &lt;br&gt; 2018-11-21 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nurremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f>IF(D13="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Berlin-Apache-Kafka-Meetup-by-Confluent/events/254703597/'&gt;Monitoring and Orchestration of Your Microservices Landscape with Kafka and Zeebe&lt;/a&gt;&lt;p&gt;Apache Kafka Meetup Berlin &lt;br&gt; 2018-10-22 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Berlin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F13&amp;"'&gt;"&amp;E13&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B13&amp;" &lt;br&gt; "&amp;A13&amp;" "&amp;H13&amp;" "&amp;C13&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.versicherungsforen.net/portal/de/messekongresse/it/index.xhtml'&gt;Ein Kessel Buntes – BPM(N) Anwendungsszenarien bei der Allianz&lt;/a&gt;&lt;p&gt;IT for insurances &lt;br&gt; 2018-11-27 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Leipzig&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f>IF(D14="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://golab.io/'&gt;Orchestration of Microservices&lt;/a&gt;&lt;p&gt;GoLab &lt;br&gt; 2018-10-23 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Florence&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F14&amp;"'&gt;"&amp;E14&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B14&amp;" &lt;br&gt; "&amp;A14&amp;" "&amp;H14&amp;" "&amp;C14&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.dotnet-developer-conference.de/programm/#/tag-3'&gt;3 common pitfalls in microservice integration&lt;/a&gt;&lt;p&gt;.NET Developer Conference &lt;br&gt; 2018-11-28 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f>IF(D15="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://conferences.oreilly.com/software-architecture/sa-eu/public/schedule/detail/69841'&gt;3 common pitfalls in microservice integration and how to avoid them&lt;/a&gt;&lt;p&gt;O'Reilly Software Architecture &lt;br&gt; 2018-10-29 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; London&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F15&amp;"'&gt;"&amp;E15&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B15&amp;" &lt;br&gt; "&amp;A15&amp;" "&amp;H15&amp;" "&amp;C15&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG Münster &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>288</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="H16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D16="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;WJAX &lt;br&gt; 2018-11-08 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Munic&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F16&amp;"'&gt;"&amp;E16&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B16&amp;" &lt;br&gt; "&amp;A16&amp;" "&amp;H16&amp;" "&amp;C16&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Domain-Driven-Design-Ruhrgebiet/events/253263745/'&gt;Live Coding around Process Managers, Sagas and Orchestration&lt;/a&gt;&lt;p&gt;DDD Meetup &lt;br&gt; 2018-12-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Essen&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="5"/>
+        <v>240</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="H17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
+        <f t="shared" ref="H17:H18" si="0">IF(D17="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
+        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;Codemotion &lt;br&gt; 2018-11-20 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; Berlin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I17:I18" si="1">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F17&amp;"'&gt;"&amp;E17&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B17&amp;" &lt;br&gt; "&amp;A17&amp;" "&amp;H17&amp;" "&amp;C17&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.ittage.informatik-aktuell.de/'&gt;3 typische Stolperfallen bei der Microservice-Integration&lt;/a&gt;&lt;p&gt;IT Tage &lt;br&gt; 2018-12-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Frankfurt&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>309</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;3 common pitfalls of microservice integration&lt;/a&gt;&lt;p&gt;DOAG &lt;br&gt; 2018-11-21 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Nurremberg&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" t="s">
-        <v>307</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>309</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="H19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.versicherungsforen.net/portal/de/messekongresse/it/index.xhtml'&gt;Ein Kessel Buntes – BPM(N) Anwendungsszenarien bei der Allianz&lt;/a&gt;&lt;p&gt;IT for insurances &lt;br&gt; 2018-11-27 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Leipzig&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>256</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="H20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.dotnet-developer-conference.de/programm/#/tag-3'&gt;3 common pitfalls in microservice integration&lt;/a&gt;&lt;p&gt;.NET Developer Conference &lt;br&gt; 2018-11-28 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Cologne&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='http://www.jug-muenster.de/'&gt;Zeebe.io - New Open Source Project for event-driven Microservice Orchestration&lt;/a&gt;&lt;p&gt;JUG Münster &lt;br&gt; 2018-12-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Muenster&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>288</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="H22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.meetup.com/Domain-Driven-Design-Ruhrgebiet/events/253263745/'&gt;Live Coding around Process Managers, Sagas and Orchestration&lt;/a&gt;&lt;p&gt;DDD Meetup &lt;br&gt; 2018-12-06 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Essen&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>243</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H23" s="4" t="str">
-        <f t="shared" ref="H11:H23" si="2">IF(D23="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
-        <v>&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" ref="I11:I23" si="3">"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F23&amp;"'&gt;"&amp;E23&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B23&amp;" &lt;br&gt; "&amp;A23&amp;" "&amp;H23&amp;" "&amp;C23&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.ittage.informatik-aktuell.de/'&gt;3 typische Stolperfallen bei der Microservice-Integration&lt;/a&gt;&lt;p&gt;IT Tage &lt;br&gt; 2018-12-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Frankfurt&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://programm.javaland.eu/2019/#/scheduledEvent/569570'&gt;Lost in Transaction? Data Consistency in Distributed Systems&lt;/a&gt;&lt;p&gt;Java Land &lt;br&gt; 2019-03-19 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Brühl&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="8:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="4"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:G43">
-    <sortCondition ref="A2:A43"/>
+  <sortState ref="A2:G37">
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{AB96EB3F-126E-451D-85FD-4E14F9DBD331}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{514A550F-BE5F-4FBA-96C0-4C17A2B554CB}"/>
-    <hyperlink ref="F15" r:id="rId4" xr:uid="{5E35E5DA-073F-42C8-BD6E-5327AEB9126C}"/>
-    <hyperlink ref="F6" r:id="rId5" location="program" xr:uid="{3A76840C-F48E-4331-B660-054B25B4C133}"/>
-    <hyperlink ref="F7" r:id="rId6" location="schedule2_day2_auditorium1_time3" xr:uid="{41AF3F30-019A-4F5B-B2CC-305A69A10B96}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{F1A5331D-728A-4108-9313-179C51CF5D23}"/>
-    <hyperlink ref="F14" r:id="rId8" xr:uid="{E5DD1308-034C-487C-B33E-3D3F182D2164}"/>
-    <hyperlink ref="F20" r:id="rId9" location="/tag-3" xr:uid="{810E31D0-4440-4E0A-88EA-FFF9EB1F1D1D}"/>
-    <hyperlink ref="F23" r:id="rId10" xr:uid="{2B26B471-EE23-4CAD-845A-1FCB2A15F06E}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{EFDACE8F-BFB3-4FBB-BA7D-6316A6F34A1F}"/>
-    <hyperlink ref="F19" r:id="rId12" xr:uid="{387628AD-8DFE-4C52-A652-25D066974691}"/>
-    <hyperlink ref="F13" r:id="rId13" xr:uid="{AD29C808-3ACE-490A-9179-029070C1171E}"/>
+    <hyperlink ref="F15" r:id="rId1" xr:uid="{7B88BBA1-9E52-44D7-AC6F-10682A6F2BE8}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{5E35E5DA-073F-42C8-BD6E-5327AEB9126C}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{E5DD1308-034C-487C-B33E-3D3F182D2164}"/>
+    <hyperlink ref="F14" r:id="rId4" location="/tag-3" xr:uid="{810E31D0-4440-4E0A-88EA-FFF9EB1F1D1D}"/>
+    <hyperlink ref="F17" r:id="rId5" xr:uid="{2B26B471-EE23-4CAD-845A-1FCB2A15F06E}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{EFDACE8F-BFB3-4FBB-BA7D-6316A6F34A1F}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{387628AD-8DFE-4C52-A652-25D066974691}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{AD29C808-3ACE-490A-9179-029070C1171E}"/>
+    <hyperlink ref="F18" r:id="rId9" location="/scheduledEvent/569570" xr:uid="{7DCE906A-D09C-40AF-BD3B-42768CEBE40A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -5924,13 +5997,13 @@
       <selection activeCell="I4" sqref="I4:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" style="1"/>
-    <col min="8" max="8" width="10.85546875" style="3"/>
+    <col min="2" max="2" width="10.81640625" style="1"/>
+    <col min="8" max="8" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -5953,28 +6026,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I4" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;&lt;a href='"&amp;F4&amp;"'&gt;"&amp;E4&amp;"&lt;/a&gt;&lt;p&gt;"&amp;B4&amp;" "&amp;H4&amp;" "&amp;C4&amp;"&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://thenewstack.io/5-workflow-automation-use-cases-you-might-not-have-considered/'&gt;5 Workflow Automation Use Cases You Might Not Have Considered&lt;/a&gt;&lt;p&gt;2018-04  TheNewStack&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>123</v>
       </c>
@@ -5999,7 +6072,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoworld.com/article/3254777/application-development/3-common-pitfalls-of-microservices-integrationand-how-to-avoid-them.html'&gt;3 common pitfalls of microservices integration—and how to avoid them&lt;/a&gt;&lt;p&gt;2018-02 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoWorld&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>125</v>
       </c>
@@ -6024,7 +6097,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoq.com/articles/events-workflow-automation'&gt;Events, Flows and Long-Running Services: A Modern Approach to Workflow Automation&lt;/a&gt;&lt;p&gt;2017-12 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoQ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>131</v>
       </c>
@@ -6049,7 +6122,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.infoq.com/articles/microservice-event-choreographies'&gt;Know the Flow! Microservices and Event Choreographies&lt;/a&gt;&lt;p&gt;2017-06 &lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt; InfoQ&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -6077,7 +6150,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://entwickler.de/online/windowsdeveloper/workflows-bpmn-automatisieren-301118.html'&gt;Workflows mit BPMN effektiv automatisieren&lt;/a&gt;&lt;p&gt;2016-10 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Windows Developer&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -6105,7 +6178,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://network.camunda.org/whitepaper/45'&gt;BPM macht Spaß&lt;/a&gt;&lt;p&gt;2016-07 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Aktuell&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -6133,7 +6206,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://www.sigs-datacom.de/uploads/tx_dmjournals/ruecker_OS_05_16_TRBT.pdf'&gt;Decision Model and Notation: Digitalisierung von Entscheidungen mit DMN&lt;/a&gt;&lt;p&gt;2016-05 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Objekt Spektrum&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -6161,7 +6234,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href='https://jaxenter.de/der-brueckenschlag-warum-dmn-den-business-rules-engines-markt-aufmischt-37252'&gt;Der Brückenschlag: Warum DMN den Business-Rules-Engines-Markt aufmischt&lt;/a&gt;&lt;p&gt;2016-04 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Business Technology&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -6186,7 +6259,7 @@
         <v>&lt;tr&gt;&lt;td&gt;&lt;a href=''&gt;Quo Vadis BPM&lt;/a&gt;&lt;p&gt;2016-01 &lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt; Java Magazin&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H13" s="4" t="str">
         <f t="shared" ref="H13:H49" si="2">IF(D13="de","&lt;span title='In German language'&gt;&lt;img src='assets/img/de.png' height='20px'&gt;&lt;/span&gt;","&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;")</f>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6196,7 +6269,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6206,7 +6279,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6216,7 +6289,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6226,7 +6299,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6236,7 +6309,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6246,7 +6319,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6256,7 +6329,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6266,7 +6339,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6276,7 +6349,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6286,7 +6359,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6296,7 +6369,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6306,7 +6379,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6316,7 +6389,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6326,7 +6399,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="8:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;span title='In English language'&gt;&lt;img src='assets/img/en.png' height='20px'&gt;&lt;/span&gt;</v>
@@ -6336,7 +6409,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <